--- a/database/industries/darou/delor/product/monthly_seprated.xlsx
+++ b/database/industries/darou/delor/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\delor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B12B07D-362D-4E28-8956-AE82855F619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2C5BEC-9EFE-4AF5-B12B-59D4A6698859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1507,95 +1507,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>1463070</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>48349</v>
       </c>
       <c r="AA11" s="11">
-        <v>1463070</v>
+        <v>1147780</v>
       </c>
       <c r="AB11" s="11">
-        <v>48349</v>
+        <v>1213079</v>
       </c>
       <c r="AC11" s="11">
-        <v>1147780</v>
+        <v>1651700</v>
       </c>
       <c r="AD11" s="11">
-        <v>1213079</v>
+        <v>671977</v>
       </c>
       <c r="AE11" s="11">
-        <v>1651700</v>
+        <v>333642</v>
       </c>
       <c r="AF11" s="11">
-        <v>671977</v>
+        <v>201054</v>
       </c>
       <c r="AG11" s="11">
-        <v>333642</v>
+        <v>416515</v>
       </c>
       <c r="AH11" s="11">
-        <v>201054</v>
+        <v>317194</v>
       </c>
       <c r="AI11" s="11">
-        <v>416515</v>
+        <v>539249</v>
       </c>
       <c r="AJ11" s="11">
-        <v>317194</v>
+        <v>342685</v>
       </c>
       <c r="AK11" s="11">
-        <v>539249</v>
+        <v>529488</v>
       </c>
       <c r="AL11" s="11">
-        <v>342685</v>
+        <v>567716</v>
       </c>
       <c r="AM11" s="11">
-        <v>529488</v>
+        <v>578664</v>
       </c>
       <c r="AN11" s="11">
-        <v>567716</v>
+        <v>1455754</v>
       </c>
       <c r="AO11" s="11">
-        <v>578664</v>
+        <v>1382022</v>
       </c>
       <c r="AP11" s="11">
-        <v>1455754</v>
+        <v>1275219</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1382022</v>
+        <v>2008405</v>
       </c>
       <c r="AR11" s="11">
-        <v>1275219</v>
+        <v>1484290</v>
       </c>
       <c r="AS11" s="11">
-        <v>2008405</v>
+        <v>1686481</v>
       </c>
       <c r="AT11" s="11">
-        <v>1484290</v>
+        <v>1214319</v>
       </c>
       <c r="AU11" s="11">
-        <v>1686481</v>
+        <v>1763657</v>
       </c>
       <c r="AV11" s="11">
-        <v>1214319</v>
+        <v>1800271</v>
       </c>
       <c r="AW11" s="11">
-        <v>1763657</v>
+        <v>1195927</v>
       </c>
       <c r="AX11" s="11">
-        <v>1800271</v>
+        <v>976071</v>
       </c>
       <c r="AY11" s="11">
-        <v>1195927</v>
+        <v>670061</v>
       </c>
       <c r="AZ11" s="11">
-        <v>976071</v>
+        <v>509558</v>
       </c>
       <c r="BA11" s="11">
-        <v>670061</v>
+        <v>1030218</v>
       </c>
       <c r="BB11" s="11">
-        <v>509558</v>
+        <v>1305045</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1666,95 +1666,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>104910270</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>104197689</v>
       </c>
       <c r="AA12" s="13">
-        <v>104910270</v>
+        <v>90032006</v>
       </c>
       <c r="AB12" s="13">
-        <v>104197689</v>
+        <v>102188975</v>
       </c>
       <c r="AC12" s="13">
-        <v>90032006</v>
+        <v>93289912</v>
       </c>
       <c r="AD12" s="13">
-        <v>102188975</v>
+        <v>90482146</v>
       </c>
       <c r="AE12" s="13">
-        <v>93289912</v>
+        <v>83522723</v>
       </c>
       <c r="AF12" s="13">
-        <v>90482146</v>
+        <v>80768024</v>
       </c>
       <c r="AG12" s="13">
-        <v>83522723</v>
+        <v>85884620</v>
       </c>
       <c r="AH12" s="13">
-        <v>80768024</v>
+        <v>46878700</v>
       </c>
       <c r="AI12" s="13">
-        <v>85884620</v>
+        <v>80291245</v>
       </c>
       <c r="AJ12" s="13">
-        <v>46878700</v>
+        <v>67330870</v>
       </c>
       <c r="AK12" s="13">
-        <v>80291245</v>
+        <v>65183323</v>
       </c>
       <c r="AL12" s="13">
-        <v>67330870</v>
+        <v>66068830</v>
       </c>
       <c r="AM12" s="13">
-        <v>65183323</v>
+        <v>80623959</v>
       </c>
       <c r="AN12" s="13">
-        <v>66068830</v>
+        <v>85255556</v>
       </c>
       <c r="AO12" s="13">
-        <v>80623959</v>
+        <v>90719923</v>
       </c>
       <c r="AP12" s="13">
-        <v>85255556</v>
+        <v>77124463</v>
       </c>
       <c r="AQ12" s="13">
-        <v>90719923</v>
+        <v>63564488</v>
       </c>
       <c r="AR12" s="13">
-        <v>77124463</v>
+        <v>71700772</v>
       </c>
       <c r="AS12" s="13">
-        <v>63564488</v>
+        <v>68091046</v>
       </c>
       <c r="AT12" s="13">
-        <v>71700772</v>
+        <v>33023836</v>
       </c>
       <c r="AU12" s="13">
-        <v>68091046</v>
+        <v>75815345</v>
       </c>
       <c r="AV12" s="13">
-        <v>33023836</v>
+        <v>72793455</v>
       </c>
       <c r="AW12" s="13">
-        <v>75815345</v>
+        <v>76651136</v>
       </c>
       <c r="AX12" s="13">
-        <v>72793455</v>
+        <v>79735871</v>
       </c>
       <c r="AY12" s="13">
-        <v>76651136</v>
+        <v>85031644</v>
       </c>
       <c r="AZ12" s="13">
-        <v>79735871</v>
+        <v>83655626</v>
       </c>
       <c r="BA12" s="13">
-        <v>85031644</v>
+        <v>86703652</v>
       </c>
       <c r="BB12" s="13">
-        <v>83655626</v>
+        <v>82860004</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1825,95 +1825,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>13364921</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>11695460</v>
       </c>
       <c r="AA13" s="11">
-        <v>13364921</v>
+        <v>12949771</v>
       </c>
       <c r="AB13" s="11">
-        <v>11695460</v>
+        <v>12335646</v>
       </c>
       <c r="AC13" s="11">
-        <v>12949771</v>
+        <v>11401404</v>
       </c>
       <c r="AD13" s="11">
-        <v>12335646</v>
+        <v>14154503</v>
       </c>
       <c r="AE13" s="11">
-        <v>11401404</v>
+        <v>12652859</v>
       </c>
       <c r="AF13" s="11">
-        <v>14154503</v>
+        <v>13670884</v>
       </c>
       <c r="AG13" s="11">
-        <v>12652859</v>
+        <v>12115797</v>
       </c>
       <c r="AH13" s="11">
-        <v>13670884</v>
+        <v>7861467</v>
       </c>
       <c r="AI13" s="11">
-        <v>12115797</v>
+        <v>12384325</v>
       </c>
       <c r="AJ13" s="11">
-        <v>7861467</v>
+        <v>13227849</v>
       </c>
       <c r="AK13" s="11">
-        <v>12384325</v>
+        <v>12524508</v>
       </c>
       <c r="AL13" s="11">
-        <v>13227849</v>
+        <v>12514670</v>
       </c>
       <c r="AM13" s="11">
-        <v>12524508</v>
+        <v>13202119</v>
       </c>
       <c r="AN13" s="11">
-        <v>12514670</v>
+        <v>14284280</v>
       </c>
       <c r="AO13" s="11">
-        <v>13202119</v>
+        <v>14872736</v>
       </c>
       <c r="AP13" s="11">
-        <v>14284280</v>
+        <v>14432572</v>
       </c>
       <c r="AQ13" s="11">
-        <v>14872736</v>
+        <v>13841913</v>
       </c>
       <c r="AR13" s="11">
-        <v>14432572</v>
+        <v>12478300</v>
       </c>
       <c r="AS13" s="11">
-        <v>13841913</v>
+        <v>11638916</v>
       </c>
       <c r="AT13" s="11">
-        <v>12478300</v>
+        <v>7848151</v>
       </c>
       <c r="AU13" s="11">
-        <v>11638916</v>
+        <v>11202335</v>
       </c>
       <c r="AV13" s="11">
-        <v>7848151</v>
+        <v>12721308</v>
       </c>
       <c r="AW13" s="11">
-        <v>11202335</v>
+        <v>13954153</v>
       </c>
       <c r="AX13" s="11">
-        <v>12721308</v>
+        <v>17471173</v>
       </c>
       <c r="AY13" s="11">
-        <v>13954153</v>
+        <v>12582761</v>
       </c>
       <c r="AZ13" s="11">
-        <v>17471173</v>
+        <v>13023070</v>
       </c>
       <c r="BA13" s="11">
-        <v>12582761</v>
+        <v>13418939</v>
       </c>
       <c r="BB13" s="11">
-        <v>13023070</v>
+        <v>12943355</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1984,95 +1984,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>8333339</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>7006205</v>
       </c>
       <c r="AA14" s="13">
-        <v>8333339</v>
+        <v>6242737</v>
       </c>
       <c r="AB14" s="13">
-        <v>7006205</v>
+        <v>7781926</v>
       </c>
       <c r="AC14" s="13">
-        <v>6242737</v>
+        <v>8577443</v>
       </c>
       <c r="AD14" s="13">
-        <v>7781926</v>
+        <v>6032886</v>
       </c>
       <c r="AE14" s="13">
-        <v>8577443</v>
+        <v>9022814</v>
       </c>
       <c r="AF14" s="13">
-        <v>6032886</v>
+        <v>7949978</v>
       </c>
       <c r="AG14" s="13">
-        <v>9022814</v>
+        <v>6401212</v>
       </c>
       <c r="AH14" s="13">
-        <v>7949978</v>
+        <v>2045460</v>
       </c>
       <c r="AI14" s="13">
-        <v>6401212</v>
+        <v>996256</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2045460</v>
+        <v>2157236</v>
       </c>
       <c r="AK14" s="13">
-        <v>996256</v>
+        <v>2783856</v>
       </c>
       <c r="AL14" s="13">
-        <v>2157236</v>
+        <v>2915364</v>
       </c>
       <c r="AM14" s="13">
-        <v>2783856</v>
+        <v>5458448</v>
       </c>
       <c r="AN14" s="13">
-        <v>2915364</v>
+        <v>7454580</v>
       </c>
       <c r="AO14" s="13">
-        <v>5458448</v>
+        <v>6319326</v>
       </c>
       <c r="AP14" s="13">
-        <v>7454580</v>
+        <v>6637498</v>
       </c>
       <c r="AQ14" s="13">
-        <v>6319326</v>
+        <v>7506879</v>
       </c>
       <c r="AR14" s="13">
-        <v>6637498</v>
+        <v>6800187</v>
       </c>
       <c r="AS14" s="13">
-        <v>7506879</v>
+        <v>5025584</v>
       </c>
       <c r="AT14" s="13">
-        <v>6800187</v>
+        <v>5408548</v>
       </c>
       <c r="AU14" s="13">
-        <v>5025584</v>
+        <v>6500013</v>
       </c>
       <c r="AV14" s="13">
-        <v>5408548</v>
+        <v>7078585</v>
       </c>
       <c r="AW14" s="13">
-        <v>6500013</v>
+        <v>7107963</v>
       </c>
       <c r="AX14" s="13">
-        <v>7078585</v>
+        <v>6400400</v>
       </c>
       <c r="AY14" s="13">
-        <v>7107963</v>
+        <v>6879516</v>
       </c>
       <c r="AZ14" s="13">
-        <v>6400400</v>
+        <v>6025887</v>
       </c>
       <c r="BA14" s="13">
-        <v>6879516</v>
+        <v>6859171</v>
       </c>
       <c r="BB14" s="13">
-        <v>6025887</v>
+        <v>5047786</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2142,94 +2142,94 @@
         <v>0</v>
       </c>
       <c r="Y15" s="15">
-        <v>0</v>
+        <v>128071600</v>
       </c>
       <c r="Z15" s="15">
-        <v>0</v>
+        <v>122947703</v>
       </c>
       <c r="AA15" s="15">
-        <v>128071600</v>
+        <v>110372294</v>
       </c>
       <c r="AB15" s="15">
-        <v>122947703</v>
+        <v>123519626</v>
       </c>
       <c r="AC15" s="15">
-        <v>110372294</v>
+        <v>114920459</v>
       </c>
       <c r="AD15" s="15">
-        <v>123519626</v>
+        <v>111341512</v>
       </c>
       <c r="AE15" s="15">
-        <v>114920459</v>
+        <v>105532038</v>
       </c>
       <c r="AF15" s="15">
-        <v>111341512</v>
+        <v>102589940</v>
       </c>
       <c r="AG15" s="15">
-        <v>105532038</v>
+        <v>104818144</v>
       </c>
       <c r="AH15" s="15">
-        <v>102589940</v>
+        <v>57102821</v>
       </c>
       <c r="AI15" s="15">
-        <v>104818144</v>
+        <v>94211075</v>
       </c>
       <c r="AJ15" s="15">
-        <v>57102821</v>
+        <v>83058640</v>
       </c>
       <c r="AK15" s="15">
-        <v>94211075</v>
+        <v>81021175</v>
       </c>
       <c r="AL15" s="15">
-        <v>83058640</v>
+        <v>82066580</v>
       </c>
       <c r="AM15" s="15">
-        <v>81021175</v>
+        <v>99863190</v>
       </c>
       <c r="AN15" s="15">
-        <v>82066580</v>
+        <v>108450170</v>
       </c>
       <c r="AO15" s="15">
-        <v>99863190</v>
+        <v>113294007</v>
       </c>
       <c r="AP15" s="15">
-        <v>108450170</v>
+        <v>99469752</v>
       </c>
       <c r="AQ15" s="15">
-        <v>113294007</v>
+        <v>86921685</v>
       </c>
       <c r="AR15" s="15">
-        <v>99469752</v>
+        <v>92463549</v>
       </c>
       <c r="AS15" s="15">
-        <v>86921685</v>
+        <v>86442027</v>
       </c>
       <c r="AT15" s="15">
-        <v>92463549</v>
+        <v>47494854</v>
       </c>
       <c r="AU15" s="15">
-        <v>86442027</v>
+        <v>95281350</v>
       </c>
       <c r="AV15" s="15">
-        <v>47494854</v>
+        <v>94393619</v>
       </c>
       <c r="AW15" s="15">
-        <v>95281350</v>
+        <v>98909179</v>
       </c>
       <c r="AX15" s="15">
-        <v>94393619</v>
+        <v>104583515</v>
       </c>
       <c r="AY15" s="15">
-        <v>98909179</v>
+        <v>105163982</v>
       </c>
       <c r="AZ15" s="15">
-        <v>104583515</v>
+        <v>103214141</v>
       </c>
       <c r="BA15" s="15">
-        <v>105163982</v>
+        <v>108011980</v>
       </c>
       <c r="BB15" s="15">
-        <v>103214141</v>
+        <v>102156190</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2357,26 +2357,26 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>0</v>
       </c>
       <c r="AA17" s="11">
-        <v>0</v>
+        <v>108196</v>
       </c>
       <c r="AB17" s="11">
         <v>0</v>
       </c>
       <c r="AC17" s="11">
-        <v>108196</v>
+        <v>10000</v>
       </c>
       <c r="AD17" s="11">
         <v>0</v>
       </c>
       <c r="AE17" s="11">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="11">
         <v>0</v>
@@ -2387,41 +2387,41 @@
       <c r="AH17" s="11">
         <v>0</v>
       </c>
-      <c r="AI17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>58</v>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="11">
+        <v>0</v>
       </c>
       <c r="AM17" s="11">
         <v>0</v>
       </c>
-      <c r="AN17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="11" t="s">
-        <v>58</v>
+      <c r="AN17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP17" s="11">
+        <v>45000</v>
       </c>
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11">
-        <v>45000</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="11">
+        <v>0</v>
       </c>
       <c r="AU17" s="11">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="11">
-        <v>0</v>
+        <v>80134</v>
       </c>
       <c r="BB17" s="11">
         <v>0</v>
@@ -2516,74 +2516,74 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>0</v>
       </c>
       <c r="AA18" s="13">
-        <v>0</v>
+        <v>6019600</v>
       </c>
       <c r="AB18" s="13">
         <v>0</v>
       </c>
       <c r="AC18" s="13">
-        <v>6019600</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="13">
-        <v>0</v>
+        <v>75116</v>
       </c>
       <c r="AE18" s="13">
         <v>0</v>
       </c>
       <c r="AF18" s="13">
-        <v>75116</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="13">
-        <v>0</v>
+        <v>280000</v>
       </c>
       <c r="AH18" s="13">
         <v>0</v>
       </c>
-      <c r="AI18" s="13">
+      <c r="AI18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>349440</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="13">
         <v>280000</v>
       </c>
-      <c r="AJ18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>349440</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>0</v>
-      </c>
       <c r="AP18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>280000</v>
-      </c>
-      <c r="AR18" s="13">
         <v>600000</v>
       </c>
-      <c r="AS18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT18" s="13" t="s">
-        <v>58</v>
+      <c r="AQ18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>420000</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>0</v>
       </c>
       <c r="AU18" s="13">
-        <v>420000</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="13">
         <v>0</v>
@@ -2598,13 +2598,13 @@
         <v>0</v>
       </c>
       <c r="AZ18" s="13">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="BA18" s="13">
-        <v>0</v>
+        <v>1380760</v>
       </c>
       <c r="BB18" s="13">
-        <v>440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2675,74 +2675,74 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>5900</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>14188</v>
       </c>
       <c r="AA19" s="11">
-        <v>5900</v>
+        <v>689904</v>
       </c>
       <c r="AB19" s="11">
-        <v>14188</v>
+        <v>54930</v>
       </c>
       <c r="AC19" s="11">
-        <v>689904</v>
+        <v>443114</v>
       </c>
       <c r="AD19" s="11">
-        <v>54930</v>
+        <v>168470</v>
       </c>
       <c r="AE19" s="11">
-        <v>443114</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="11">
-        <v>168470</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="11">
-        <v>0</v>
+        <v>231870</v>
       </c>
       <c r="AH19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="11">
-        <v>231870</v>
-      </c>
-      <c r="AJ19" s="11">
         <v>102140</v>
       </c>
-      <c r="AK19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL19" s="11" t="s">
-        <v>58</v>
+      <c r="AI19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>0</v>
       </c>
       <c r="AM19" s="11">
-        <v>0</v>
+        <v>3990</v>
       </c>
       <c r="AN19" s="11">
-        <v>0</v>
+        <v>71930</v>
       </c>
       <c r="AO19" s="11">
-        <v>3990</v>
+        <v>123774</v>
       </c>
       <c r="AP19" s="11">
-        <v>71930</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>123774</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT19" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>90000</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>0</v>
       </c>
       <c r="AU19" s="11">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="11">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="BA19" s="11">
-        <v>0</v>
+        <v>251050</v>
       </c>
       <c r="BB19" s="11">
-        <v>0</v>
+        <v>422050</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2834,95 +2834,95 @@
       <c r="X20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z20" s="13" t="s">
-        <v>58</v>
+      <c r="Y20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>1837389</v>
       </c>
       <c r="AA20" s="13">
-        <v>0</v>
+        <v>1524650</v>
       </c>
       <c r="AB20" s="13">
-        <v>1837389</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="13">
-        <v>1524650</v>
+        <v>133867</v>
       </c>
       <c r="AD20" s="13">
-        <v>0</v>
+        <v>1533528</v>
       </c>
       <c r="AE20" s="13">
-        <v>133867</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="13">
-        <v>1533528</v>
+        <v>50004</v>
       </c>
       <c r="AG20" s="13">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AH20" s="13">
-        <v>50004</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="13">
-        <v>90000</v>
+        <v>2497008</v>
       </c>
       <c r="AJ20" s="13">
-        <v>0</v>
+        <v>808272</v>
       </c>
       <c r="AK20" s="13">
-        <v>2497008</v>
+        <v>10920</v>
       </c>
       <c r="AL20" s="13">
-        <v>808272</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="13">
-        <v>10920</v>
+        <v>135604</v>
       </c>
       <c r="AN20" s="13">
-        <v>0</v>
+        <v>40008</v>
       </c>
       <c r="AO20" s="13">
-        <v>135604</v>
+        <v>25000</v>
       </c>
       <c r="AP20" s="13">
-        <v>40008</v>
+        <v>404988</v>
       </c>
       <c r="AQ20" s="13">
-        <v>25000</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>404988</v>
+        <v>300887</v>
+      </c>
+      <c r="AR20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS20" s="13">
-        <v>300887</v>
-      </c>
-      <c r="AT20" s="13" t="s">
-        <v>58</v>
+        <v>341128</v>
+      </c>
+      <c r="AT20" s="13">
+        <v>153300</v>
       </c>
       <c r="AU20" s="13">
-        <v>341128</v>
+        <v>11942</v>
       </c>
       <c r="AV20" s="13">
-        <v>153300</v>
+        <v>38</v>
       </c>
       <c r="AW20" s="13">
-        <v>11942</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="13">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="13">
         <v>0</v>
       </c>
       <c r="AZ20" s="13">
-        <v>0</v>
+        <v>399984</v>
       </c>
       <c r="BA20" s="13">
-        <v>0</v>
+        <v>249488</v>
       </c>
       <c r="BB20" s="13">
-        <v>399984</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -2992,94 +2992,94 @@
         <v>0</v>
       </c>
       <c r="Y21" s="15">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="Z21" s="15">
-        <v>0</v>
+        <v>1851577</v>
       </c>
       <c r="AA21" s="15">
-        <v>5900</v>
+        <v>8342350</v>
       </c>
       <c r="AB21" s="15">
-        <v>1851577</v>
+        <v>54930</v>
       </c>
       <c r="AC21" s="15">
-        <v>8342350</v>
+        <v>586981</v>
       </c>
       <c r="AD21" s="15">
-        <v>54930</v>
+        <v>1777114</v>
       </c>
       <c r="AE21" s="15">
-        <v>586981</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="15">
-        <v>1777114</v>
+        <v>50004</v>
       </c>
       <c r="AG21" s="15">
-        <v>0</v>
+        <v>601870</v>
       </c>
       <c r="AH21" s="15">
-        <v>50004</v>
+        <v>102140</v>
       </c>
       <c r="AI21" s="15">
-        <v>601870</v>
+        <v>2497008</v>
       </c>
       <c r="AJ21" s="15">
-        <v>102140</v>
+        <v>1157712</v>
       </c>
       <c r="AK21" s="15">
-        <v>2497008</v>
+        <v>10920</v>
       </c>
       <c r="AL21" s="15">
-        <v>1157712</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="15">
-        <v>10920</v>
+        <v>139594</v>
       </c>
       <c r="AN21" s="15">
-        <v>0</v>
+        <v>111938</v>
       </c>
       <c r="AO21" s="15">
-        <v>139594</v>
+        <v>428774</v>
       </c>
       <c r="AP21" s="15">
-        <v>111938</v>
+        <v>1049988</v>
       </c>
       <c r="AQ21" s="15">
-        <v>428774</v>
+        <v>300887</v>
       </c>
       <c r="AR21" s="15">
-        <v>1049988</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="15">
-        <v>300887</v>
+        <v>851128</v>
       </c>
       <c r="AT21" s="15">
-        <v>0</v>
+        <v>153300</v>
       </c>
       <c r="AU21" s="15">
-        <v>851128</v>
+        <v>11942</v>
       </c>
       <c r="AV21" s="15">
-        <v>153300</v>
+        <v>38</v>
       </c>
       <c r="AW21" s="15">
-        <v>11942</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="15">
         <v>0</v>
       </c>
       <c r="AZ21" s="15">
-        <v>0</v>
+        <v>839984</v>
       </c>
       <c r="BA21" s="15">
-        <v>0</v>
+        <v>1961432</v>
       </c>
       <c r="BB21" s="15">
-        <v>839984</v>
+        <v>522050</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3207,38 +3207,38 @@
       <c r="X23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>58</v>
+      <c r="Y23" s="11">
+        <v>799608</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>1879355</v>
       </c>
       <c r="AA23" s="11">
-        <v>799608</v>
+        <v>539024</v>
       </c>
       <c r="AB23" s="11">
-        <v>1879355</v>
+        <v>551798</v>
       </c>
       <c r="AC23" s="11">
-        <v>539024</v>
+        <v>341418</v>
       </c>
       <c r="AD23" s="11">
-        <v>551798</v>
+        <v>820763</v>
       </c>
       <c r="AE23" s="11">
-        <v>341418</v>
+        <v>707060</v>
       </c>
       <c r="AF23" s="11">
-        <v>820763</v>
+        <v>507103</v>
       </c>
       <c r="AG23" s="11">
-        <v>707060</v>
-      </c>
-      <c r="AH23" s="11">
-        <v>507103</v>
-      </c>
-      <c r="AI23" s="11">
         <v>945971</v>
+      </c>
+      <c r="AH23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ23" s="11" t="s">
         <v>58</v>
@@ -3393,68 +3393,68 @@
       <c r="AG24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI24" s="13" t="s">
-        <v>58</v>
+      <c r="AH24" s="13">
+        <v>89222</v>
+      </c>
+      <c r="AI24" s="13">
+        <v>254964</v>
       </c>
       <c r="AJ24" s="13">
-        <v>89222</v>
+        <v>666379</v>
       </c>
       <c r="AK24" s="13">
-        <v>254964</v>
+        <v>1232473</v>
       </c>
       <c r="AL24" s="13">
-        <v>666379</v>
+        <v>1897120</v>
       </c>
       <c r="AM24" s="13">
-        <v>1232473</v>
-      </c>
-      <c r="AN24" s="13">
-        <v>1897120</v>
+        <v>849974</v>
+      </c>
+      <c r="AN24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO24" s="13">
-        <v>849974</v>
-      </c>
-      <c r="AP24" s="13" t="s">
-        <v>58</v>
+        <v>522027</v>
+      </c>
+      <c r="AP24" s="13">
+        <v>1325855</v>
       </c>
       <c r="AQ24" s="13">
-        <v>522027</v>
+        <v>3175929</v>
       </c>
       <c r="AR24" s="13">
-        <v>1325855</v>
+        <v>1978891</v>
       </c>
       <c r="AS24" s="13">
-        <v>3175929</v>
+        <v>748266</v>
       </c>
       <c r="AT24" s="13">
-        <v>1978891</v>
+        <v>783428</v>
       </c>
       <c r="AU24" s="13">
-        <v>748266</v>
+        <v>854958</v>
       </c>
       <c r="AV24" s="13">
-        <v>783428</v>
+        <v>457734</v>
       </c>
       <c r="AW24" s="13">
-        <v>854958</v>
+        <v>185615</v>
       </c>
       <c r="AX24" s="13">
-        <v>457734</v>
+        <v>2410875</v>
       </c>
       <c r="AY24" s="13">
-        <v>185615</v>
+        <v>847593</v>
       </c>
       <c r="AZ24" s="13">
-        <v>2410875</v>
+        <v>3455788</v>
       </c>
       <c r="BA24" s="13">
-        <v>847593</v>
+        <v>1383392</v>
       </c>
       <c r="BB24" s="13">
-        <v>3455788</v>
+        <v>875164</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3523,11 +3523,11 @@
       <c r="X25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z25" s="15" t="s">
-        <v>58</v>
+      <c r="Y25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="15">
+        <v>0</v>
       </c>
       <c r="AA25" s="15">
         <v>0</v>
@@ -3681,94 +3681,94 @@
         <v>0</v>
       </c>
       <c r="Y26" s="17">
-        <v>0</v>
+        <v>128877108</v>
       </c>
       <c r="Z26" s="17">
-        <v>0</v>
+        <v>126678635</v>
       </c>
       <c r="AA26" s="17">
-        <v>128877108</v>
+        <v>119253668</v>
       </c>
       <c r="AB26" s="17">
-        <v>126678635</v>
+        <v>124126354</v>
       </c>
       <c r="AC26" s="17">
-        <v>119253668</v>
+        <v>115848858</v>
       </c>
       <c r="AD26" s="17">
-        <v>124126354</v>
+        <v>113939389</v>
       </c>
       <c r="AE26" s="17">
-        <v>115848858</v>
+        <v>106239098</v>
       </c>
       <c r="AF26" s="17">
-        <v>113939389</v>
+        <v>103147047</v>
       </c>
       <c r="AG26" s="17">
-        <v>106239098</v>
+        <v>106365985</v>
       </c>
       <c r="AH26" s="17">
-        <v>103147047</v>
+        <v>57294183</v>
       </c>
       <c r="AI26" s="17">
-        <v>106365985</v>
+        <v>96963047</v>
       </c>
       <c r="AJ26" s="17">
-        <v>57294183</v>
+        <v>84882731</v>
       </c>
       <c r="AK26" s="17">
-        <v>96963047</v>
+        <v>82264568</v>
       </c>
       <c r="AL26" s="17">
-        <v>84882731</v>
+        <v>83963700</v>
       </c>
       <c r="AM26" s="17">
-        <v>82264568</v>
+        <v>100852758</v>
       </c>
       <c r="AN26" s="17">
-        <v>83963700</v>
+        <v>108562108</v>
       </c>
       <c r="AO26" s="17">
-        <v>100852758</v>
+        <v>114244808</v>
       </c>
       <c r="AP26" s="17">
-        <v>108562108</v>
+        <v>101845595</v>
       </c>
       <c r="AQ26" s="17">
-        <v>114244808</v>
+        <v>90398501</v>
       </c>
       <c r="AR26" s="17">
-        <v>101845595</v>
+        <v>94442440</v>
       </c>
       <c r="AS26" s="17">
-        <v>90398501</v>
+        <v>88041421</v>
       </c>
       <c r="AT26" s="17">
-        <v>94442440</v>
+        <v>48431582</v>
       </c>
       <c r="AU26" s="17">
-        <v>88041421</v>
+        <v>96148250</v>
       </c>
       <c r="AV26" s="17">
-        <v>48431582</v>
+        <v>94851391</v>
       </c>
       <c r="AW26" s="17">
-        <v>96148250</v>
+        <v>99094794</v>
       </c>
       <c r="AX26" s="17">
-        <v>94851391</v>
+        <v>106994390</v>
       </c>
       <c r="AY26" s="17">
-        <v>99094794</v>
+        <v>106011575</v>
       </c>
       <c r="AZ26" s="17">
-        <v>106994390</v>
+        <v>107509913</v>
       </c>
       <c r="BA26" s="17">
-        <v>106011575</v>
+        <v>111356804</v>
       </c>
       <c r="BB26" s="17">
-        <v>107509913</v>
+        <v>103553404</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4273,95 +4273,95 @@
       <c r="X33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z33" s="11" t="s">
-        <v>58</v>
+      <c r="Y33" s="11">
+        <v>1149850</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>995772</v>
       </c>
       <c r="AA33" s="11">
-        <v>1149850</v>
+        <v>1385125</v>
       </c>
       <c r="AB33" s="11">
-        <v>995772</v>
+        <v>1503319</v>
       </c>
       <c r="AC33" s="11">
-        <v>1385125</v>
+        <v>1714266</v>
       </c>
       <c r="AD33" s="11">
-        <v>1503319</v>
+        <v>1058662</v>
       </c>
       <c r="AE33" s="11">
-        <v>1714266</v>
+        <v>872460</v>
       </c>
       <c r="AF33" s="11">
-        <v>1058662</v>
+        <v>548094</v>
       </c>
       <c r="AG33" s="11">
-        <v>872460</v>
+        <v>311354</v>
       </c>
       <c r="AH33" s="11">
-        <v>548094</v>
+        <v>833159</v>
       </c>
       <c r="AI33" s="11">
-        <v>311354</v>
+        <v>1135427</v>
       </c>
       <c r="AJ33" s="11">
-        <v>833159</v>
+        <v>923578</v>
       </c>
       <c r="AK33" s="11">
-        <v>1135427</v>
+        <v>1092812</v>
       </c>
       <c r="AL33" s="11">
-        <v>923578</v>
+        <v>967241</v>
       </c>
       <c r="AM33" s="11">
-        <v>1092812</v>
+        <v>1726604</v>
       </c>
       <c r="AN33" s="11">
-        <v>967241</v>
+        <v>1243067</v>
       </c>
       <c r="AO33" s="11">
-        <v>1726604</v>
+        <v>1808156</v>
       </c>
       <c r="AP33" s="11">
-        <v>1243067</v>
+        <v>1991344</v>
       </c>
       <c r="AQ33" s="11">
-        <v>1808156</v>
+        <v>1515966</v>
       </c>
       <c r="AR33" s="11">
-        <v>1991344</v>
+        <v>1884139</v>
       </c>
       <c r="AS33" s="11">
-        <v>1515966</v>
+        <v>525095</v>
       </c>
       <c r="AT33" s="11">
-        <v>1884139</v>
+        <v>2021660</v>
       </c>
       <c r="AU33" s="11">
-        <v>525095</v>
+        <v>2939623</v>
       </c>
       <c r="AV33" s="11">
-        <v>2021660</v>
+        <v>2225525</v>
       </c>
       <c r="AW33" s="11">
-        <v>2939623</v>
+        <v>1867326</v>
       </c>
       <c r="AX33" s="11">
-        <v>2225525</v>
+        <v>1189093</v>
       </c>
       <c r="AY33" s="11">
-        <v>1867326</v>
+        <v>855110</v>
       </c>
       <c r="AZ33" s="11">
-        <v>1189093</v>
+        <v>559049</v>
       </c>
       <c r="BA33" s="11">
-        <v>855110</v>
+        <v>1002406</v>
       </c>
       <c r="BB33" s="11">
-        <v>559049</v>
+        <v>986057</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4432,95 +4432,95 @@
       <c r="X34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z34" s="13" t="s">
-        <v>58</v>
+      <c r="Y34" s="13">
+        <v>105702500</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>109480225</v>
       </c>
       <c r="AA34" s="13">
-        <v>105702500</v>
+        <v>88158100</v>
       </c>
       <c r="AB34" s="13">
-        <v>109480225</v>
+        <v>86155663</v>
       </c>
       <c r="AC34" s="13">
-        <v>88158100</v>
+        <v>91106475</v>
       </c>
       <c r="AD34" s="13">
-        <v>86155663</v>
+        <v>71734120</v>
       </c>
       <c r="AE34" s="13">
-        <v>91106475</v>
+        <v>69556245</v>
       </c>
       <c r="AF34" s="13">
-        <v>71734120</v>
+        <v>69521338</v>
       </c>
       <c r="AG34" s="13">
-        <v>69556245</v>
+        <v>15636820</v>
       </c>
       <c r="AH34" s="13">
-        <v>69521338</v>
+        <v>74710418</v>
       </c>
       <c r="AI34" s="13">
-        <v>15636820</v>
+        <v>66659112</v>
       </c>
       <c r="AJ34" s="13">
-        <v>74710418</v>
+        <v>47213754</v>
       </c>
       <c r="AK34" s="13">
-        <v>66659112</v>
+        <v>65386186</v>
       </c>
       <c r="AL34" s="13">
-        <v>47213754</v>
+        <v>79313020</v>
       </c>
       <c r="AM34" s="13">
-        <v>65386186</v>
+        <v>91134372</v>
       </c>
       <c r="AN34" s="13">
-        <v>79313020</v>
+        <v>115369648</v>
       </c>
       <c r="AO34" s="13">
-        <v>91134372</v>
+        <v>101409984</v>
       </c>
       <c r="AP34" s="13">
-        <v>115369648</v>
+        <v>131847277</v>
       </c>
       <c r="AQ34" s="13">
-        <v>101409984</v>
+        <v>90418024</v>
       </c>
       <c r="AR34" s="13">
-        <v>131847277</v>
+        <v>48754995</v>
       </c>
       <c r="AS34" s="13">
-        <v>90418024</v>
+        <v>15265301</v>
       </c>
       <c r="AT34" s="13">
-        <v>48754995</v>
+        <v>76954001</v>
       </c>
       <c r="AU34" s="13">
-        <v>15265301</v>
+        <v>104714257</v>
       </c>
       <c r="AV34" s="13">
-        <v>76954001</v>
+        <v>74573196</v>
       </c>
       <c r="AW34" s="13">
-        <v>104714257</v>
+        <v>91958141</v>
       </c>
       <c r="AX34" s="13">
-        <v>74573196</v>
+        <v>65965253</v>
       </c>
       <c r="AY34" s="13">
-        <v>91958141</v>
+        <v>85172184</v>
       </c>
       <c r="AZ34" s="13">
-        <v>65965253</v>
+        <v>76924175</v>
       </c>
       <c r="BA34" s="13">
-        <v>85172184</v>
+        <v>98540094</v>
       </c>
       <c r="BB34" s="13">
-        <v>76924175</v>
+        <v>87594940</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4591,95 +4591,95 @@
       <c r="X35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z35" s="11" t="s">
-        <v>58</v>
+      <c r="Y35" s="11">
+        <v>12267750</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>13022193</v>
       </c>
       <c r="AA35" s="11">
-        <v>12267750</v>
+        <v>8449867</v>
       </c>
       <c r="AB35" s="11">
-        <v>13022193</v>
+        <v>12719132</v>
       </c>
       <c r="AC35" s="11">
-        <v>8449867</v>
+        <v>12139960</v>
       </c>
       <c r="AD35" s="11">
-        <v>12719132</v>
+        <v>11454979</v>
       </c>
       <c r="AE35" s="11">
-        <v>12139960</v>
+        <v>8310485</v>
       </c>
       <c r="AF35" s="11">
-        <v>11454979</v>
+        <v>13119764</v>
       </c>
       <c r="AG35" s="11">
-        <v>8310485</v>
+        <v>4330558</v>
       </c>
       <c r="AH35" s="11">
-        <v>13119764</v>
+        <v>10265761</v>
       </c>
       <c r="AI35" s="11">
-        <v>4330558</v>
+        <v>15788895</v>
       </c>
       <c r="AJ35" s="11">
-        <v>10265761</v>
+        <v>13862169</v>
       </c>
       <c r="AK35" s="11">
-        <v>15788895</v>
+        <v>16134297</v>
       </c>
       <c r="AL35" s="11">
-        <v>13862169</v>
+        <v>17228757</v>
       </c>
       <c r="AM35" s="11">
-        <v>16134297</v>
+        <v>12894538</v>
       </c>
       <c r="AN35" s="11">
-        <v>17228757</v>
+        <v>17081837</v>
       </c>
       <c r="AO35" s="11">
-        <v>12894538</v>
+        <v>16907088</v>
       </c>
       <c r="AP35" s="11">
-        <v>17081837</v>
+        <v>16033426</v>
       </c>
       <c r="AQ35" s="11">
-        <v>16907088</v>
+        <v>14401500</v>
       </c>
       <c r="AR35" s="11">
-        <v>16033426</v>
+        <v>14131929</v>
       </c>
       <c r="AS35" s="11">
-        <v>14401500</v>
+        <v>4963001</v>
       </c>
       <c r="AT35" s="11">
-        <v>14131929</v>
+        <v>10795341</v>
       </c>
       <c r="AU35" s="11">
-        <v>4963001</v>
+        <v>16493893</v>
       </c>
       <c r="AV35" s="11">
-        <v>10795341</v>
+        <v>13118429</v>
       </c>
       <c r="AW35" s="11">
-        <v>16493893</v>
+        <v>12501207</v>
       </c>
       <c r="AX35" s="11">
-        <v>13118429</v>
+        <v>12936194</v>
       </c>
       <c r="AY35" s="11">
-        <v>12501207</v>
+        <v>10889677</v>
       </c>
       <c r="AZ35" s="11">
-        <v>12936194</v>
+        <v>19307595</v>
       </c>
       <c r="BA35" s="11">
-        <v>10889677</v>
+        <v>16309048</v>
       </c>
       <c r="BB35" s="11">
-        <v>19307595</v>
+        <v>11770603</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4750,95 +4750,95 @@
       <c r="X36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z36" s="13" t="s">
-        <v>58</v>
+      <c r="Y36" s="13">
+        <v>6119450</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>6443997</v>
       </c>
       <c r="AA36" s="13">
-        <v>6119450</v>
+        <v>4209628</v>
       </c>
       <c r="AB36" s="13">
-        <v>6443997</v>
+        <v>6603074</v>
       </c>
       <c r="AC36" s="13">
-        <v>4209628</v>
+        <v>8443051</v>
       </c>
       <c r="AD36" s="13">
-        <v>6603074</v>
+        <v>6414569</v>
       </c>
       <c r="AE36" s="13">
-        <v>8443051</v>
+        <v>4831049</v>
       </c>
       <c r="AF36" s="13">
-        <v>6414569</v>
+        <v>7484059</v>
       </c>
       <c r="AG36" s="13">
-        <v>4831049</v>
+        <v>1499708</v>
       </c>
       <c r="AH36" s="13">
-        <v>7484059</v>
+        <v>3318248</v>
       </c>
       <c r="AI36" s="13">
-        <v>1499708</v>
+        <v>3982564</v>
       </c>
       <c r="AJ36" s="13">
-        <v>3318248</v>
+        <v>2961312</v>
       </c>
       <c r="AK36" s="13">
-        <v>3982564</v>
+        <v>3728896</v>
       </c>
       <c r="AL36" s="13">
-        <v>2961312</v>
+        <v>3962121</v>
       </c>
       <c r="AM36" s="13">
-        <v>3728896</v>
+        <v>7661587</v>
       </c>
       <c r="AN36" s="13">
-        <v>3962121</v>
+        <v>9436434</v>
       </c>
       <c r="AO36" s="13">
-        <v>7661587</v>
+        <v>10585006</v>
       </c>
       <c r="AP36" s="13">
-        <v>9436434</v>
+        <v>4739715</v>
       </c>
       <c r="AQ36" s="13">
-        <v>10585006</v>
+        <v>7013284</v>
       </c>
       <c r="AR36" s="13">
-        <v>4739715</v>
+        <v>8289014</v>
       </c>
       <c r="AS36" s="13">
-        <v>7013284</v>
+        <v>2901251</v>
       </c>
       <c r="AT36" s="13">
-        <v>8289014</v>
+        <v>5238658</v>
       </c>
       <c r="AU36" s="13">
-        <v>2901251</v>
+        <v>7117386</v>
       </c>
       <c r="AV36" s="13">
-        <v>5238658</v>
+        <v>10468801</v>
       </c>
       <c r="AW36" s="13">
-        <v>7117386</v>
+        <v>7804130</v>
       </c>
       <c r="AX36" s="13">
-        <v>10468801</v>
+        <v>3954361</v>
       </c>
       <c r="AY36" s="13">
-        <v>7804130</v>
+        <v>7369879</v>
       </c>
       <c r="AZ36" s="13">
-        <v>3954361</v>
+        <v>7609561</v>
       </c>
       <c r="BA36" s="13">
-        <v>7369879</v>
+        <v>4461017</v>
       </c>
       <c r="BB36" s="13">
-        <v>7609561</v>
+        <v>5333724</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4908,94 +4908,94 @@
         <v>0</v>
       </c>
       <c r="Y37" s="15">
-        <v>0</v>
+        <v>125239550</v>
       </c>
       <c r="Z37" s="15">
-        <v>0</v>
+        <v>129942187</v>
       </c>
       <c r="AA37" s="15">
-        <v>125239550</v>
+        <v>102202720</v>
       </c>
       <c r="AB37" s="15">
-        <v>129942187</v>
+        <v>106981188</v>
       </c>
       <c r="AC37" s="15">
-        <v>102202720</v>
+        <v>113403752</v>
       </c>
       <c r="AD37" s="15">
-        <v>106981188</v>
+        <v>90662330</v>
       </c>
       <c r="AE37" s="15">
-        <v>113403752</v>
+        <v>83570239</v>
       </c>
       <c r="AF37" s="15">
-        <v>90662330</v>
+        <v>90673255</v>
       </c>
       <c r="AG37" s="15">
-        <v>83570239</v>
+        <v>21778440</v>
       </c>
       <c r="AH37" s="15">
-        <v>90673255</v>
+        <v>89127586</v>
       </c>
       <c r="AI37" s="15">
-        <v>21778440</v>
+        <v>87565998</v>
       </c>
       <c r="AJ37" s="15">
-        <v>89127586</v>
+        <v>64960813</v>
       </c>
       <c r="AK37" s="15">
-        <v>87565998</v>
+        <v>86342191</v>
       </c>
       <c r="AL37" s="15">
-        <v>64960813</v>
+        <v>101471139</v>
       </c>
       <c r="AM37" s="15">
-        <v>86342191</v>
+        <v>113417101</v>
       </c>
       <c r="AN37" s="15">
-        <v>101471139</v>
+        <v>143130986</v>
       </c>
       <c r="AO37" s="15">
-        <v>113417101</v>
+        <v>130710234</v>
       </c>
       <c r="AP37" s="15">
-        <v>143130986</v>
+        <v>154611762</v>
       </c>
       <c r="AQ37" s="15">
-        <v>130710234</v>
+        <v>113348774</v>
       </c>
       <c r="AR37" s="15">
-        <v>154611762</v>
+        <v>73060077</v>
       </c>
       <c r="AS37" s="15">
-        <v>113348774</v>
+        <v>23654648</v>
       </c>
       <c r="AT37" s="15">
-        <v>73060077</v>
+        <v>95009660</v>
       </c>
       <c r="AU37" s="15">
-        <v>23654648</v>
+        <v>131265159</v>
       </c>
       <c r="AV37" s="15">
-        <v>95009660</v>
+        <v>100385951</v>
       </c>
       <c r="AW37" s="15">
-        <v>131265159</v>
+        <v>114130804</v>
       </c>
       <c r="AX37" s="15">
-        <v>100385951</v>
+        <v>84044901</v>
       </c>
       <c r="AY37" s="15">
-        <v>114130804</v>
+        <v>104286850</v>
       </c>
       <c r="AZ37" s="15">
-        <v>84044901</v>
+        <v>104400380</v>
       </c>
       <c r="BA37" s="15">
-        <v>104286850</v>
+        <v>120312565</v>
       </c>
       <c r="BB37" s="15">
-        <v>104400380</v>
+        <v>105685324</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5123,23 +5123,23 @@
       <c r="X39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z39" s="11" t="s">
-        <v>58</v>
+      <c r="Y39" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>0</v>
       </c>
       <c r="AA39" s="11">
-        <v>0</v>
+        <v>64264</v>
       </c>
       <c r="AB39" s="11">
-        <v>0</v>
+        <v>43932</v>
       </c>
       <c r="AC39" s="11">
-        <v>64264</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="11">
-        <v>43932</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="11">
         <v>0</v>
@@ -5148,70 +5148,70 @@
         <v>0</v>
       </c>
       <c r="AG39" s="11">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AH39" s="11">
         <v>0</v>
       </c>
-      <c r="AI39" s="11">
+      <c r="AI39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>45000</v>
+      </c>
+      <c r="AR39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="11">
         <v>10000</v>
       </c>
-      <c r="AJ39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>45000</v>
-      </c>
-      <c r="AT39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="11">
-        <v>0</v>
-      </c>
       <c r="BB39" s="11">
-        <v>0</v>
+        <v>87000</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5282,80 +5282,80 @@
       <c r="X40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z40" s="13" t="s">
-        <v>58</v>
+      <c r="Y40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>542000</v>
       </c>
       <c r="AA40" s="13">
-        <v>0</v>
+        <v>1474000</v>
       </c>
       <c r="AB40" s="13">
-        <v>542000</v>
+        <v>5100000</v>
       </c>
       <c r="AC40" s="13">
-        <v>1474000</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="13">
-        <v>5100000</v>
+        <v>699970</v>
       </c>
       <c r="AE40" s="13">
-        <v>0</v>
+        <v>65324</v>
       </c>
       <c r="AF40" s="13">
-        <v>699970</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="13">
-        <v>65324</v>
+        <v>9792</v>
       </c>
       <c r="AH40" s="13">
         <v>0</v>
       </c>
       <c r="AI40" s="13">
-        <v>9792</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>0</v>
+        <v>280000</v>
+      </c>
+      <c r="AJ40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK40" s="13">
+        <v>349440</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>4898200</v>
+      </c>
+      <c r="AP40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ40" s="13">
         <v>280000</v>
       </c>
-      <c r="AL40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>349440</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>4898200</v>
-      </c>
       <c r="AR40" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AS40" s="13">
-        <v>280000</v>
-      </c>
-      <c r="AT40" s="13" t="s">
-        <v>58</v>
+        <v>1020000</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>0</v>
       </c>
       <c r="AU40" s="13">
-        <v>1020000</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="13">
         <v>0</v>
       </c>
-      <c r="AW40" s="13" t="s">
-        <v>58</v>
+      <c r="AW40" s="13">
+        <v>0</v>
       </c>
       <c r="AX40" s="13">
         <v>0</v>
@@ -5367,10 +5367,10 @@
         <v>0</v>
       </c>
       <c r="BA40" s="13">
-        <v>0</v>
+        <v>536000</v>
       </c>
       <c r="BB40" s="13">
-        <v>0</v>
+        <v>1856760</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5441,47 +5441,47 @@
       <c r="X41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>58</v>
+      <c r="Y41" s="11">
+        <v>75954</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>619260</v>
       </c>
       <c r="AA41" s="11">
-        <v>75954</v>
+        <v>472763</v>
       </c>
       <c r="AB41" s="11">
-        <v>619260</v>
+        <v>550560</v>
       </c>
       <c r="AC41" s="11">
-        <v>472763</v>
+        <v>109225</v>
       </c>
       <c r="AD41" s="11">
-        <v>550560</v>
+        <v>68324</v>
       </c>
       <c r="AE41" s="11">
-        <v>109225</v>
+        <v>118960</v>
       </c>
       <c r="AF41" s="11">
-        <v>68324</v>
+        <v>98340</v>
       </c>
       <c r="AG41" s="11">
-        <v>118960</v>
+        <v>577830</v>
       </c>
       <c r="AH41" s="11">
-        <v>98340</v>
+        <v>18740</v>
       </c>
       <c r="AI41" s="11">
-        <v>577830</v>
+        <v>130960</v>
       </c>
       <c r="AJ41" s="11">
-        <v>18740</v>
+        <v>103000</v>
       </c>
       <c r="AK41" s="11">
-        <v>130960</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="11">
-        <v>103000</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="11">
         <v>0</v>
@@ -5490,46 +5490,46 @@
         <v>0</v>
       </c>
       <c r="AO41" s="11">
-        <v>0</v>
+        <v>360381</v>
       </c>
       <c r="AP41" s="11">
-        <v>0</v>
+        <v>61404</v>
       </c>
       <c r="AQ41" s="11">
-        <v>360381</v>
+        <v>23740</v>
       </c>
       <c r="AR41" s="11">
-        <v>61404</v>
+        <v>150000</v>
       </c>
       <c r="AS41" s="11">
-        <v>23740</v>
+        <v>48450</v>
       </c>
       <c r="AT41" s="11">
+        <v>90000</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>72015</v>
+      </c>
+      <c r="AV41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="11">
+        <v>11300</v>
+      </c>
+      <c r="AY41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA41" s="11">
+        <v>299780</v>
+      </c>
+      <c r="BB41" s="11">
         <v>150000</v>
-      </c>
-      <c r="AU41" s="11">
-        <v>48450</v>
-      </c>
-      <c r="AV41" s="11">
-        <v>90000</v>
-      </c>
-      <c r="AW41" s="11">
-        <v>72015</v>
-      </c>
-      <c r="AX41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="11">
-        <v>11300</v>
-      </c>
-      <c r="BA41" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB41" s="11">
-        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5600,95 +5600,95 @@
       <c r="X42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z42" s="13" t="s">
-        <v>58</v>
+      <c r="Y42" s="13">
+        <v>2004</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>1121340</v>
       </c>
       <c r="AA42" s="13">
-        <v>2004</v>
+        <v>2775871</v>
       </c>
       <c r="AB42" s="13">
-        <v>1121340</v>
+        <v>997600</v>
       </c>
       <c r="AC42" s="13">
-        <v>2775871</v>
+        <v>109867</v>
       </c>
       <c r="AD42" s="13">
-        <v>997600</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="13">
-        <v>109867</v>
+        <v>1002432</v>
       </c>
       <c r="AF42" s="13">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AG42" s="13">
-        <v>1002432</v>
+        <v>555096</v>
       </c>
       <c r="AH42" s="13">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="13">
-        <v>555096</v>
+        <v>90000</v>
       </c>
       <c r="AJ42" s="13">
-        <v>0</v>
+        <v>1048932</v>
       </c>
       <c r="AK42" s="13">
-        <v>90000</v>
+        <v>2256444</v>
       </c>
       <c r="AL42" s="13">
-        <v>1048932</v>
+        <v>10920</v>
       </c>
       <c r="AM42" s="13">
-        <v>2256444</v>
+        <v>0</v>
       </c>
       <c r="AN42" s="13">
-        <v>10920</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="13">
-        <v>0</v>
+        <v>35604</v>
       </c>
       <c r="AP42" s="13">
-        <v>0</v>
+        <v>130000</v>
       </c>
       <c r="AQ42" s="13">
-        <v>35604</v>
+        <v>25000</v>
       </c>
       <c r="AR42" s="13">
-        <v>130000</v>
+        <v>434988</v>
       </c>
       <c r="AS42" s="13">
-        <v>25000</v>
+        <v>477896</v>
       </c>
       <c r="AT42" s="13">
-        <v>434988</v>
+        <v>0</v>
       </c>
       <c r="AU42" s="13">
-        <v>477896</v>
+        <v>396540</v>
       </c>
       <c r="AV42" s="13">
         <v>0</v>
       </c>
       <c r="AW42" s="13">
-        <v>396540</v>
+        <v>11980</v>
       </c>
       <c r="AX42" s="13">
         <v>0</v>
       </c>
       <c r="AY42" s="13">
-        <v>11980</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="13">
         <v>0</v>
       </c>
       <c r="BA42" s="13">
-        <v>0</v>
+        <v>533855</v>
       </c>
       <c r="BB42" s="13">
-        <v>0</v>
+        <v>349488</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5758,94 +5758,94 @@
         <v>0</v>
       </c>
       <c r="Y43" s="15">
-        <v>0</v>
+        <v>77958</v>
       </c>
       <c r="Z43" s="15">
-        <v>0</v>
+        <v>2282600</v>
       </c>
       <c r="AA43" s="15">
-        <v>77958</v>
+        <v>4786898</v>
       </c>
       <c r="AB43" s="15">
-        <v>2282600</v>
+        <v>6692092</v>
       </c>
       <c r="AC43" s="15">
-        <v>4786898</v>
+        <v>219092</v>
       </c>
       <c r="AD43" s="15">
-        <v>6692092</v>
+        <v>768294</v>
       </c>
       <c r="AE43" s="15">
-        <v>219092</v>
+        <v>1186716</v>
       </c>
       <c r="AF43" s="15">
-        <v>768294</v>
+        <v>148340</v>
       </c>
       <c r="AG43" s="15">
-        <v>1186716</v>
+        <v>1152718</v>
       </c>
       <c r="AH43" s="15">
-        <v>148340</v>
+        <v>18740</v>
       </c>
       <c r="AI43" s="15">
-        <v>1152718</v>
+        <v>500960</v>
       </c>
       <c r="AJ43" s="15">
-        <v>18740</v>
+        <v>1151932</v>
       </c>
       <c r="AK43" s="15">
-        <v>500960</v>
+        <v>2605884</v>
       </c>
       <c r="AL43" s="15">
-        <v>1151932</v>
+        <v>10920</v>
       </c>
       <c r="AM43" s="15">
-        <v>2605884</v>
+        <v>0</v>
       </c>
       <c r="AN43" s="15">
-        <v>10920</v>
+        <v>0</v>
       </c>
       <c r="AO43" s="15">
-        <v>0</v>
+        <v>5294185</v>
       </c>
       <c r="AP43" s="15">
-        <v>0</v>
+        <v>191404</v>
       </c>
       <c r="AQ43" s="15">
-        <v>5294185</v>
+        <v>373740</v>
       </c>
       <c r="AR43" s="15">
-        <v>191404</v>
+        <v>584988</v>
       </c>
       <c r="AS43" s="15">
-        <v>373740</v>
+        <v>1546346</v>
       </c>
       <c r="AT43" s="15">
-        <v>584988</v>
+        <v>90000</v>
       </c>
       <c r="AU43" s="15">
-        <v>1546346</v>
+        <v>468555</v>
       </c>
       <c r="AV43" s="15">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="AW43" s="15">
-        <v>468555</v>
+        <v>11980</v>
       </c>
       <c r="AX43" s="15">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="AY43" s="15">
-        <v>11980</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="15">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="15">
-        <v>0</v>
+        <v>1379635</v>
       </c>
       <c r="BB43" s="15">
-        <v>0</v>
+        <v>2443248</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5973,38 +5973,38 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>1679201</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>315431</v>
       </c>
       <c r="AA45" s="11">
-        <v>1679201</v>
+        <v>986143</v>
       </c>
       <c r="AB45" s="11">
-        <v>315431</v>
+        <v>368723</v>
       </c>
       <c r="AC45" s="11">
-        <v>986143</v>
+        <v>514656</v>
       </c>
       <c r="AD45" s="11">
-        <v>368723</v>
+        <v>619470</v>
       </c>
       <c r="AE45" s="11">
-        <v>514656</v>
+        <v>822088</v>
       </c>
       <c r="AF45" s="11">
-        <v>619470</v>
+        <v>234739</v>
       </c>
       <c r="AG45" s="11">
-        <v>822088</v>
-      </c>
-      <c r="AH45" s="11">
-        <v>234739</v>
-      </c>
-      <c r="AI45" s="11">
         <v>584756</v>
+      </c>
+      <c r="AH45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ45" s="11" t="s">
         <v>58</v>
@@ -6159,68 +6159,68 @@
       <c r="AG46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI46" s="13" t="s">
-        <v>58</v>
+      <c r="AH46" s="13">
+        <v>374101</v>
+      </c>
+      <c r="AI46" s="13">
+        <v>584737</v>
       </c>
       <c r="AJ46" s="13">
-        <v>374101</v>
+        <v>644586</v>
       </c>
       <c r="AK46" s="13">
-        <v>584737</v>
+        <v>568972</v>
       </c>
       <c r="AL46" s="13">
-        <v>644586</v>
+        <v>1405274</v>
       </c>
       <c r="AM46" s="13">
-        <v>568972</v>
+        <v>728740</v>
       </c>
       <c r="AN46" s="13">
-        <v>1405274</v>
+        <v>1242397</v>
       </c>
       <c r="AO46" s="13">
-        <v>728740</v>
+        <v>569647</v>
       </c>
       <c r="AP46" s="13">
-        <v>1242397</v>
+        <v>519360</v>
       </c>
       <c r="AQ46" s="13">
-        <v>569647</v>
+        <v>2462251</v>
       </c>
       <c r="AR46" s="13">
-        <v>519360</v>
+        <v>2608103</v>
       </c>
       <c r="AS46" s="13">
-        <v>2462251</v>
+        <v>98684</v>
       </c>
       <c r="AT46" s="13">
-        <v>2608103</v>
+        <v>148058</v>
       </c>
       <c r="AU46" s="13">
-        <v>98684</v>
+        <v>1929941</v>
       </c>
       <c r="AV46" s="13">
-        <v>148058</v>
+        <v>1199060</v>
       </c>
       <c r="AW46" s="13">
-        <v>1929941</v>
+        <v>509673</v>
       </c>
       <c r="AX46" s="13">
-        <v>1199060</v>
+        <v>626548</v>
       </c>
       <c r="AY46" s="13">
-        <v>509673</v>
+        <v>2191321</v>
       </c>
       <c r="AZ46" s="13">
-        <v>626548</v>
+        <v>2124537</v>
       </c>
       <c r="BA46" s="13">
-        <v>2191321</v>
+        <v>433844</v>
       </c>
       <c r="BB46" s="13">
-        <v>2124537</v>
+        <v>2275483</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6289,95 +6289,95 @@
       <c r="X47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z47" s="15" t="s">
-        <v>58</v>
+      <c r="Y47" s="15">
+        <v>1679201</v>
+      </c>
+      <c r="Z47" s="15">
+        <v>315431</v>
       </c>
       <c r="AA47" s="15">
-        <v>1679201</v>
+        <v>986143</v>
       </c>
       <c r="AB47" s="15">
-        <v>315431</v>
+        <v>368723</v>
       </c>
       <c r="AC47" s="15">
-        <v>986143</v>
+        <v>514656</v>
       </c>
       <c r="AD47" s="15">
-        <v>368723</v>
+        <v>619470</v>
       </c>
       <c r="AE47" s="15">
-        <v>514656</v>
+        <v>822088</v>
       </c>
       <c r="AF47" s="15">
-        <v>619470</v>
+        <v>234739</v>
       </c>
       <c r="AG47" s="15">
-        <v>822088</v>
+        <v>584756</v>
       </c>
       <c r="AH47" s="15">
-        <v>234739</v>
+        <v>374101</v>
       </c>
       <c r="AI47" s="15">
-        <v>584756</v>
+        <v>584737</v>
       </c>
       <c r="AJ47" s="15">
-        <v>374101</v>
+        <v>644586</v>
       </c>
       <c r="AK47" s="15">
-        <v>584737</v>
+        <v>568972</v>
       </c>
       <c r="AL47" s="15">
-        <v>644586</v>
+        <v>1405274</v>
       </c>
       <c r="AM47" s="15">
-        <v>568972</v>
+        <v>728740</v>
       </c>
       <c r="AN47" s="15">
-        <v>1405274</v>
+        <v>1242397</v>
       </c>
       <c r="AO47" s="15">
-        <v>728740</v>
+        <v>569647</v>
       </c>
       <c r="AP47" s="15">
-        <v>1242397</v>
+        <v>519360</v>
       </c>
       <c r="AQ47" s="15">
-        <v>569647</v>
+        <v>2462251</v>
       </c>
       <c r="AR47" s="15">
-        <v>519360</v>
+        <v>2608103</v>
       </c>
       <c r="AS47" s="15">
-        <v>2462251</v>
+        <v>98684</v>
       </c>
       <c r="AT47" s="15">
-        <v>2608103</v>
+        <v>148058</v>
       </c>
       <c r="AU47" s="15">
-        <v>98684</v>
+        <v>1929941</v>
       </c>
       <c r="AV47" s="15">
-        <v>148058</v>
+        <v>1199060</v>
       </c>
       <c r="AW47" s="15">
-        <v>1929941</v>
+        <v>509673</v>
       </c>
       <c r="AX47" s="15">
-        <v>1199060</v>
+        <v>626548</v>
       </c>
       <c r="AY47" s="15">
-        <v>509673</v>
+        <v>2191321</v>
       </c>
       <c r="AZ47" s="15">
-        <v>626548</v>
+        <v>2124537</v>
       </c>
       <c r="BA47" s="15">
-        <v>2191321</v>
+        <v>433844</v>
       </c>
       <c r="BB47" s="15">
-        <v>2124537</v>
+        <v>2275483</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6503,11 +6503,11 @@
       <c r="X49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z49" s="15" t="s">
-        <v>58</v>
+      <c r="Y49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="15">
+        <v>0</v>
       </c>
       <c r="AA49" s="15">
         <v>0</v>
@@ -6661,94 +6661,94 @@
         <v>0</v>
       </c>
       <c r="Y50" s="17">
-        <v>0</v>
+        <v>126996709</v>
       </c>
       <c r="Z50" s="17">
-        <v>0</v>
+        <v>132540218</v>
       </c>
       <c r="AA50" s="17">
-        <v>126996709</v>
+        <v>107975761</v>
       </c>
       <c r="AB50" s="17">
-        <v>132540218</v>
+        <v>114042003</v>
       </c>
       <c r="AC50" s="17">
-        <v>107975761</v>
+        <v>114137500</v>
       </c>
       <c r="AD50" s="17">
-        <v>114042003</v>
+        <v>92050094</v>
       </c>
       <c r="AE50" s="17">
-        <v>114137500</v>
+        <v>85579043</v>
       </c>
       <c r="AF50" s="17">
-        <v>92050094</v>
+        <v>91056334</v>
       </c>
       <c r="AG50" s="17">
-        <v>85579043</v>
+        <v>23515914</v>
       </c>
       <c r="AH50" s="17">
-        <v>91056334</v>
+        <v>89520427</v>
       </c>
       <c r="AI50" s="17">
-        <v>23515914</v>
+        <v>88651695</v>
       </c>
       <c r="AJ50" s="17">
-        <v>89520427</v>
+        <v>66757331</v>
       </c>
       <c r="AK50" s="17">
-        <v>88651695</v>
+        <v>89517047</v>
       </c>
       <c r="AL50" s="17">
-        <v>66757331</v>
+        <v>102887333</v>
       </c>
       <c r="AM50" s="17">
-        <v>89517047</v>
+        <v>114145841</v>
       </c>
       <c r="AN50" s="17">
-        <v>102887333</v>
+        <v>144373383</v>
       </c>
       <c r="AO50" s="17">
-        <v>114145841</v>
+        <v>136574066</v>
       </c>
       <c r="AP50" s="17">
-        <v>144373383</v>
+        <v>155322526</v>
       </c>
       <c r="AQ50" s="17">
-        <v>136574066</v>
+        <v>116184765</v>
       </c>
       <c r="AR50" s="17">
-        <v>155322526</v>
+        <v>76253168</v>
       </c>
       <c r="AS50" s="17">
-        <v>116184765</v>
+        <v>25299678</v>
       </c>
       <c r="AT50" s="17">
-        <v>76253168</v>
+        <v>95247718</v>
       </c>
       <c r="AU50" s="17">
-        <v>25299678</v>
+        <v>133663655</v>
       </c>
       <c r="AV50" s="17">
-        <v>95247718</v>
+        <v>101585011</v>
       </c>
       <c r="AW50" s="17">
-        <v>133663655</v>
+        <v>114652457</v>
       </c>
       <c r="AX50" s="17">
-        <v>101585011</v>
+        <v>84682749</v>
       </c>
       <c r="AY50" s="17">
-        <v>114652457</v>
+        <v>106478171</v>
       </c>
       <c r="AZ50" s="17">
-        <v>84682749</v>
+        <v>106524917</v>
       </c>
       <c r="BA50" s="17">
-        <v>106478171</v>
+        <v>122126044</v>
       </c>
       <c r="BB50" s="17">
-        <v>106524917</v>
+        <v>110404055</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7253,95 +7253,95 @@
       <c r="X57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z57" s="11" t="s">
-        <v>58</v>
+      <c r="Y57" s="11">
+        <v>89417</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>77603</v>
       </c>
       <c r="AA57" s="11">
-        <v>89417</v>
+        <v>108368</v>
       </c>
       <c r="AB57" s="11">
-        <v>77603</v>
+        <v>137918</v>
       </c>
       <c r="AC57" s="11">
-        <v>108368</v>
+        <v>160116</v>
       </c>
       <c r="AD57" s="11">
-        <v>137918</v>
+        <v>113437</v>
       </c>
       <c r="AE57" s="11">
-        <v>160116</v>
+        <v>148716</v>
       </c>
       <c r="AF57" s="11">
-        <v>113437</v>
+        <v>73461</v>
       </c>
       <c r="AG57" s="11">
-        <v>148716</v>
+        <v>507</v>
       </c>
       <c r="AH57" s="11">
-        <v>73461</v>
+        <v>91554</v>
       </c>
       <c r="AI57" s="11">
-        <v>507</v>
+        <v>113105</v>
       </c>
       <c r="AJ57" s="11">
-        <v>91554</v>
+        <v>125879</v>
       </c>
       <c r="AK57" s="11">
-        <v>113105</v>
+        <v>129749</v>
       </c>
       <c r="AL57" s="11">
-        <v>125879</v>
+        <v>110606</v>
       </c>
       <c r="AM57" s="11">
-        <v>129749</v>
+        <v>208562</v>
       </c>
       <c r="AN57" s="11">
-        <v>110606</v>
+        <v>120356</v>
       </c>
       <c r="AO57" s="11">
-        <v>208562</v>
+        <v>169647</v>
       </c>
       <c r="AP57" s="11">
-        <v>120356</v>
+        <v>187696</v>
       </c>
       <c r="AQ57" s="11">
-        <v>169647</v>
+        <v>157097</v>
       </c>
       <c r="AR57" s="11">
-        <v>187696</v>
+        <v>168046</v>
       </c>
       <c r="AS57" s="11">
-        <v>157097</v>
+        <v>80720</v>
       </c>
       <c r="AT57" s="11">
-        <v>168046</v>
+        <v>196582</v>
       </c>
       <c r="AU57" s="11">
-        <v>80720</v>
+        <v>330206</v>
       </c>
       <c r="AV57" s="11">
-        <v>196582</v>
+        <v>235238</v>
       </c>
       <c r="AW57" s="11">
-        <v>330206</v>
+        <v>394822</v>
       </c>
       <c r="AX57" s="11">
-        <v>235238</v>
+        <v>200261</v>
       </c>
       <c r="AY57" s="11">
-        <v>227255</v>
+        <v>153220</v>
       </c>
       <c r="AZ57" s="11">
-        <v>200261</v>
+        <v>107415</v>
       </c>
       <c r="BA57" s="11">
-        <v>153220</v>
+        <v>208345</v>
       </c>
       <c r="BB57" s="11">
-        <v>107415</v>
+        <v>186453</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7412,95 +7412,95 @@
       <c r="X58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z58" s="13" t="s">
-        <v>58</v>
+      <c r="Y58" s="13">
+        <v>190023</v>
+      </c>
+      <c r="Z58" s="13">
+        <v>175068</v>
       </c>
       <c r="AA58" s="13">
-        <v>190023</v>
+        <v>183770</v>
       </c>
       <c r="AB58" s="13">
-        <v>175068</v>
+        <v>229341</v>
       </c>
       <c r="AC58" s="13">
-        <v>183770</v>
+        <v>240334</v>
       </c>
       <c r="AD58" s="13">
-        <v>229341</v>
+        <v>227885</v>
       </c>
       <c r="AE58" s="13">
-        <v>240334</v>
+        <v>206377</v>
       </c>
       <c r="AF58" s="13">
-        <v>227885</v>
+        <v>214765</v>
       </c>
       <c r="AG58" s="13">
-        <v>206377</v>
+        <v>11901</v>
       </c>
       <c r="AH58" s="13">
-        <v>214765</v>
+        <v>216354</v>
       </c>
       <c r="AI58" s="13">
-        <v>11901</v>
+        <v>204182</v>
       </c>
       <c r="AJ58" s="13">
-        <v>216354</v>
+        <v>160548</v>
       </c>
       <c r="AK58" s="13">
-        <v>204182</v>
+        <v>190392</v>
       </c>
       <c r="AL58" s="13">
-        <v>160548</v>
+        <v>263204</v>
       </c>
       <c r="AM58" s="13">
-        <v>190392</v>
+        <v>261459</v>
       </c>
       <c r="AN58" s="13">
-        <v>263204</v>
+        <v>425732</v>
       </c>
       <c r="AO58" s="13">
-        <v>261459</v>
+        <v>329263</v>
       </c>
       <c r="AP58" s="13">
-        <v>425732</v>
+        <v>512385</v>
       </c>
       <c r="AQ58" s="13">
-        <v>329263</v>
+        <v>313166</v>
       </c>
       <c r="AR58" s="13">
-        <v>512385</v>
+        <v>178973</v>
       </c>
       <c r="AS58" s="13">
-        <v>313166</v>
+        <v>-30475</v>
       </c>
       <c r="AT58" s="13">
-        <v>178973</v>
+        <v>337881</v>
       </c>
       <c r="AU58" s="13">
-        <v>-30475</v>
+        <v>378831</v>
       </c>
       <c r="AV58" s="13">
-        <v>337881</v>
+        <v>261115</v>
       </c>
       <c r="AW58" s="13">
-        <v>378831</v>
+        <v>707344</v>
       </c>
       <c r="AX58" s="13">
-        <v>261115</v>
+        <v>494380</v>
       </c>
       <c r="AY58" s="13">
-        <v>329432</v>
+        <v>550101</v>
       </c>
       <c r="AZ58" s="13">
-        <v>494380</v>
+        <v>496347</v>
       </c>
       <c r="BA58" s="13">
-        <v>550101</v>
+        <v>602074</v>
       </c>
       <c r="BB58" s="13">
-        <v>496347</v>
+        <v>653872</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7571,95 +7571,95 @@
       <c r="X59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z59" s="11" t="s">
-        <v>58</v>
+      <c r="Y59" s="11">
+        <v>417612</v>
+      </c>
+      <c r="Z59" s="11">
+        <v>428609</v>
       </c>
       <c r="AA59" s="11">
-        <v>417612</v>
+        <v>309174</v>
       </c>
       <c r="AB59" s="11">
-        <v>428609</v>
+        <v>391611</v>
       </c>
       <c r="AC59" s="11">
-        <v>309174</v>
+        <v>400730</v>
       </c>
       <c r="AD59" s="11">
-        <v>391611</v>
+        <v>471348</v>
       </c>
       <c r="AE59" s="11">
-        <v>400730</v>
+        <v>366349</v>
       </c>
       <c r="AF59" s="11">
-        <v>471348</v>
+        <v>491350</v>
       </c>
       <c r="AG59" s="11">
-        <v>366349</v>
+        <v>276210</v>
       </c>
       <c r="AH59" s="11">
-        <v>491350</v>
+        <v>514818</v>
       </c>
       <c r="AI59" s="11">
-        <v>276210</v>
+        <v>541495</v>
       </c>
       <c r="AJ59" s="11">
-        <v>514818</v>
+        <v>621429</v>
       </c>
       <c r="AK59" s="11">
-        <v>541495</v>
+        <v>1495359</v>
       </c>
       <c r="AL59" s="11">
-        <v>621429</v>
+        <v>2800037</v>
       </c>
       <c r="AM59" s="11">
-        <v>1495359</v>
+        <v>2088288</v>
       </c>
       <c r="AN59" s="11">
-        <v>2800037</v>
+        <v>1344582</v>
       </c>
       <c r="AO59" s="11">
-        <v>2088288</v>
+        <v>1296773</v>
       </c>
       <c r="AP59" s="11">
-        <v>1344582</v>
+        <v>787090</v>
       </c>
       <c r="AQ59" s="11">
-        <v>1296773</v>
+        <v>732586</v>
       </c>
       <c r="AR59" s="11">
-        <v>787090</v>
+        <v>671029</v>
       </c>
       <c r="AS59" s="11">
-        <v>732586</v>
+        <v>297917</v>
       </c>
       <c r="AT59" s="11">
-        <v>671029</v>
+        <v>824742</v>
       </c>
       <c r="AU59" s="11">
-        <v>297917</v>
+        <v>1029297</v>
       </c>
       <c r="AV59" s="11">
-        <v>824742</v>
+        <v>988425</v>
       </c>
       <c r="AW59" s="11">
-        <v>1029297</v>
+        <v>801431</v>
       </c>
       <c r="AX59" s="11">
-        <v>988425</v>
+        <v>1342637</v>
       </c>
       <c r="AY59" s="11">
-        <v>753497</v>
+        <v>1161887</v>
       </c>
       <c r="AZ59" s="11">
-        <v>1342637</v>
+        <v>1208729</v>
       </c>
       <c r="BA59" s="11">
-        <v>1161887</v>
+        <v>1252831</v>
       </c>
       <c r="BB59" s="11">
-        <v>1208729</v>
+        <v>1161536</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7730,95 +7730,95 @@
       <c r="X60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z60" s="13" t="s">
-        <v>58</v>
+      <c r="Y60" s="13">
+        <v>118395</v>
+      </c>
+      <c r="Z60" s="13">
+        <v>141741</v>
       </c>
       <c r="AA60" s="13">
-        <v>118395</v>
+        <v>62845</v>
       </c>
       <c r="AB60" s="13">
-        <v>141741</v>
+        <v>106569</v>
       </c>
       <c r="AC60" s="13">
-        <v>62845</v>
+        <v>162794</v>
       </c>
       <c r="AD60" s="13">
-        <v>106569</v>
+        <v>123440</v>
       </c>
       <c r="AE60" s="13">
-        <v>162794</v>
+        <v>95954</v>
       </c>
       <c r="AF60" s="13">
-        <v>123440</v>
+        <v>163691</v>
       </c>
       <c r="AG60" s="13">
-        <v>95954</v>
+        <v>50488</v>
       </c>
       <c r="AH60" s="13">
-        <v>163691</v>
+        <v>105777</v>
       </c>
       <c r="AI60" s="13">
-        <v>50488</v>
+        <v>128816</v>
       </c>
       <c r="AJ60" s="13">
-        <v>105777</v>
+        <v>103981</v>
       </c>
       <c r="AK60" s="13">
-        <v>128816</v>
+        <v>111897</v>
       </c>
       <c r="AL60" s="13">
-        <v>103981</v>
+        <v>185135</v>
       </c>
       <c r="AM60" s="13">
-        <v>111897</v>
+        <v>217358</v>
       </c>
       <c r="AN60" s="13">
-        <v>185135</v>
+        <v>338686</v>
       </c>
       <c r="AO60" s="13">
-        <v>217358</v>
+        <v>234590</v>
       </c>
       <c r="AP60" s="13">
-        <v>338686</v>
+        <v>157146</v>
       </c>
       <c r="AQ60" s="13">
-        <v>234590</v>
+        <v>188828</v>
       </c>
       <c r="AR60" s="13">
-        <v>157146</v>
+        <v>273287</v>
       </c>
       <c r="AS60" s="13">
-        <v>188828</v>
+        <v>65663</v>
       </c>
       <c r="AT60" s="13">
-        <v>273287</v>
+        <v>161820</v>
       </c>
       <c r="AU60" s="13">
-        <v>65663</v>
+        <v>263104</v>
       </c>
       <c r="AV60" s="13">
-        <v>161820</v>
+        <v>466111</v>
       </c>
       <c r="AW60" s="13">
-        <v>263104</v>
+        <v>372876</v>
       </c>
       <c r="AX60" s="13">
-        <v>466111</v>
+        <v>390981</v>
       </c>
       <c r="AY60" s="13">
-        <v>372876</v>
+        <v>387480</v>
       </c>
       <c r="AZ60" s="13">
-        <v>390981</v>
+        <v>409426</v>
       </c>
       <c r="BA60" s="13">
-        <v>387480</v>
+        <v>364330</v>
       </c>
       <c r="BB60" s="13">
-        <v>409426</v>
+        <v>383285</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7888,94 +7888,94 @@
         <v>0</v>
       </c>
       <c r="Y61" s="15">
-        <v>0</v>
+        <v>815447</v>
       </c>
       <c r="Z61" s="15">
-        <v>0</v>
+        <v>823021</v>
       </c>
       <c r="AA61" s="15">
-        <v>815447</v>
+        <v>664157</v>
       </c>
       <c r="AB61" s="15">
-        <v>823021</v>
+        <v>865439</v>
       </c>
       <c r="AC61" s="15">
-        <v>664157</v>
+        <v>963974</v>
       </c>
       <c r="AD61" s="15">
-        <v>865439</v>
+        <v>936110</v>
       </c>
       <c r="AE61" s="15">
-        <v>963974</v>
+        <v>817396</v>
       </c>
       <c r="AF61" s="15">
-        <v>936110</v>
+        <v>943267</v>
       </c>
       <c r="AG61" s="15">
-        <v>817396</v>
+        <v>339106</v>
       </c>
       <c r="AH61" s="15">
-        <v>943267</v>
+        <v>928503</v>
       </c>
       <c r="AI61" s="15">
-        <v>339106</v>
+        <v>987598</v>
       </c>
       <c r="AJ61" s="15">
-        <v>928503</v>
+        <v>1011837</v>
       </c>
       <c r="AK61" s="15">
-        <v>987598</v>
+        <v>1927397</v>
       </c>
       <c r="AL61" s="15">
-        <v>1011837</v>
+        <v>3358982</v>
       </c>
       <c r="AM61" s="15">
-        <v>1927397</v>
+        <v>2775667</v>
       </c>
       <c r="AN61" s="15">
-        <v>3358982</v>
+        <v>2229356</v>
       </c>
       <c r="AO61" s="15">
-        <v>2775667</v>
+        <v>2030273</v>
       </c>
       <c r="AP61" s="15">
-        <v>2229356</v>
+        <v>1644317</v>
       </c>
       <c r="AQ61" s="15">
-        <v>2030273</v>
+        <v>1391677</v>
       </c>
       <c r="AR61" s="15">
-        <v>1644317</v>
+        <v>1291335</v>
       </c>
       <c r="AS61" s="15">
-        <v>1391677</v>
+        <v>413825</v>
       </c>
       <c r="AT61" s="15">
-        <v>1291335</v>
+        <v>1521025</v>
       </c>
       <c r="AU61" s="15">
-        <v>413825</v>
+        <v>2001438</v>
       </c>
       <c r="AV61" s="15">
-        <v>1521025</v>
+        <v>1950889</v>
       </c>
       <c r="AW61" s="15">
-        <v>2001438</v>
+        <v>2276473</v>
       </c>
       <c r="AX61" s="15">
-        <v>1950889</v>
+        <v>2428259</v>
       </c>
       <c r="AY61" s="15">
-        <v>1683060</v>
+        <v>2252688</v>
       </c>
       <c r="AZ61" s="15">
-        <v>2428259</v>
+        <v>2221917</v>
       </c>
       <c r="BA61" s="15">
-        <v>2252688</v>
+        <v>2427580</v>
       </c>
       <c r="BB61" s="15">
-        <v>2221917</v>
+        <v>2385146</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8103,23 +8103,23 @@
       <c r="X63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z63" s="11" t="s">
-        <v>58</v>
+      <c r="Y63" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="11">
+        <v>0</v>
       </c>
       <c r="AA63" s="11">
-        <v>0</v>
+        <v>5812</v>
       </c>
       <c r="AB63" s="11">
-        <v>0</v>
+        <v>3931</v>
       </c>
       <c r="AC63" s="11">
-        <v>5812</v>
+        <v>0</v>
       </c>
       <c r="AD63" s="11">
-        <v>3931</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="11">
         <v>0</v>
@@ -8128,13 +8128,13 @@
         <v>0</v>
       </c>
       <c r="AG63" s="11">
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="AH63" s="11">
         <v>0</v>
       </c>
       <c r="AI63" s="11">
-        <v>1012</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="11">
         <v>0</v>
@@ -8158,13 +8158,13 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="11">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="AR63" s="11">
         <v>0</v>
       </c>
       <c r="AS63" s="11">
-        <v>4686</v>
+        <v>0</v>
       </c>
       <c r="AT63" s="11">
         <v>0</v>
@@ -8188,10 +8188,10 @@
         <v>0</v>
       </c>
       <c r="BA63" s="11">
-        <v>0</v>
+        <v>1445</v>
       </c>
       <c r="BB63" s="11">
-        <v>0</v>
+        <v>11569</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8262,74 +8262,74 @@
       <c r="X64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z64" s="13" t="s">
-        <v>58</v>
+      <c r="Y64" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="13">
+        <v>1922</v>
       </c>
       <c r="AA64" s="13">
-        <v>0</v>
+        <v>10138</v>
       </c>
       <c r="AB64" s="13">
-        <v>1922</v>
+        <v>9084</v>
       </c>
       <c r="AC64" s="13">
-        <v>10138</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="13">
-        <v>9084</v>
+        <v>4525</v>
       </c>
       <c r="AE64" s="13">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="AF64" s="13">
-        <v>4525</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="13">
-        <v>274</v>
+        <v>1180</v>
       </c>
       <c r="AH64" s="13">
         <v>0</v>
       </c>
       <c r="AI64" s="13">
-        <v>1180</v>
+        <v>2682</v>
       </c>
       <c r="AJ64" s="13">
         <v>0</v>
       </c>
       <c r="AK64" s="13">
-        <v>2682</v>
+        <v>1003</v>
       </c>
       <c r="AL64" s="13">
         <v>0</v>
       </c>
       <c r="AM64" s="13">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="AN64" s="13">
         <v>0</v>
       </c>
       <c r="AO64" s="13">
-        <v>0</v>
+        <v>19253</v>
       </c>
       <c r="AP64" s="13">
         <v>0</v>
       </c>
       <c r="AQ64" s="13">
-        <v>19253</v>
+        <v>1562</v>
       </c>
       <c r="AR64" s="13">
         <v>0</v>
       </c>
       <c r="AS64" s="13">
-        <v>1562</v>
+        <v>5627</v>
       </c>
       <c r="AT64" s="13">
         <v>0</v>
       </c>
       <c r="AU64" s="13">
-        <v>5627</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="13">
         <v>0</v>
@@ -8347,10 +8347,10 @@
         <v>0</v>
       </c>
       <c r="BA64" s="13">
-        <v>0</v>
+        <v>3469</v>
       </c>
       <c r="BB64" s="13">
-        <v>0</v>
+        <v>9593</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8421,47 +8421,47 @@
       <c r="X65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z65" s="11" t="s">
-        <v>58</v>
+      <c r="Y65" s="11">
+        <v>10026</v>
+      </c>
+      <c r="Z65" s="11">
+        <v>21659</v>
       </c>
       <c r="AA65" s="11">
-        <v>10026</v>
+        <v>41544</v>
       </c>
       <c r="AB65" s="11">
-        <v>21659</v>
+        <v>23187</v>
       </c>
       <c r="AC65" s="11">
-        <v>41544</v>
+        <v>12737</v>
       </c>
       <c r="AD65" s="11">
-        <v>23187</v>
+        <v>5098</v>
       </c>
       <c r="AE65" s="11">
-        <v>12737</v>
+        <v>3348</v>
       </c>
       <c r="AF65" s="11">
-        <v>5098</v>
+        <v>4731</v>
       </c>
       <c r="AG65" s="11">
-        <v>3348</v>
+        <v>17401</v>
       </c>
       <c r="AH65" s="11">
-        <v>4731</v>
+        <v>18485</v>
       </c>
       <c r="AI65" s="11">
-        <v>17401</v>
+        <v>5510</v>
       </c>
       <c r="AJ65" s="11">
-        <v>18485</v>
+        <v>3088</v>
       </c>
       <c r="AK65" s="11">
-        <v>5510</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="11">
-        <v>3088</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="11">
         <v>0</v>
@@ -8470,46 +8470,46 @@
         <v>0</v>
       </c>
       <c r="AO65" s="11">
-        <v>0</v>
+        <v>129569</v>
       </c>
       <c r="AP65" s="11">
-        <v>0</v>
+        <v>11845</v>
       </c>
       <c r="AQ65" s="11">
-        <v>129569</v>
+        <v>3381</v>
       </c>
       <c r="AR65" s="11">
-        <v>11845</v>
+        <v>18409</v>
       </c>
       <c r="AS65" s="11">
-        <v>3381</v>
+        <v>12238</v>
       </c>
       <c r="AT65" s="11">
-        <v>18409</v>
+        <v>3217</v>
       </c>
       <c r="AU65" s="11">
-        <v>12238</v>
+        <v>34288</v>
       </c>
       <c r="AV65" s="11">
-        <v>3217</v>
+        <v>0</v>
       </c>
       <c r="AW65" s="11">
-        <v>34288</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="11">
-        <v>0</v>
+        <v>6224</v>
       </c>
       <c r="AY65" s="11">
         <v>0</v>
       </c>
       <c r="AZ65" s="11">
-        <v>6224</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="11">
-        <v>0</v>
+        <v>6240</v>
       </c>
       <c r="BB65" s="11">
-        <v>0</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8580,95 +8580,95 @@
       <c r="X66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z66" s="13" t="s">
-        <v>58</v>
+      <c r="Y66" s="13">
+        <v>448</v>
+      </c>
+      <c r="Z66" s="13">
+        <v>106736</v>
       </c>
       <c r="AA66" s="13">
-        <v>448</v>
+        <v>174725</v>
       </c>
       <c r="AB66" s="13">
-        <v>106736</v>
+        <v>4588</v>
       </c>
       <c r="AC66" s="13">
-        <v>174725</v>
+        <v>12343</v>
       </c>
       <c r="AD66" s="13">
-        <v>4588</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="13">
-        <v>12343</v>
+        <v>93938</v>
       </c>
       <c r="AF66" s="13">
-        <v>0</v>
+        <v>4772</v>
       </c>
       <c r="AG66" s="13">
-        <v>93938</v>
+        <v>53846</v>
       </c>
       <c r="AH66" s="13">
-        <v>4772</v>
+        <v>0</v>
       </c>
       <c r="AI66" s="13">
-        <v>53846</v>
+        <v>8893</v>
       </c>
       <c r="AJ66" s="13">
-        <v>0</v>
+        <v>162342</v>
       </c>
       <c r="AK66" s="13">
-        <v>8893</v>
+        <v>285375</v>
       </c>
       <c r="AL66" s="13">
-        <v>162342</v>
+        <v>2484</v>
       </c>
       <c r="AM66" s="13">
-        <v>285375</v>
+        <v>0</v>
       </c>
       <c r="AN66" s="13">
-        <v>2484</v>
+        <v>0</v>
       </c>
       <c r="AO66" s="13">
-        <v>0</v>
+        <v>12129</v>
       </c>
       <c r="AP66" s="13">
-        <v>0</v>
+        <v>22072</v>
       </c>
       <c r="AQ66" s="13">
-        <v>12129</v>
+        <v>21269</v>
       </c>
       <c r="AR66" s="13">
-        <v>22072</v>
+        <v>65795</v>
       </c>
       <c r="AS66" s="13">
-        <v>21269</v>
+        <v>47997</v>
       </c>
       <c r="AT66" s="13">
-        <v>65795</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="13">
-        <v>47997</v>
+        <v>35200</v>
       </c>
       <c r="AV66" s="13">
         <v>0</v>
       </c>
       <c r="AW66" s="13">
-        <v>35200</v>
+        <v>3669</v>
       </c>
       <c r="AX66" s="13">
         <v>0</v>
       </c>
       <c r="AY66" s="13">
-        <v>3669</v>
+        <v>0</v>
       </c>
       <c r="AZ66" s="13">
         <v>0</v>
       </c>
       <c r="BA66" s="13">
-        <v>0</v>
+        <v>42532</v>
       </c>
       <c r="BB66" s="13">
-        <v>0</v>
+        <v>38703</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8738,94 +8738,94 @@
         <v>0</v>
       </c>
       <c r="Y67" s="15">
-        <v>0</v>
+        <v>10474</v>
       </c>
       <c r="Z67" s="15">
-        <v>0</v>
+        <v>130317</v>
       </c>
       <c r="AA67" s="15">
-        <v>10474</v>
+        <v>232219</v>
       </c>
       <c r="AB67" s="15">
-        <v>130317</v>
+        <v>40790</v>
       </c>
       <c r="AC67" s="15">
-        <v>232219</v>
+        <v>25080</v>
       </c>
       <c r="AD67" s="15">
-        <v>40790</v>
+        <v>9623</v>
       </c>
       <c r="AE67" s="15">
-        <v>25080</v>
+        <v>97560</v>
       </c>
       <c r="AF67" s="15">
-        <v>9623</v>
+        <v>9503</v>
       </c>
       <c r="AG67" s="15">
-        <v>97560</v>
+        <v>73439</v>
       </c>
       <c r="AH67" s="15">
-        <v>9503</v>
+        <v>18485</v>
       </c>
       <c r="AI67" s="15">
-        <v>73439</v>
+        <v>17085</v>
       </c>
       <c r="AJ67" s="15">
-        <v>18485</v>
+        <v>165430</v>
       </c>
       <c r="AK67" s="15">
-        <v>17085</v>
+        <v>286378</v>
       </c>
       <c r="AL67" s="15">
-        <v>165430</v>
+        <v>2484</v>
       </c>
       <c r="AM67" s="15">
-        <v>286378</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="15">
-        <v>2484</v>
+        <v>0</v>
       </c>
       <c r="AO67" s="15">
-        <v>0</v>
+        <v>160951</v>
       </c>
       <c r="AP67" s="15">
-        <v>0</v>
+        <v>33917</v>
       </c>
       <c r="AQ67" s="15">
-        <v>160951</v>
+        <v>30898</v>
       </c>
       <c r="AR67" s="15">
-        <v>33917</v>
+        <v>84204</v>
       </c>
       <c r="AS67" s="15">
-        <v>30898</v>
+        <v>65862</v>
       </c>
       <c r="AT67" s="15">
-        <v>84204</v>
+        <v>3217</v>
       </c>
       <c r="AU67" s="15">
-        <v>65862</v>
+        <v>69488</v>
       </c>
       <c r="AV67" s="15">
-        <v>3217</v>
+        <v>0</v>
       </c>
       <c r="AW67" s="15">
-        <v>69488</v>
+        <v>3669</v>
       </c>
       <c r="AX67" s="15">
-        <v>0</v>
+        <v>6224</v>
       </c>
       <c r="AY67" s="15">
-        <v>3669</v>
+        <v>0</v>
       </c>
       <c r="AZ67" s="15">
-        <v>6224</v>
+        <v>0</v>
       </c>
       <c r="BA67" s="15">
-        <v>0</v>
+        <v>53686</v>
       </c>
       <c r="BB67" s="15">
-        <v>0</v>
+        <v>65868</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8953,38 +8953,38 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>37563</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>15636</v>
       </c>
       <c r="AA69" s="11">
-        <v>37563</v>
+        <v>36184</v>
       </c>
       <c r="AB69" s="11">
-        <v>15636</v>
+        <v>14349</v>
       </c>
       <c r="AC69" s="11">
-        <v>36184</v>
+        <v>20172</v>
       </c>
       <c r="AD69" s="11">
-        <v>14349</v>
+        <v>27892</v>
       </c>
       <c r="AE69" s="11">
-        <v>20172</v>
+        <v>35487</v>
       </c>
       <c r="AF69" s="11">
-        <v>27892</v>
+        <v>13113</v>
       </c>
       <c r="AG69" s="11">
-        <v>35487</v>
-      </c>
-      <c r="AH69" s="11">
-        <v>13113</v>
-      </c>
-      <c r="AI69" s="11">
         <v>26133</v>
+      </c>
+      <c r="AH69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI69" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ69" s="11" t="s">
         <v>58</v>
@@ -9139,68 +9139,68 @@
       <c r="AG70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI70" s="13" t="s">
-        <v>58</v>
+      <c r="AH70" s="13">
+        <v>16835</v>
+      </c>
+      <c r="AI70" s="13">
+        <v>25555</v>
       </c>
       <c r="AJ70" s="13">
-        <v>16835</v>
+        <v>23118</v>
       </c>
       <c r="AK70" s="13">
-        <v>25555</v>
+        <v>27026</v>
       </c>
       <c r="AL70" s="13">
-        <v>23118</v>
+        <v>42487</v>
       </c>
       <c r="AM70" s="13">
-        <v>27026</v>
+        <v>34406</v>
       </c>
       <c r="AN70" s="13">
-        <v>42487</v>
+        <v>20814</v>
       </c>
       <c r="AO70" s="13">
-        <v>34406</v>
+        <v>30599</v>
       </c>
       <c r="AP70" s="13">
-        <v>20814</v>
+        <v>22294</v>
       </c>
       <c r="AQ70" s="13">
-        <v>30599</v>
+        <v>31228</v>
       </c>
       <c r="AR70" s="13">
-        <v>22294</v>
+        <v>26866</v>
       </c>
       <c r="AS70" s="13">
-        <v>31228</v>
+        <v>14049</v>
       </c>
       <c r="AT70" s="13">
-        <v>26866</v>
+        <v>6434</v>
       </c>
       <c r="AU70" s="13">
-        <v>14049</v>
+        <v>27838</v>
       </c>
       <c r="AV70" s="13">
-        <v>6434</v>
+        <v>49216</v>
       </c>
       <c r="AW70" s="13">
-        <v>27838</v>
+        <v>29314</v>
       </c>
       <c r="AX70" s="13">
-        <v>49216</v>
+        <v>30759</v>
       </c>
       <c r="AY70" s="13">
-        <v>29314</v>
+        <v>20870</v>
       </c>
       <c r="AZ70" s="13">
-        <v>30759</v>
+        <v>30697</v>
       </c>
       <c r="BA70" s="13">
-        <v>20870</v>
+        <v>31248</v>
       </c>
       <c r="BB70" s="13">
-        <v>30697</v>
+        <v>37941</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9271,95 +9271,95 @@
       <c r="X71" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z71" s="15" t="s">
-        <v>58</v>
+      <c r="Y71" s="15">
+        <v>37563</v>
+      </c>
+      <c r="Z71" s="15">
+        <v>15636</v>
       </c>
       <c r="AA71" s="15">
-        <v>37563</v>
+        <v>36184</v>
       </c>
       <c r="AB71" s="15">
-        <v>15636</v>
+        <v>14349</v>
       </c>
       <c r="AC71" s="15">
-        <v>36184</v>
+        <v>20172</v>
       </c>
       <c r="AD71" s="15">
-        <v>14349</v>
+        <v>27892</v>
       </c>
       <c r="AE71" s="15">
-        <v>20172</v>
+        <v>35487</v>
       </c>
       <c r="AF71" s="15">
-        <v>27892</v>
+        <v>13113</v>
       </c>
       <c r="AG71" s="15">
-        <v>35487</v>
+        <v>26133</v>
       </c>
       <c r="AH71" s="15">
-        <v>13113</v>
+        <v>16835</v>
       </c>
       <c r="AI71" s="15">
-        <v>26133</v>
+        <v>25555</v>
       </c>
       <c r="AJ71" s="15">
-        <v>16835</v>
+        <v>23118</v>
       </c>
       <c r="AK71" s="15">
-        <v>25555</v>
+        <v>27026</v>
       </c>
       <c r="AL71" s="15">
-        <v>23118</v>
+        <v>42487</v>
       </c>
       <c r="AM71" s="15">
-        <v>27026</v>
+        <v>34406</v>
       </c>
       <c r="AN71" s="15">
-        <v>42487</v>
+        <v>20814</v>
       </c>
       <c r="AO71" s="15">
-        <v>34406</v>
+        <v>30599</v>
       </c>
       <c r="AP71" s="15">
-        <v>20814</v>
+        <v>22294</v>
       </c>
       <c r="AQ71" s="15">
-        <v>30599</v>
+        <v>31228</v>
       </c>
       <c r="AR71" s="15">
-        <v>22294</v>
+        <v>26866</v>
       </c>
       <c r="AS71" s="15">
-        <v>31228</v>
+        <v>14049</v>
       </c>
       <c r="AT71" s="15">
-        <v>26866</v>
+        <v>6434</v>
       </c>
       <c r="AU71" s="15">
-        <v>14049</v>
+        <v>27838</v>
       </c>
       <c r="AV71" s="15">
-        <v>6434</v>
+        <v>49216</v>
       </c>
       <c r="AW71" s="15">
-        <v>27838</v>
+        <v>29314</v>
       </c>
       <c r="AX71" s="15">
-        <v>49216</v>
+        <v>30759</v>
       </c>
       <c r="AY71" s="15">
-        <v>29314</v>
+        <v>20870</v>
       </c>
       <c r="AZ71" s="15">
-        <v>30759</v>
+        <v>30697</v>
       </c>
       <c r="BA71" s="15">
-        <v>20870</v>
+        <v>31248</v>
       </c>
       <c r="BB71" s="15">
-        <v>30697</v>
+        <v>37941</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9487,11 +9487,11 @@
       <c r="X73" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y73" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z73" s="15" t="s">
-        <v>58</v>
+      <c r="Y73" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="15">
+        <v>0</v>
       </c>
       <c r="AA73" s="15">
         <v>0</v>
@@ -9703,11 +9703,11 @@
       <c r="X75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z75" s="11" t="s">
-        <v>58</v>
+      <c r="Y75" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="11">
+        <v>0</v>
       </c>
       <c r="AA75" s="11">
         <v>0</v>
@@ -9776,22 +9776,22 @@
         <v>0</v>
       </c>
       <c r="AW75" s="11">
-        <v>0</v>
+        <v>-593413</v>
       </c>
       <c r="AX75" s="11">
-        <v>0</v>
+        <v>-127418</v>
       </c>
       <c r="AY75" s="11">
-        <v>0</v>
+        <v>-103821</v>
       </c>
       <c r="AZ75" s="11">
-        <v>-127418</v>
+        <v>-65604</v>
       </c>
       <c r="BA75" s="11">
-        <v>-103821</v>
+        <v>-79645</v>
       </c>
       <c r="BB75" s="11">
-        <v>-65604</v>
+        <v>-81593</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -9861,94 +9861,94 @@
         <v>0</v>
       </c>
       <c r="Y76" s="17">
-        <v>0</v>
+        <v>863484</v>
       </c>
       <c r="Z76" s="17">
-        <v>0</v>
+        <v>968974</v>
       </c>
       <c r="AA76" s="17">
-        <v>863484</v>
+        <v>932560</v>
       </c>
       <c r="AB76" s="17">
-        <v>968974</v>
+        <v>920578</v>
       </c>
       <c r="AC76" s="17">
-        <v>932560</v>
+        <v>1009226</v>
       </c>
       <c r="AD76" s="17">
-        <v>920578</v>
+        <v>973625</v>
       </c>
       <c r="AE76" s="17">
-        <v>1009226</v>
+        <v>950443</v>
       </c>
       <c r="AF76" s="17">
-        <v>973625</v>
+        <v>965883</v>
       </c>
       <c r="AG76" s="17">
-        <v>950443</v>
+        <v>438678</v>
       </c>
       <c r="AH76" s="17">
-        <v>965883</v>
+        <v>963823</v>
       </c>
       <c r="AI76" s="17">
-        <v>438678</v>
+        <v>1030238</v>
       </c>
       <c r="AJ76" s="17">
-        <v>963823</v>
+        <v>1200385</v>
       </c>
       <c r="AK76" s="17">
-        <v>1030238</v>
+        <v>2240801</v>
       </c>
       <c r="AL76" s="17">
-        <v>1200385</v>
+        <v>3403953</v>
       </c>
       <c r="AM76" s="17">
-        <v>2240801</v>
+        <v>2810073</v>
       </c>
       <c r="AN76" s="17">
-        <v>3403953</v>
+        <v>2250170</v>
       </c>
       <c r="AO76" s="17">
-        <v>2810073</v>
+        <v>2221823</v>
       </c>
       <c r="AP76" s="17">
-        <v>2250170</v>
+        <v>1700528</v>
       </c>
       <c r="AQ76" s="17">
-        <v>2221823</v>
+        <v>1453803</v>
       </c>
       <c r="AR76" s="17">
-        <v>1700528</v>
+        <v>1402405</v>
       </c>
       <c r="AS76" s="17">
-        <v>1453803</v>
+        <v>493736</v>
       </c>
       <c r="AT76" s="17">
-        <v>1402405</v>
+        <v>1530676</v>
       </c>
       <c r="AU76" s="17">
-        <v>493736</v>
+        <v>2098764</v>
       </c>
       <c r="AV76" s="17">
-        <v>1530676</v>
+        <v>2000105</v>
       </c>
       <c r="AW76" s="17">
-        <v>2098764</v>
+        <v>1716043</v>
       </c>
       <c r="AX76" s="17">
-        <v>2000105</v>
+        <v>2337824</v>
       </c>
       <c r="AY76" s="17">
-        <v>1716043</v>
+        <v>2169737</v>
       </c>
       <c r="AZ76" s="17">
-        <v>2337824</v>
+        <v>2187010</v>
       </c>
       <c r="BA76" s="17">
-        <v>2169737</v>
+        <v>2432869</v>
       </c>
       <c r="BB76" s="17">
-        <v>2187010</v>
+        <v>2407362</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10453,95 +10453,95 @@
       <c r="X83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z83" s="11" t="s">
-        <v>58</v>
+      <c r="Y83" s="11">
+        <v>77764</v>
+      </c>
+      <c r="Z83" s="11">
+        <v>77933</v>
       </c>
       <c r="AA83" s="11">
-        <v>77764</v>
+        <v>78237</v>
       </c>
       <c r="AB83" s="11">
-        <v>77933</v>
+        <v>91742</v>
       </c>
       <c r="AC83" s="11">
-        <v>78237</v>
+        <v>93402</v>
       </c>
       <c r="AD83" s="11">
-        <v>91742</v>
+        <v>107151</v>
       </c>
       <c r="AE83" s="11">
-        <v>93402</v>
+        <v>170456</v>
       </c>
       <c r="AF83" s="11">
-        <v>107151</v>
+        <v>134030</v>
       </c>
       <c r="AG83" s="11">
-        <v>170456</v>
+        <v>1628</v>
       </c>
       <c r="AH83" s="11">
-        <v>134030</v>
+        <v>109888</v>
       </c>
       <c r="AI83" s="11">
-        <v>1628</v>
+        <v>99615</v>
       </c>
       <c r="AJ83" s="11">
-        <v>109888</v>
+        <v>136295</v>
       </c>
       <c r="AK83" s="11">
-        <v>99615</v>
+        <v>118729</v>
       </c>
       <c r="AL83" s="11">
-        <v>136295</v>
+        <v>114352</v>
       </c>
       <c r="AM83" s="11">
-        <v>118729</v>
+        <v>120793</v>
       </c>
       <c r="AN83" s="11">
-        <v>114352</v>
+        <v>96822</v>
       </c>
       <c r="AO83" s="11">
-        <v>120793</v>
+        <v>93823</v>
       </c>
       <c r="AP83" s="11">
-        <v>96822</v>
+        <v>94256</v>
       </c>
       <c r="AQ83" s="11">
-        <v>93823</v>
+        <v>103628</v>
       </c>
       <c r="AR83" s="11">
-        <v>94256</v>
+        <v>89190</v>
       </c>
       <c r="AS83" s="11">
-        <v>103628</v>
+        <v>153725</v>
       </c>
       <c r="AT83" s="11">
-        <v>89190</v>
+        <v>97238</v>
       </c>
       <c r="AU83" s="11">
-        <v>153725</v>
+        <v>112329</v>
       </c>
       <c r="AV83" s="11">
-        <v>97238</v>
+        <v>105700</v>
       </c>
       <c r="AW83" s="11">
-        <v>112329</v>
+        <v>140208</v>
       </c>
       <c r="AX83" s="11">
-        <v>105700</v>
+        <v>168415</v>
       </c>
       <c r="AY83" s="11">
-        <v>121701</v>
+        <v>179182</v>
       </c>
       <c r="AZ83" s="11">
-        <v>168415</v>
+        <v>192139</v>
       </c>
       <c r="BA83" s="11">
-        <v>179182</v>
+        <v>207845</v>
       </c>
       <c r="BB83" s="11">
-        <v>192139</v>
+        <v>189089</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10612,95 +10612,95 @@
       <c r="X84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z84" s="13" t="s">
-        <v>58</v>
+      <c r="Y84" s="13">
+        <v>1798</v>
+      </c>
+      <c r="Z84" s="13">
+        <v>1599</v>
       </c>
       <c r="AA84" s="13">
-        <v>1798</v>
+        <v>2085</v>
       </c>
       <c r="AB84" s="13">
-        <v>1599</v>
+        <v>2662</v>
       </c>
       <c r="AC84" s="13">
-        <v>2085</v>
+        <v>2638</v>
       </c>
       <c r="AD84" s="13">
-        <v>2662</v>
+        <v>3177</v>
       </c>
       <c r="AE84" s="13">
-        <v>2638</v>
+        <v>2967</v>
       </c>
       <c r="AF84" s="13">
-        <v>3177</v>
+        <v>3089</v>
       </c>
       <c r="AG84" s="13">
-        <v>2967</v>
+        <v>761</v>
       </c>
       <c r="AH84" s="13">
-        <v>3089</v>
+        <v>2896</v>
       </c>
       <c r="AI84" s="13">
-        <v>761</v>
+        <v>3063</v>
       </c>
       <c r="AJ84" s="13">
-        <v>2896</v>
+        <v>3400</v>
       </c>
       <c r="AK84" s="13">
-        <v>3063</v>
+        <v>2912</v>
       </c>
       <c r="AL84" s="13">
-        <v>3400</v>
+        <v>3319</v>
       </c>
       <c r="AM84" s="13">
-        <v>2912</v>
+        <v>2869</v>
       </c>
       <c r="AN84" s="13">
-        <v>3319</v>
+        <v>3690</v>
       </c>
       <c r="AO84" s="13">
-        <v>2869</v>
+        <v>3247</v>
       </c>
       <c r="AP84" s="13">
-        <v>3690</v>
+        <v>3886</v>
       </c>
       <c r="AQ84" s="13">
-        <v>3247</v>
+        <v>3464</v>
       </c>
       <c r="AR84" s="13">
-        <v>3886</v>
+        <v>3671</v>
       </c>
       <c r="AS84" s="13">
-        <v>3464</v>
+        <v>-1996</v>
       </c>
       <c r="AT84" s="13">
-        <v>3671</v>
+        <v>4391</v>
       </c>
       <c r="AU84" s="13">
-        <v>-1996</v>
+        <v>3618</v>
       </c>
       <c r="AV84" s="13">
-        <v>4391</v>
+        <v>3501</v>
       </c>
       <c r="AW84" s="13">
-        <v>3618</v>
+        <v>4668</v>
       </c>
       <c r="AX84" s="13">
-        <v>3501</v>
+        <v>7495</v>
       </c>
       <c r="AY84" s="13">
-        <v>3582</v>
+        <v>6459</v>
       </c>
       <c r="AZ84" s="13">
-        <v>7495</v>
+        <v>6452</v>
       </c>
       <c r="BA84" s="13">
-        <v>6459</v>
+        <v>6110</v>
       </c>
       <c r="BB84" s="13">
-        <v>6452</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -10771,95 +10771,95 @@
       <c r="X85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z85" s="11" t="s">
-        <v>58</v>
+      <c r="Y85" s="11">
+        <v>34041</v>
+      </c>
+      <c r="Z85" s="11">
+        <v>32914</v>
       </c>
       <c r="AA85" s="11">
-        <v>34041</v>
+        <v>36589</v>
       </c>
       <c r="AB85" s="11">
-        <v>32914</v>
+        <v>30789</v>
       </c>
       <c r="AC85" s="11">
-        <v>36589</v>
+        <v>33009</v>
       </c>
       <c r="AD85" s="11">
-        <v>30789</v>
+        <v>41148</v>
       </c>
       <c r="AE85" s="11">
-        <v>33009</v>
+        <v>44083</v>
       </c>
       <c r="AF85" s="11">
-        <v>41148</v>
+        <v>37451</v>
       </c>
       <c r="AG85" s="11">
-        <v>44083</v>
+        <v>63782</v>
       </c>
       <c r="AH85" s="11">
-        <v>37451</v>
+        <v>50149</v>
       </c>
       <c r="AI85" s="11">
-        <v>63782</v>
+        <v>34296</v>
       </c>
       <c r="AJ85" s="11">
-        <v>50149</v>
+        <v>44829</v>
       </c>
       <c r="AK85" s="11">
-        <v>34296</v>
+        <v>92682</v>
       </c>
       <c r="AL85" s="11">
-        <v>44829</v>
+        <v>162521</v>
       </c>
       <c r="AM85" s="11">
-        <v>92682</v>
+        <v>161951</v>
       </c>
       <c r="AN85" s="11">
-        <v>162521</v>
+        <v>78714</v>
       </c>
       <c r="AO85" s="11">
-        <v>161951</v>
+        <v>76700</v>
       </c>
       <c r="AP85" s="11">
-        <v>78714</v>
+        <v>49091</v>
       </c>
       <c r="AQ85" s="11">
-        <v>76700</v>
+        <v>50869</v>
       </c>
       <c r="AR85" s="11">
-        <v>49091</v>
+        <v>47483</v>
       </c>
       <c r="AS85" s="11">
-        <v>50869</v>
+        <v>60028</v>
       </c>
       <c r="AT85" s="11">
-        <v>47483</v>
+        <v>76398</v>
       </c>
       <c r="AU85" s="11">
-        <v>60028</v>
+        <v>62405</v>
       </c>
       <c r="AV85" s="11">
-        <v>76398</v>
+        <v>75346</v>
       </c>
       <c r="AW85" s="11">
-        <v>62405</v>
+        <v>61180</v>
       </c>
       <c r="AX85" s="11">
-        <v>75346</v>
+        <v>103789</v>
       </c>
       <c r="AY85" s="11">
-        <v>60274</v>
+        <v>106696</v>
       </c>
       <c r="AZ85" s="11">
-        <v>103789</v>
+        <v>62604</v>
       </c>
       <c r="BA85" s="11">
-        <v>106696</v>
+        <v>76818</v>
       </c>
       <c r="BB85" s="11">
-        <v>62604</v>
+        <v>98681</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -10930,95 +10930,95 @@
       <c r="X86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z86" s="13" t="s">
-        <v>58</v>
+      <c r="Y86" s="13">
+        <v>19347</v>
+      </c>
+      <c r="Z86" s="13">
+        <v>21996</v>
       </c>
       <c r="AA86" s="13">
-        <v>19347</v>
+        <v>14929</v>
       </c>
       <c r="AB86" s="13">
-        <v>21996</v>
+        <v>16139</v>
       </c>
       <c r="AC86" s="13">
-        <v>14929</v>
+        <v>19281</v>
       </c>
       <c r="AD86" s="13">
-        <v>16139</v>
+        <v>19244</v>
       </c>
       <c r="AE86" s="13">
-        <v>19281</v>
+        <v>19862</v>
       </c>
       <c r="AF86" s="13">
-        <v>19244</v>
+        <v>21872</v>
       </c>
       <c r="AG86" s="13">
-        <v>19862</v>
+        <v>33665</v>
       </c>
       <c r="AH86" s="13">
-        <v>21872</v>
+        <v>31877</v>
       </c>
       <c r="AI86" s="13">
-        <v>33665</v>
+        <v>32345</v>
       </c>
       <c r="AJ86" s="13">
-        <v>31877</v>
+        <v>35113</v>
       </c>
       <c r="AK86" s="13">
-        <v>32345</v>
+        <v>30008</v>
       </c>
       <c r="AL86" s="13">
-        <v>35113</v>
+        <v>46726</v>
       </c>
       <c r="AM86" s="13">
-        <v>30008</v>
+        <v>28370</v>
       </c>
       <c r="AN86" s="13">
-        <v>46726</v>
+        <v>35891</v>
       </c>
       <c r="AO86" s="13">
-        <v>28370</v>
+        <v>22162</v>
       </c>
       <c r="AP86" s="13">
-        <v>35891</v>
+        <v>33155</v>
       </c>
       <c r="AQ86" s="13">
-        <v>22162</v>
+        <v>26924</v>
       </c>
       <c r="AR86" s="13">
-        <v>33155</v>
+        <v>32970</v>
       </c>
       <c r="AS86" s="13">
-        <v>26924</v>
+        <v>22633</v>
       </c>
       <c r="AT86" s="13">
-        <v>32970</v>
+        <v>30890</v>
       </c>
       <c r="AU86" s="13">
-        <v>22633</v>
+        <v>36966</v>
       </c>
       <c r="AV86" s="13">
-        <v>30890</v>
+        <v>44524</v>
       </c>
       <c r="AW86" s="13">
-        <v>36966</v>
+        <v>47779</v>
       </c>
       <c r="AX86" s="13">
-        <v>44524</v>
+        <v>98873</v>
       </c>
       <c r="AY86" s="13">
-        <v>47779</v>
+        <v>52576</v>
       </c>
       <c r="AZ86" s="13">
-        <v>98873</v>
+        <v>53804</v>
       </c>
       <c r="BA86" s="13">
-        <v>52576</v>
+        <v>81670</v>
       </c>
       <c r="BB86" s="13">
-        <v>53804</v>
+        <v>71861</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11152,32 +11152,32 @@
       <c r="Z88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC88" s="11">
+      <c r="AA88" s="11">
         <v>90439</v>
       </c>
-      <c r="AD88" s="11">
+      <c r="AB88" s="11">
         <v>89479</v>
       </c>
+      <c r="AC88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD88" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AE88" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AF88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG88" s="11" t="s">
-        <v>58</v>
+      <c r="AG88" s="11">
+        <v>101200</v>
       </c>
       <c r="AH88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI88" s="11">
-        <v>101200</v>
+      <c r="AI88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ88" s="11" t="s">
         <v>58</v>
@@ -11200,14 +11200,14 @@
       <c r="AP88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ88" s="11" t="s">
-        <v>58</v>
+      <c r="AQ88" s="11">
+        <v>104133</v>
       </c>
       <c r="AR88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS88" s="11">
-        <v>104133</v>
+      <c r="AS88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT88" s="11" t="s">
         <v>58</v>
@@ -11230,11 +11230,11 @@
       <c r="AZ88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB88" s="11" t="s">
-        <v>58</v>
+      <c r="BA88" s="11">
+        <v>144500</v>
+      </c>
+      <c r="BB88" s="11">
+        <v>132977</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11308,71 +11308,71 @@
       <c r="Y89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA89" s="13" t="s">
-        <v>58</v>
+      <c r="Z89" s="13">
+        <v>3546</v>
+      </c>
+      <c r="AA89" s="13">
+        <v>6878</v>
       </c>
       <c r="AB89" s="13">
-        <v>3546</v>
-      </c>
-      <c r="AC89" s="13">
-        <v>6878</v>
+        <v>1781</v>
+      </c>
+      <c r="AC89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD89" s="13">
-        <v>1781</v>
-      </c>
-      <c r="AE89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF89" s="13">
         <v>6465</v>
       </c>
+      <c r="AE89" s="13">
+        <v>4194</v>
+      </c>
+      <c r="AF89" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG89" s="13">
-        <v>4194</v>
+        <v>120507</v>
       </c>
       <c r="AH89" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AI89" s="13">
-        <v>120507</v>
+        <v>9579</v>
       </c>
       <c r="AJ89" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AK89" s="13">
-        <v>9579</v>
+        <v>2870</v>
       </c>
       <c r="AL89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM89" s="13">
-        <v>2870</v>
+      <c r="AM89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO89" s="13" t="s">
-        <v>58</v>
+      <c r="AO89" s="13">
+        <v>3931</v>
       </c>
       <c r="AP89" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AQ89" s="13">
-        <v>3931</v>
+        <v>5579</v>
       </c>
       <c r="AR89" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AS89" s="13">
-        <v>5579</v>
+        <v>5517</v>
       </c>
       <c r="AT89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU89" s="13">
-        <v>5517</v>
+      <c r="AU89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV89" s="13" t="s">
         <v>58</v>
@@ -11389,11 +11389,11 @@
       <c r="AZ89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB89" s="13" t="s">
-        <v>58</v>
+      <c r="BA89" s="13">
+        <v>6472</v>
+      </c>
+      <c r="BB89" s="13">
+        <v>5167</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11464,95 +11464,95 @@
       <c r="X90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z90" s="11" t="s">
-        <v>58</v>
+      <c r="Y90" s="11">
+        <v>132001</v>
+      </c>
+      <c r="Z90" s="11">
+        <v>34976</v>
       </c>
       <c r="AA90" s="11">
-        <v>132001</v>
+        <v>87875</v>
       </c>
       <c r="AB90" s="11">
-        <v>34976</v>
+        <v>42115</v>
       </c>
       <c r="AC90" s="11">
-        <v>87875</v>
+        <v>116613</v>
       </c>
       <c r="AD90" s="11">
-        <v>42115</v>
+        <v>74615</v>
       </c>
       <c r="AE90" s="11">
-        <v>116613</v>
+        <v>28144</v>
       </c>
       <c r="AF90" s="11">
-        <v>74615</v>
+        <v>48109</v>
       </c>
       <c r="AG90" s="11">
-        <v>28144</v>
+        <v>30114</v>
       </c>
       <c r="AH90" s="11">
-        <v>48109</v>
+        <v>986393</v>
       </c>
       <c r="AI90" s="11">
-        <v>30114</v>
+        <v>42074</v>
       </c>
       <c r="AJ90" s="11">
-        <v>986393</v>
-      </c>
-      <c r="AK90" s="11">
-        <v>42074</v>
-      </c>
-      <c r="AL90" s="11">
         <v>29981</v>
       </c>
+      <c r="AK90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AM90" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AN90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP90" s="11" t="s">
-        <v>58</v>
+      <c r="AO90" s="11">
+        <v>359533</v>
+      </c>
+      <c r="AP90" s="11">
+        <v>192903</v>
       </c>
       <c r="AQ90" s="11">
-        <v>359533</v>
+        <v>142418</v>
       </c>
       <c r="AR90" s="11">
-        <v>192903</v>
+        <v>122727</v>
       </c>
       <c r="AS90" s="11">
-        <v>142418</v>
+        <v>252590</v>
       </c>
       <c r="AT90" s="11">
-        <v>122727</v>
+        <v>35744</v>
       </c>
       <c r="AU90" s="11">
-        <v>252590</v>
-      </c>
-      <c r="AV90" s="11">
-        <v>35744</v>
+        <v>476123</v>
+      </c>
+      <c r="AV90" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW90" s="11">
-        <v>476123</v>
-      </c>
-      <c r="AX90" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AX90" s="11">
+        <v>550796</v>
       </c>
       <c r="AY90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ90" s="11">
-        <v>550796</v>
-      </c>
-      <c r="BA90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB90" s="11" t="s">
-        <v>58</v>
+      <c r="AZ90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA90" s="11">
+        <v>20815</v>
+      </c>
+      <c r="BB90" s="11">
+        <v>40020</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11623,95 +11623,95 @@
       <c r="X91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z91" s="13" t="s">
-        <v>58</v>
+      <c r="Y91" s="13">
+        <v>223553</v>
+      </c>
+      <c r="Z91" s="13">
+        <v>95186</v>
       </c>
       <c r="AA91" s="13">
-        <v>223553</v>
+        <v>62944</v>
       </c>
       <c r="AB91" s="13">
-        <v>95186</v>
+        <v>4599</v>
       </c>
       <c r="AC91" s="13">
-        <v>62944</v>
-      </c>
-      <c r="AD91" s="13">
-        <v>4599</v>
+        <v>112345</v>
+      </c>
+      <c r="AD91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE91" s="13">
-        <v>112345</v>
-      </c>
-      <c r="AF91" s="13" t="s">
-        <v>58</v>
+        <v>93710</v>
+      </c>
+      <c r="AF91" s="13">
+        <v>95440</v>
       </c>
       <c r="AG91" s="13">
-        <v>93710</v>
-      </c>
-      <c r="AH91" s="13">
-        <v>95440</v>
+        <v>97003</v>
+      </c>
+      <c r="AH91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI91" s="13">
-        <v>97003</v>
-      </c>
-      <c r="AJ91" s="13" t="s">
-        <v>58</v>
+        <v>98811</v>
+      </c>
+      <c r="AJ91" s="13">
+        <v>154769</v>
       </c>
       <c r="AK91" s="13">
-        <v>98811</v>
+        <v>126471</v>
       </c>
       <c r="AL91" s="13">
-        <v>154769</v>
-      </c>
-      <c r="AM91" s="13">
-        <v>126471</v>
-      </c>
-      <c r="AN91" s="13">
         <v>227473</v>
       </c>
-      <c r="AO91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP91" s="13" t="s">
-        <v>58</v>
+      <c r="AM91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO91" s="13">
+        <v>340664</v>
+      </c>
+      <c r="AP91" s="13">
+        <v>169785</v>
       </c>
       <c r="AQ91" s="13">
-        <v>340664</v>
+        <v>850760</v>
       </c>
       <c r="AR91" s="13">
-        <v>169785</v>
+        <v>151257</v>
       </c>
       <c r="AS91" s="13">
-        <v>850760</v>
-      </c>
-      <c r="AT91" s="13">
-        <v>151257</v>
+        <v>100434</v>
+      </c>
+      <c r="AT91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU91" s="13">
-        <v>100434</v>
+        <v>88768</v>
       </c>
       <c r="AV91" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AW91" s="13">
-        <v>88768</v>
+        <v>306260</v>
       </c>
       <c r="AX91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY91" s="13">
-        <v>306260</v>
+      <c r="AY91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB91" s="13" t="s">
-        <v>58</v>
+      <c r="BA91" s="13">
+        <v>79670</v>
+      </c>
+      <c r="BB91" s="13">
+        <v>110742</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -11839,38 +11839,38 @@
       <c r="X93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y93" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z93" s="11" t="s">
-        <v>58</v>
+      <c r="Y93" s="11">
+        <v>22370</v>
+      </c>
+      <c r="Z93" s="11">
+        <v>49570</v>
       </c>
       <c r="AA93" s="11">
-        <v>22370</v>
+        <v>36692</v>
       </c>
       <c r="AB93" s="11">
-        <v>49570</v>
+        <v>38915</v>
       </c>
       <c r="AC93" s="11">
-        <v>36692</v>
+        <v>39195</v>
       </c>
       <c r="AD93" s="11">
-        <v>38915</v>
+        <v>45026</v>
       </c>
       <c r="AE93" s="11">
-        <v>39195</v>
+        <v>43167</v>
       </c>
       <c r="AF93" s="11">
-        <v>45026</v>
+        <v>55862</v>
       </c>
       <c r="AG93" s="11">
-        <v>43167</v>
-      </c>
-      <c r="AH93" s="11">
-        <v>55862</v>
-      </c>
-      <c r="AI93" s="11">
         <v>44690</v>
+      </c>
+      <c r="AH93" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI93" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ93" s="11" t="s">
         <v>58</v>
@@ -12025,68 +12025,68 @@
       <c r="AG94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH94" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI94" s="13" t="s">
-        <v>58</v>
+      <c r="AH94" s="13">
+        <v>45001</v>
+      </c>
+      <c r="AI94" s="13">
+        <v>43703</v>
       </c>
       <c r="AJ94" s="13">
-        <v>45001</v>
+        <v>35865</v>
       </c>
       <c r="AK94" s="13">
-        <v>43703</v>
+        <v>47500</v>
       </c>
       <c r="AL94" s="13">
-        <v>35865</v>
+        <v>30234</v>
       </c>
       <c r="AM94" s="13">
-        <v>47500</v>
+        <v>47213</v>
       </c>
       <c r="AN94" s="13">
-        <v>30234</v>
+        <v>16753</v>
       </c>
       <c r="AO94" s="13">
-        <v>47213</v>
+        <v>53716</v>
       </c>
       <c r="AP94" s="13">
-        <v>16753</v>
+        <v>42926</v>
       </c>
       <c r="AQ94" s="13">
-        <v>53716</v>
+        <v>12683</v>
       </c>
       <c r="AR94" s="13">
-        <v>42926</v>
+        <v>10301</v>
       </c>
       <c r="AS94" s="13">
-        <v>12683</v>
+        <v>142364</v>
       </c>
       <c r="AT94" s="13">
-        <v>10301</v>
+        <v>43456</v>
       </c>
       <c r="AU94" s="13">
-        <v>142364</v>
+        <v>14424</v>
       </c>
       <c r="AV94" s="13">
-        <v>43456</v>
+        <v>41045</v>
       </c>
       <c r="AW94" s="13">
-        <v>14424</v>
+        <v>57515</v>
       </c>
       <c r="AX94" s="13">
-        <v>41045</v>
+        <v>49093</v>
       </c>
       <c r="AY94" s="13">
-        <v>57515</v>
+        <v>9524</v>
       </c>
       <c r="AZ94" s="13">
-        <v>49093</v>
+        <v>14449</v>
       </c>
       <c r="BA94" s="13">
-        <v>9524</v>
+        <v>72026</v>
       </c>
       <c r="BB94" s="13">
-        <v>14449</v>
+        <v>16674</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/delor/product/monthly_seprated.xlsx
+++ b/database/industries/darou/delor/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\delor\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2C5BEC-9EFE-4AF5-B12B-59D4A6698859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACCA4BD-3F7A-471C-BDCE-47AB9085EA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دلر-داروسازی‌ اکسیر</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -772,12 +772,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -832,7 +832,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1001,7 +1001,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1170,7 +1170,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1382,7 +1382,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1501,104 +1501,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>1463070</v>
+      </c>
+      <c r="X11" s="11">
+        <v>48349</v>
       </c>
       <c r="Y11" s="11">
-        <v>1463070</v>
+        <v>1147780</v>
       </c>
       <c r="Z11" s="11">
-        <v>48349</v>
+        <v>1213079</v>
       </c>
       <c r="AA11" s="11">
-        <v>1147780</v>
+        <v>1651700</v>
       </c>
       <c r="AB11" s="11">
-        <v>1213079</v>
+        <v>671977</v>
       </c>
       <c r="AC11" s="11">
-        <v>1651700</v>
+        <v>333642</v>
       </c>
       <c r="AD11" s="11">
-        <v>671977</v>
+        <v>201054</v>
       </c>
       <c r="AE11" s="11">
-        <v>333642</v>
+        <v>416515</v>
       </c>
       <c r="AF11" s="11">
-        <v>201054</v>
+        <v>317194</v>
       </c>
       <c r="AG11" s="11">
-        <v>416515</v>
+        <v>539249</v>
       </c>
       <c r="AH11" s="11">
-        <v>317194</v>
+        <v>342685</v>
       </c>
       <c r="AI11" s="11">
-        <v>539249</v>
+        <v>529488</v>
       </c>
       <c r="AJ11" s="11">
-        <v>342685</v>
+        <v>567716</v>
       </c>
       <c r="AK11" s="11">
-        <v>529488</v>
+        <v>578664</v>
       </c>
       <c r="AL11" s="11">
-        <v>567716</v>
+        <v>1455754</v>
       </c>
       <c r="AM11" s="11">
-        <v>578664</v>
+        <v>1382022</v>
       </c>
       <c r="AN11" s="11">
-        <v>1455754</v>
+        <v>1275219</v>
       </c>
       <c r="AO11" s="11">
-        <v>1382022</v>
+        <v>2008405</v>
       </c>
       <c r="AP11" s="11">
-        <v>1275219</v>
+        <v>1484290</v>
       </c>
       <c r="AQ11" s="11">
-        <v>2008405</v>
+        <v>1686481</v>
       </c>
       <c r="AR11" s="11">
-        <v>1484290</v>
+        <v>1214319</v>
       </c>
       <c r="AS11" s="11">
-        <v>1686481</v>
+        <v>1763657</v>
       </c>
       <c r="AT11" s="11">
-        <v>1214319</v>
+        <v>1800271</v>
       </c>
       <c r="AU11" s="11">
-        <v>1763657</v>
+        <v>1195927</v>
       </c>
       <c r="AV11" s="11">
-        <v>1800271</v>
+        <v>976071</v>
       </c>
       <c r="AW11" s="11">
-        <v>1195927</v>
+        <v>670061</v>
       </c>
       <c r="AX11" s="11">
-        <v>976071</v>
+        <v>509558</v>
       </c>
       <c r="AY11" s="11">
-        <v>670061</v>
+        <v>1030218</v>
       </c>
       <c r="AZ11" s="11">
-        <v>509558</v>
+        <v>1305045</v>
       </c>
       <c r="BA11" s="11">
-        <v>1030218</v>
+        <v>825945</v>
       </c>
       <c r="BB11" s="11">
-        <v>1305045</v>
+        <v>1365178</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1660,104 +1660,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>104910270</v>
+      </c>
+      <c r="X12" s="13">
+        <v>104197689</v>
       </c>
       <c r="Y12" s="13">
-        <v>104910270</v>
+        <v>90032006</v>
       </c>
       <c r="Z12" s="13">
-        <v>104197689</v>
+        <v>102188975</v>
       </c>
       <c r="AA12" s="13">
-        <v>90032006</v>
+        <v>93289912</v>
       </c>
       <c r="AB12" s="13">
-        <v>102188975</v>
+        <v>90482146</v>
       </c>
       <c r="AC12" s="13">
-        <v>93289912</v>
+        <v>83522723</v>
       </c>
       <c r="AD12" s="13">
-        <v>90482146</v>
+        <v>80768024</v>
       </c>
       <c r="AE12" s="13">
-        <v>83522723</v>
+        <v>85884620</v>
       </c>
       <c r="AF12" s="13">
-        <v>80768024</v>
+        <v>46878700</v>
       </c>
       <c r="AG12" s="13">
-        <v>85884620</v>
+        <v>80291245</v>
       </c>
       <c r="AH12" s="13">
-        <v>46878700</v>
+        <v>67330870</v>
       </c>
       <c r="AI12" s="13">
-        <v>80291245</v>
+        <v>65183323</v>
       </c>
       <c r="AJ12" s="13">
-        <v>67330870</v>
+        <v>66068830</v>
       </c>
       <c r="AK12" s="13">
-        <v>65183323</v>
+        <v>80623959</v>
       </c>
       <c r="AL12" s="13">
-        <v>66068830</v>
+        <v>85255556</v>
       </c>
       <c r="AM12" s="13">
-        <v>80623959</v>
+        <v>90719923</v>
       </c>
       <c r="AN12" s="13">
-        <v>85255556</v>
+        <v>77124463</v>
       </c>
       <c r="AO12" s="13">
-        <v>90719923</v>
+        <v>63564488</v>
       </c>
       <c r="AP12" s="13">
-        <v>77124463</v>
+        <v>71700772</v>
       </c>
       <c r="AQ12" s="13">
-        <v>63564488</v>
+        <v>68091046</v>
       </c>
       <c r="AR12" s="13">
-        <v>71700772</v>
+        <v>33023836</v>
       </c>
       <c r="AS12" s="13">
-        <v>68091046</v>
+        <v>75815345</v>
       </c>
       <c r="AT12" s="13">
-        <v>33023836</v>
+        <v>72793455</v>
       </c>
       <c r="AU12" s="13">
-        <v>75815345</v>
+        <v>76651136</v>
       </c>
       <c r="AV12" s="13">
-        <v>72793455</v>
+        <v>79735871</v>
       </c>
       <c r="AW12" s="13">
-        <v>76651136</v>
+        <v>85031644</v>
       </c>
       <c r="AX12" s="13">
-        <v>79735871</v>
+        <v>83655626</v>
       </c>
       <c r="AY12" s="13">
-        <v>85031644</v>
+        <v>86703652</v>
       </c>
       <c r="AZ12" s="13">
-        <v>83655626</v>
+        <v>82860004</v>
       </c>
       <c r="BA12" s="13">
-        <v>86703652</v>
+        <v>79875420</v>
       </c>
       <c r="BB12" s="13">
-        <v>82860004</v>
+        <v>83798511</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1819,104 +1819,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>13364921</v>
+      </c>
+      <c r="X13" s="11">
+        <v>11695460</v>
       </c>
       <c r="Y13" s="11">
-        <v>13364921</v>
+        <v>12949771</v>
       </c>
       <c r="Z13" s="11">
-        <v>11695460</v>
+        <v>12335646</v>
       </c>
       <c r="AA13" s="11">
-        <v>12949771</v>
+        <v>11401404</v>
       </c>
       <c r="AB13" s="11">
-        <v>12335646</v>
+        <v>14154503</v>
       </c>
       <c r="AC13" s="11">
-        <v>11401404</v>
+        <v>12652859</v>
       </c>
       <c r="AD13" s="11">
-        <v>14154503</v>
+        <v>13670884</v>
       </c>
       <c r="AE13" s="11">
-        <v>12652859</v>
+        <v>12115797</v>
       </c>
       <c r="AF13" s="11">
-        <v>13670884</v>
+        <v>7861467</v>
       </c>
       <c r="AG13" s="11">
-        <v>12115797</v>
+        <v>12384325</v>
       </c>
       <c r="AH13" s="11">
-        <v>7861467</v>
+        <v>13227849</v>
       </c>
       <c r="AI13" s="11">
-        <v>12384325</v>
+        <v>12524508</v>
       </c>
       <c r="AJ13" s="11">
-        <v>13227849</v>
+        <v>12514670</v>
       </c>
       <c r="AK13" s="11">
-        <v>12524508</v>
+        <v>13202119</v>
       </c>
       <c r="AL13" s="11">
-        <v>12514670</v>
+        <v>14284280</v>
       </c>
       <c r="AM13" s="11">
-        <v>13202119</v>
+        <v>14872736</v>
       </c>
       <c r="AN13" s="11">
-        <v>14284280</v>
+        <v>14432572</v>
       </c>
       <c r="AO13" s="11">
-        <v>14872736</v>
+        <v>13841913</v>
       </c>
       <c r="AP13" s="11">
-        <v>14432572</v>
+        <v>12478300</v>
       </c>
       <c r="AQ13" s="11">
-        <v>13841913</v>
+        <v>11638916</v>
       </c>
       <c r="AR13" s="11">
-        <v>12478300</v>
+        <v>7848151</v>
       </c>
       <c r="AS13" s="11">
-        <v>11638916</v>
+        <v>11202335</v>
       </c>
       <c r="AT13" s="11">
-        <v>7848151</v>
+        <v>12721308</v>
       </c>
       <c r="AU13" s="11">
-        <v>11202335</v>
+        <v>13954153</v>
       </c>
       <c r="AV13" s="11">
-        <v>12721308</v>
+        <v>17471173</v>
       </c>
       <c r="AW13" s="11">
-        <v>13954153</v>
+        <v>12582761</v>
       </c>
       <c r="AX13" s="11">
-        <v>17471173</v>
+        <v>13023070</v>
       </c>
       <c r="AY13" s="11">
-        <v>12582761</v>
+        <v>13418939</v>
       </c>
       <c r="AZ13" s="11">
-        <v>13023070</v>
+        <v>12943355</v>
       </c>
       <c r="BA13" s="11">
-        <v>13418939</v>
+        <v>12289872</v>
       </c>
       <c r="BB13" s="11">
-        <v>12943355</v>
+        <v>12113941</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1978,104 +1978,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>8333339</v>
+      </c>
+      <c r="X14" s="13">
+        <v>7006205</v>
       </c>
       <c r="Y14" s="13">
-        <v>8333339</v>
+        <v>6242737</v>
       </c>
       <c r="Z14" s="13">
-        <v>7006205</v>
+        <v>7781926</v>
       </c>
       <c r="AA14" s="13">
-        <v>6242737</v>
+        <v>8577443</v>
       </c>
       <c r="AB14" s="13">
-        <v>7781926</v>
+        <v>6032886</v>
       </c>
       <c r="AC14" s="13">
-        <v>8577443</v>
+        <v>9022814</v>
       </c>
       <c r="AD14" s="13">
-        <v>6032886</v>
+        <v>7949978</v>
       </c>
       <c r="AE14" s="13">
-        <v>9022814</v>
+        <v>6401212</v>
       </c>
       <c r="AF14" s="13">
-        <v>7949978</v>
+        <v>2045460</v>
       </c>
       <c r="AG14" s="13">
-        <v>6401212</v>
+        <v>996256</v>
       </c>
       <c r="AH14" s="13">
-        <v>2045460</v>
+        <v>2157236</v>
       </c>
       <c r="AI14" s="13">
-        <v>996256</v>
+        <v>2783856</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2157236</v>
+        <v>2915364</v>
       </c>
       <c r="AK14" s="13">
-        <v>2783856</v>
+        <v>5458448</v>
       </c>
       <c r="AL14" s="13">
-        <v>2915364</v>
+        <v>7454580</v>
       </c>
       <c r="AM14" s="13">
-        <v>5458448</v>
+        <v>6319326</v>
       </c>
       <c r="AN14" s="13">
-        <v>7454580</v>
+        <v>6637498</v>
       </c>
       <c r="AO14" s="13">
-        <v>6319326</v>
+        <v>7506879</v>
       </c>
       <c r="AP14" s="13">
-        <v>6637498</v>
+        <v>6800187</v>
       </c>
       <c r="AQ14" s="13">
-        <v>7506879</v>
+        <v>5025584</v>
       </c>
       <c r="AR14" s="13">
-        <v>6800187</v>
+        <v>5408548</v>
       </c>
       <c r="AS14" s="13">
-        <v>5025584</v>
+        <v>6500013</v>
       </c>
       <c r="AT14" s="13">
-        <v>5408548</v>
+        <v>7078585</v>
       </c>
       <c r="AU14" s="13">
-        <v>6500013</v>
+        <v>7107963</v>
       </c>
       <c r="AV14" s="13">
-        <v>7078585</v>
+        <v>6400400</v>
       </c>
       <c r="AW14" s="13">
-        <v>7107963</v>
+        <v>6879516</v>
       </c>
       <c r="AX14" s="13">
-        <v>6400400</v>
+        <v>6025887</v>
       </c>
       <c r="AY14" s="13">
-        <v>6879516</v>
+        <v>6859171</v>
       </c>
       <c r="AZ14" s="13">
-        <v>6025887</v>
+        <v>5047786</v>
       </c>
       <c r="BA14" s="13">
-        <v>6859171</v>
+        <v>5952592</v>
       </c>
       <c r="BB14" s="13">
-        <v>5047786</v>
+        <v>8443761</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2136,103 +2136,103 @@
         <v>0</v>
       </c>
       <c r="W15" s="15">
-        <v>0</v>
+        <v>128071600</v>
       </c>
       <c r="X15" s="15">
-        <v>0</v>
+        <v>122947703</v>
       </c>
       <c r="Y15" s="15">
-        <v>128071600</v>
+        <v>110372294</v>
       </c>
       <c r="Z15" s="15">
-        <v>122947703</v>
+        <v>123519626</v>
       </c>
       <c r="AA15" s="15">
-        <v>110372294</v>
+        <v>114920459</v>
       </c>
       <c r="AB15" s="15">
-        <v>123519626</v>
+        <v>111341512</v>
       </c>
       <c r="AC15" s="15">
-        <v>114920459</v>
+        <v>105532038</v>
       </c>
       <c r="AD15" s="15">
-        <v>111341512</v>
+        <v>102589940</v>
       </c>
       <c r="AE15" s="15">
-        <v>105532038</v>
+        <v>104818144</v>
       </c>
       <c r="AF15" s="15">
-        <v>102589940</v>
+        <v>57102821</v>
       </c>
       <c r="AG15" s="15">
-        <v>104818144</v>
+        <v>94211075</v>
       </c>
       <c r="AH15" s="15">
-        <v>57102821</v>
+        <v>83058640</v>
       </c>
       <c r="AI15" s="15">
-        <v>94211075</v>
+        <v>81021175</v>
       </c>
       <c r="AJ15" s="15">
-        <v>83058640</v>
+        <v>82066580</v>
       </c>
       <c r="AK15" s="15">
-        <v>81021175</v>
+        <v>99863190</v>
       </c>
       <c r="AL15" s="15">
-        <v>82066580</v>
+        <v>108450170</v>
       </c>
       <c r="AM15" s="15">
-        <v>99863190</v>
+        <v>113294007</v>
       </c>
       <c r="AN15" s="15">
-        <v>108450170</v>
+        <v>99469752</v>
       </c>
       <c r="AO15" s="15">
-        <v>113294007</v>
+        <v>86921685</v>
       </c>
       <c r="AP15" s="15">
-        <v>99469752</v>
+        <v>92463549</v>
       </c>
       <c r="AQ15" s="15">
-        <v>86921685</v>
+        <v>86442027</v>
       </c>
       <c r="AR15" s="15">
-        <v>92463549</v>
+        <v>47494854</v>
       </c>
       <c r="AS15" s="15">
-        <v>86442027</v>
+        <v>95281350</v>
       </c>
       <c r="AT15" s="15">
-        <v>47494854</v>
+        <v>94393619</v>
       </c>
       <c r="AU15" s="15">
-        <v>95281350</v>
+        <v>98909179</v>
       </c>
       <c r="AV15" s="15">
-        <v>94393619</v>
+        <v>104583515</v>
       </c>
       <c r="AW15" s="15">
-        <v>98909179</v>
+        <v>105163982</v>
       </c>
       <c r="AX15" s="15">
-        <v>104583515</v>
+        <v>103214141</v>
       </c>
       <c r="AY15" s="15">
-        <v>105163982</v>
+        <v>108011980</v>
       </c>
       <c r="AZ15" s="15">
-        <v>103214141</v>
+        <v>102156190</v>
       </c>
       <c r="BA15" s="15">
-        <v>108011980</v>
+        <v>98943829</v>
       </c>
       <c r="BB15" s="15">
-        <v>102156190</v>
+        <v>105721391</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
@@ -2351,26 +2351,26 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <v>0</v>
       </c>
       <c r="Y17" s="11">
-        <v>0</v>
+        <v>108196</v>
       </c>
       <c r="Z17" s="11">
         <v>0</v>
       </c>
       <c r="AA17" s="11">
-        <v>108196</v>
+        <v>10000</v>
       </c>
       <c r="AB17" s="11">
         <v>0</v>
       </c>
       <c r="AC17" s="11">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="11">
         <v>0</v>
@@ -2381,41 +2381,41 @@
       <c r="AF17" s="11">
         <v>0</v>
       </c>
-      <c r="AG17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ17" s="11" t="s">
-        <v>58</v>
+      <c r="AG17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>0</v>
       </c>
       <c r="AK17" s="11">
         <v>0</v>
       </c>
-      <c r="AL17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="11" t="s">
-        <v>58</v>
+      <c r="AL17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN17" s="11">
+        <v>45000</v>
       </c>
       <c r="AO17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP17" s="11">
-        <v>45000</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
+      <c r="AP17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="11">
+        <v>0</v>
       </c>
       <c r="AS17" s="11">
         <v>0</v>
@@ -2436,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="AY17" s="11">
-        <v>0</v>
+        <v>80134</v>
       </c>
       <c r="AZ17" s="11">
         <v>0</v>
       </c>
       <c r="BA17" s="11">
-        <v>80134</v>
+        <v>35000</v>
       </c>
       <c r="BB17" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
@@ -2510,74 +2510,74 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
+        <v>0</v>
       </c>
       <c r="Y18" s="13">
-        <v>0</v>
+        <v>6019600</v>
       </c>
       <c r="Z18" s="13">
         <v>0</v>
       </c>
       <c r="AA18" s="13">
-        <v>6019600</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="13">
-        <v>0</v>
+        <v>75116</v>
       </c>
       <c r="AC18" s="13">
         <v>0</v>
       </c>
       <c r="AD18" s="13">
-        <v>75116</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="13">
-        <v>0</v>
+        <v>280000</v>
       </c>
       <c r="AF18" s="13">
         <v>0</v>
       </c>
-      <c r="AG18" s="13">
+      <c r="AG18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>349440</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="13">
         <v>280000</v>
       </c>
-      <c r="AH18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>349440</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>0</v>
-      </c>
       <c r="AN18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>280000</v>
-      </c>
-      <c r="AP18" s="13">
         <v>600000</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR18" s="13" t="s">
-        <v>58</v>
+      <c r="AO18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>420000</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>0</v>
       </c>
       <c r="AS18" s="13">
-        <v>420000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="13">
         <v>0</v>
@@ -2592,22 +2592,22 @@
         <v>0</v>
       </c>
       <c r="AX18" s="13">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="AY18" s="13">
-        <v>0</v>
+        <v>1380760</v>
       </c>
       <c r="AZ18" s="13">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="13">
-        <v>1380760</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
@@ -2669,74 +2669,74 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>5900</v>
+      </c>
+      <c r="X19" s="11">
+        <v>14188</v>
       </c>
       <c r="Y19" s="11">
-        <v>5900</v>
+        <v>689904</v>
       </c>
       <c r="Z19" s="11">
-        <v>14188</v>
+        <v>54930</v>
       </c>
       <c r="AA19" s="11">
-        <v>689904</v>
+        <v>443114</v>
       </c>
       <c r="AB19" s="11">
-        <v>54930</v>
+        <v>168470</v>
       </c>
       <c r="AC19" s="11">
-        <v>443114</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="11">
-        <v>168470</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="11">
-        <v>0</v>
+        <v>231870</v>
       </c>
       <c r="AF19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="11">
-        <v>231870</v>
-      </c>
-      <c r="AH19" s="11">
         <v>102140</v>
       </c>
-      <c r="AI19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
-        <v>58</v>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>0</v>
       </c>
       <c r="AK19" s="11">
-        <v>0</v>
+        <v>3990</v>
       </c>
       <c r="AL19" s="11">
-        <v>0</v>
+        <v>71930</v>
       </c>
       <c r="AM19" s="11">
-        <v>3990</v>
+        <v>123774</v>
       </c>
       <c r="AN19" s="11">
-        <v>71930</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>123774</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR19" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>90000</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>0</v>
       </c>
       <c r="AS19" s="11">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="11">
         <v>0</v>
@@ -2754,19 +2754,19 @@
         <v>0</v>
       </c>
       <c r="AY19" s="11">
-        <v>0</v>
+        <v>251050</v>
       </c>
       <c r="AZ19" s="11">
-        <v>0</v>
+        <v>422050</v>
       </c>
       <c r="BA19" s="11">
-        <v>251050</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="11">
-        <v>422050</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>61</v>
       </c>
@@ -2828,104 +2828,104 @@
       <c r="V20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>58</v>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>1837389</v>
       </c>
       <c r="Y20" s="13">
-        <v>0</v>
+        <v>1524650</v>
       </c>
       <c r="Z20" s="13">
-        <v>1837389</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="13">
-        <v>1524650</v>
+        <v>133867</v>
       </c>
       <c r="AB20" s="13">
-        <v>0</v>
+        <v>1533528</v>
       </c>
       <c r="AC20" s="13">
-        <v>133867</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="13">
-        <v>1533528</v>
+        <v>50004</v>
       </c>
       <c r="AE20" s="13">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AF20" s="13">
-        <v>50004</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="13">
-        <v>90000</v>
+        <v>2497008</v>
       </c>
       <c r="AH20" s="13">
-        <v>0</v>
+        <v>808272</v>
       </c>
       <c r="AI20" s="13">
-        <v>2497008</v>
+        <v>10920</v>
       </c>
       <c r="AJ20" s="13">
-        <v>808272</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="13">
-        <v>10920</v>
+        <v>135604</v>
       </c>
       <c r="AL20" s="13">
-        <v>0</v>
+        <v>40008</v>
       </c>
       <c r="AM20" s="13">
-        <v>135604</v>
+        <v>25000</v>
       </c>
       <c r="AN20" s="13">
-        <v>40008</v>
+        <v>404988</v>
       </c>
       <c r="AO20" s="13">
-        <v>25000</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>404988</v>
+        <v>300887</v>
+      </c>
+      <c r="AP20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ20" s="13">
-        <v>300887</v>
-      </c>
-      <c r="AR20" s="13" t="s">
-        <v>58</v>
+        <v>341128</v>
+      </c>
+      <c r="AR20" s="13">
+        <v>153300</v>
       </c>
       <c r="AS20" s="13">
-        <v>341128</v>
+        <v>11942</v>
       </c>
       <c r="AT20" s="13">
-        <v>153300</v>
+        <v>38</v>
       </c>
       <c r="AU20" s="13">
-        <v>11942</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="13">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="13">
         <v>0</v>
       </c>
       <c r="AX20" s="13">
-        <v>0</v>
+        <v>399984</v>
       </c>
       <c r="AY20" s="13">
-        <v>0</v>
+        <v>249488</v>
       </c>
       <c r="AZ20" s="13">
-        <v>399984</v>
+        <v>100000</v>
       </c>
       <c r="BA20" s="13">
-        <v>249488</v>
+        <v>390652</v>
       </c>
       <c r="BB20" s="13">
-        <v>100000</v>
+        <v>349956</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>64</v>
       </c>
@@ -2986,103 +2986,103 @@
         <v>0</v>
       </c>
       <c r="W21" s="15">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="X21" s="15">
-        <v>0</v>
+        <v>1851577</v>
       </c>
       <c r="Y21" s="15">
-        <v>5900</v>
+        <v>8342350</v>
       </c>
       <c r="Z21" s="15">
-        <v>1851577</v>
+        <v>54930</v>
       </c>
       <c r="AA21" s="15">
-        <v>8342350</v>
+        <v>586981</v>
       </c>
       <c r="AB21" s="15">
-        <v>54930</v>
+        <v>1777114</v>
       </c>
       <c r="AC21" s="15">
-        <v>586981</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="15">
-        <v>1777114</v>
+        <v>50004</v>
       </c>
       <c r="AE21" s="15">
-        <v>0</v>
+        <v>601870</v>
       </c>
       <c r="AF21" s="15">
-        <v>50004</v>
+        <v>102140</v>
       </c>
       <c r="AG21" s="15">
-        <v>601870</v>
+        <v>2497008</v>
       </c>
       <c r="AH21" s="15">
-        <v>102140</v>
+        <v>1157712</v>
       </c>
       <c r="AI21" s="15">
-        <v>2497008</v>
+        <v>10920</v>
       </c>
       <c r="AJ21" s="15">
-        <v>1157712</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="15">
-        <v>10920</v>
+        <v>139594</v>
       </c>
       <c r="AL21" s="15">
-        <v>0</v>
+        <v>111938</v>
       </c>
       <c r="AM21" s="15">
-        <v>139594</v>
+        <v>428774</v>
       </c>
       <c r="AN21" s="15">
-        <v>111938</v>
+        <v>1049988</v>
       </c>
       <c r="AO21" s="15">
-        <v>428774</v>
+        <v>300887</v>
       </c>
       <c r="AP21" s="15">
-        <v>1049988</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="15">
-        <v>300887</v>
+        <v>851128</v>
       </c>
       <c r="AR21" s="15">
-        <v>0</v>
+        <v>153300</v>
       </c>
       <c r="AS21" s="15">
-        <v>851128</v>
+        <v>11942</v>
       </c>
       <c r="AT21" s="15">
-        <v>153300</v>
+        <v>38</v>
       </c>
       <c r="AU21" s="15">
-        <v>11942</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="15">
         <v>0</v>
       </c>
       <c r="AX21" s="15">
-        <v>0</v>
+        <v>839984</v>
       </c>
       <c r="AY21" s="15">
-        <v>0</v>
+        <v>1961432</v>
       </c>
       <c r="AZ21" s="15">
-        <v>839984</v>
+        <v>522050</v>
       </c>
       <c r="BA21" s="15">
-        <v>1961432</v>
+        <v>425652</v>
       </c>
       <c r="BB21" s="15">
-        <v>522050</v>
+        <v>349956</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>65</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>66</v>
       </c>
@@ -3201,39 +3201,39 @@
       <c r="V23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>58</v>
+      <c r="W23" s="11">
+        <v>799608</v>
+      </c>
+      <c r="X23" s="11">
+        <v>1879355</v>
       </c>
       <c r="Y23" s="11">
-        <v>799608</v>
+        <v>539024</v>
       </c>
       <c r="Z23" s="11">
-        <v>1879355</v>
+        <v>551798</v>
       </c>
       <c r="AA23" s="11">
-        <v>539024</v>
+        <v>341418</v>
       </c>
       <c r="AB23" s="11">
-        <v>551798</v>
+        <v>820763</v>
       </c>
       <c r="AC23" s="11">
-        <v>341418</v>
+        <v>707060</v>
       </c>
       <c r="AD23" s="11">
-        <v>820763</v>
+        <v>507103</v>
       </c>
       <c r="AE23" s="11">
-        <v>707060</v>
-      </c>
-      <c r="AF23" s="11">
-        <v>507103</v>
-      </c>
-      <c r="AG23" s="11">
         <v>945971</v>
       </c>
+      <c r="AF23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG23" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH23" s="11" t="s">
         <v>58</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>67</v>
       </c>
@@ -3387,77 +3387,77 @@
       <c r="AE24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG24" s="13" t="s">
-        <v>58</v>
+      <c r="AF24" s="13">
+        <v>89222</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>254964</v>
       </c>
       <c r="AH24" s="13">
-        <v>89222</v>
+        <v>666379</v>
       </c>
       <c r="AI24" s="13">
-        <v>254964</v>
+        <v>1232473</v>
       </c>
       <c r="AJ24" s="13">
-        <v>666379</v>
+        <v>1897120</v>
       </c>
       <c r="AK24" s="13">
-        <v>1232473</v>
-      </c>
-      <c r="AL24" s="13">
-        <v>1897120</v>
+        <v>849974</v>
+      </c>
+      <c r="AL24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM24" s="13">
-        <v>849974</v>
-      </c>
-      <c r="AN24" s="13" t="s">
-        <v>58</v>
+        <v>522027</v>
+      </c>
+      <c r="AN24" s="13">
+        <v>1325855</v>
       </c>
       <c r="AO24" s="13">
-        <v>522027</v>
+        <v>3175929</v>
       </c>
       <c r="AP24" s="13">
-        <v>1325855</v>
+        <v>1978891</v>
       </c>
       <c r="AQ24" s="13">
-        <v>3175929</v>
+        <v>748266</v>
       </c>
       <c r="AR24" s="13">
-        <v>1978891</v>
+        <v>783428</v>
       </c>
       <c r="AS24" s="13">
-        <v>748266</v>
+        <v>854958</v>
       </c>
       <c r="AT24" s="13">
-        <v>783428</v>
+        <v>457734</v>
       </c>
       <c r="AU24" s="13">
-        <v>854958</v>
+        <v>185615</v>
       </c>
       <c r="AV24" s="13">
-        <v>457734</v>
+        <v>2410875</v>
       </c>
       <c r="AW24" s="13">
-        <v>185615</v>
+        <v>847593</v>
       </c>
       <c r="AX24" s="13">
-        <v>2410875</v>
+        <v>3455788</v>
       </c>
       <c r="AY24" s="13">
-        <v>847593</v>
+        <v>1383392</v>
       </c>
       <c r="AZ24" s="13">
-        <v>3455788</v>
+        <v>875164</v>
       </c>
       <c r="BA24" s="13">
-        <v>1383392</v>
+        <v>232944</v>
       </c>
       <c r="BB24" s="13">
-        <v>875164</v>
+        <v>495735</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>68</v>
       </c>
@@ -3517,11 +3517,11 @@
       <c r="V25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>58</v>
+      <c r="W25" s="15">
+        <v>0</v>
+      </c>
+      <c r="X25" s="15">
+        <v>0</v>
       </c>
       <c r="Y25" s="15">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>69</v>
       </c>
@@ -3675,103 +3675,103 @@
         <v>0</v>
       </c>
       <c r="W26" s="17">
-        <v>0</v>
+        <v>128877108</v>
       </c>
       <c r="X26" s="17">
-        <v>0</v>
+        <v>126678635</v>
       </c>
       <c r="Y26" s="17">
-        <v>128877108</v>
+        <v>119253668</v>
       </c>
       <c r="Z26" s="17">
-        <v>126678635</v>
+        <v>124126354</v>
       </c>
       <c r="AA26" s="17">
-        <v>119253668</v>
+        <v>115848858</v>
       </c>
       <c r="AB26" s="17">
-        <v>124126354</v>
+        <v>113939389</v>
       </c>
       <c r="AC26" s="17">
-        <v>115848858</v>
+        <v>106239098</v>
       </c>
       <c r="AD26" s="17">
-        <v>113939389</v>
+        <v>103147047</v>
       </c>
       <c r="AE26" s="17">
-        <v>106239098</v>
+        <v>106365985</v>
       </c>
       <c r="AF26" s="17">
-        <v>103147047</v>
+        <v>57294183</v>
       </c>
       <c r="AG26" s="17">
-        <v>106365985</v>
+        <v>96963047</v>
       </c>
       <c r="AH26" s="17">
-        <v>57294183</v>
+        <v>84882731</v>
       </c>
       <c r="AI26" s="17">
-        <v>96963047</v>
+        <v>82264568</v>
       </c>
       <c r="AJ26" s="17">
-        <v>84882731</v>
+        <v>83963700</v>
       </c>
       <c r="AK26" s="17">
-        <v>82264568</v>
+        <v>100852758</v>
       </c>
       <c r="AL26" s="17">
-        <v>83963700</v>
+        <v>108562108</v>
       </c>
       <c r="AM26" s="17">
-        <v>100852758</v>
+        <v>114244808</v>
       </c>
       <c r="AN26" s="17">
-        <v>108562108</v>
+        <v>101845595</v>
       </c>
       <c r="AO26" s="17">
-        <v>114244808</v>
+        <v>90398501</v>
       </c>
       <c r="AP26" s="17">
-        <v>101845595</v>
+        <v>94442440</v>
       </c>
       <c r="AQ26" s="17">
-        <v>90398501</v>
+        <v>88041421</v>
       </c>
       <c r="AR26" s="17">
-        <v>94442440</v>
+        <v>48431582</v>
       </c>
       <c r="AS26" s="17">
-        <v>88041421</v>
+        <v>96148250</v>
       </c>
       <c r="AT26" s="17">
-        <v>48431582</v>
+        <v>94851391</v>
       </c>
       <c r="AU26" s="17">
-        <v>96148250</v>
+        <v>99094794</v>
       </c>
       <c r="AV26" s="17">
-        <v>94851391</v>
+        <v>106994390</v>
       </c>
       <c r="AW26" s="17">
-        <v>99094794</v>
+        <v>106011575</v>
       </c>
       <c r="AX26" s="17">
-        <v>106994390</v>
+        <v>107509913</v>
       </c>
       <c r="AY26" s="17">
-        <v>106011575</v>
+        <v>111356804</v>
       </c>
       <c r="AZ26" s="17">
-        <v>107509913</v>
+        <v>103553404</v>
       </c>
       <c r="BA26" s="17">
-        <v>111356804</v>
+        <v>99602425</v>
       </c>
       <c r="BB26" s="17">
-        <v>103553404</v>
+        <v>106567082</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3826,7 +3826,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3881,7 +3881,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3936,7 +3936,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>70</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4148,7 +4148,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>71</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
@@ -4267,104 +4267,104 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>1149850</v>
+      </c>
+      <c r="X33" s="11">
+        <v>995772</v>
       </c>
       <c r="Y33" s="11">
-        <v>1149850</v>
+        <v>1385125</v>
       </c>
       <c r="Z33" s="11">
-        <v>995772</v>
+        <v>1503319</v>
       </c>
       <c r="AA33" s="11">
-        <v>1385125</v>
+        <v>1714266</v>
       </c>
       <c r="AB33" s="11">
-        <v>1503319</v>
+        <v>1058662</v>
       </c>
       <c r="AC33" s="11">
-        <v>1714266</v>
+        <v>872460</v>
       </c>
       <c r="AD33" s="11">
-        <v>1058662</v>
+        <v>548094</v>
       </c>
       <c r="AE33" s="11">
-        <v>872460</v>
+        <v>311354</v>
       </c>
       <c r="AF33" s="11">
-        <v>548094</v>
+        <v>833159</v>
       </c>
       <c r="AG33" s="11">
-        <v>311354</v>
+        <v>1135427</v>
       </c>
       <c r="AH33" s="11">
-        <v>833159</v>
+        <v>923578</v>
       </c>
       <c r="AI33" s="11">
-        <v>1135427</v>
+        <v>1092812</v>
       </c>
       <c r="AJ33" s="11">
-        <v>923578</v>
+        <v>967241</v>
       </c>
       <c r="AK33" s="11">
-        <v>1092812</v>
+        <v>1726604</v>
       </c>
       <c r="AL33" s="11">
-        <v>967241</v>
+        <v>1243067</v>
       </c>
       <c r="AM33" s="11">
-        <v>1726604</v>
+        <v>1808156</v>
       </c>
       <c r="AN33" s="11">
-        <v>1243067</v>
+        <v>1991344</v>
       </c>
       <c r="AO33" s="11">
-        <v>1808156</v>
+        <v>1515966</v>
       </c>
       <c r="AP33" s="11">
-        <v>1991344</v>
+        <v>1884139</v>
       </c>
       <c r="AQ33" s="11">
-        <v>1515966</v>
+        <v>525095</v>
       </c>
       <c r="AR33" s="11">
-        <v>1884139</v>
+        <v>2021660</v>
       </c>
       <c r="AS33" s="11">
-        <v>525095</v>
+        <v>2939623</v>
       </c>
       <c r="AT33" s="11">
-        <v>2021660</v>
+        <v>2225525</v>
       </c>
       <c r="AU33" s="11">
-        <v>2939623</v>
+        <v>1867326</v>
       </c>
       <c r="AV33" s="11">
-        <v>2225525</v>
+        <v>1189093</v>
       </c>
       <c r="AW33" s="11">
-        <v>1867326</v>
+        <v>855110</v>
       </c>
       <c r="AX33" s="11">
-        <v>1189093</v>
+        <v>559049</v>
       </c>
       <c r="AY33" s="11">
-        <v>855110</v>
+        <v>1002406</v>
       </c>
       <c r="AZ33" s="11">
-        <v>559049</v>
+        <v>986057</v>
       </c>
       <c r="BA33" s="11">
-        <v>1002406</v>
+        <v>1269410</v>
       </c>
       <c r="BB33" s="11">
-        <v>986057</v>
+        <v>933200</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>59</v>
       </c>
@@ -4426,104 +4426,104 @@
       <c r="V34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>58</v>
+      <c r="W34" s="13">
+        <v>105702500</v>
+      </c>
+      <c r="X34" s="13">
+        <v>109480225</v>
       </c>
       <c r="Y34" s="13">
-        <v>105702500</v>
+        <v>88158100</v>
       </c>
       <c r="Z34" s="13">
-        <v>109480225</v>
+        <v>86155663</v>
       </c>
       <c r="AA34" s="13">
-        <v>88158100</v>
+        <v>91106475</v>
       </c>
       <c r="AB34" s="13">
-        <v>86155663</v>
+        <v>71734120</v>
       </c>
       <c r="AC34" s="13">
-        <v>91106475</v>
+        <v>69556245</v>
       </c>
       <c r="AD34" s="13">
-        <v>71734120</v>
+        <v>69521338</v>
       </c>
       <c r="AE34" s="13">
-        <v>69556245</v>
+        <v>15636820</v>
       </c>
       <c r="AF34" s="13">
-        <v>69521338</v>
+        <v>74710418</v>
       </c>
       <c r="AG34" s="13">
-        <v>15636820</v>
+        <v>66659112</v>
       </c>
       <c r="AH34" s="13">
-        <v>74710418</v>
+        <v>47213754</v>
       </c>
       <c r="AI34" s="13">
-        <v>66659112</v>
+        <v>65386186</v>
       </c>
       <c r="AJ34" s="13">
-        <v>47213754</v>
+        <v>79313020</v>
       </c>
       <c r="AK34" s="13">
-        <v>65386186</v>
+        <v>91134372</v>
       </c>
       <c r="AL34" s="13">
-        <v>79313020</v>
+        <v>115369648</v>
       </c>
       <c r="AM34" s="13">
-        <v>91134372</v>
+        <v>101409984</v>
       </c>
       <c r="AN34" s="13">
-        <v>115369648</v>
+        <v>131847277</v>
       </c>
       <c r="AO34" s="13">
-        <v>101409984</v>
+        <v>90418024</v>
       </c>
       <c r="AP34" s="13">
-        <v>131847277</v>
+        <v>48754995</v>
       </c>
       <c r="AQ34" s="13">
-        <v>90418024</v>
+        <v>15265301</v>
       </c>
       <c r="AR34" s="13">
-        <v>48754995</v>
+        <v>76954001</v>
       </c>
       <c r="AS34" s="13">
-        <v>15265301</v>
+        <v>104714257</v>
       </c>
       <c r="AT34" s="13">
-        <v>76954001</v>
+        <v>74573196</v>
       </c>
       <c r="AU34" s="13">
-        <v>104714257</v>
+        <v>91958141</v>
       </c>
       <c r="AV34" s="13">
-        <v>74573196</v>
+        <v>65965253</v>
       </c>
       <c r="AW34" s="13">
-        <v>91958141</v>
+        <v>85172184</v>
       </c>
       <c r="AX34" s="13">
-        <v>65965253</v>
+        <v>76924175</v>
       </c>
       <c r="AY34" s="13">
-        <v>85172184</v>
+        <v>98540094</v>
       </c>
       <c r="AZ34" s="13">
-        <v>76924175</v>
+        <v>87594940</v>
       </c>
       <c r="BA34" s="13">
-        <v>98540094</v>
+        <v>73842822</v>
       </c>
       <c r="BB34" s="13">
-        <v>87594940</v>
+        <v>67838445</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>60</v>
       </c>
@@ -4585,104 +4585,104 @@
       <c r="V35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="11" t="s">
-        <v>58</v>
+      <c r="W35" s="11">
+        <v>12267750</v>
+      </c>
+      <c r="X35" s="11">
+        <v>13022193</v>
       </c>
       <c r="Y35" s="11">
-        <v>12267750</v>
+        <v>8449867</v>
       </c>
       <c r="Z35" s="11">
-        <v>13022193</v>
+        <v>12719132</v>
       </c>
       <c r="AA35" s="11">
-        <v>8449867</v>
+        <v>12139960</v>
       </c>
       <c r="AB35" s="11">
-        <v>12719132</v>
+        <v>11454979</v>
       </c>
       <c r="AC35" s="11">
-        <v>12139960</v>
+        <v>8310485</v>
       </c>
       <c r="AD35" s="11">
-        <v>11454979</v>
+        <v>13119764</v>
       </c>
       <c r="AE35" s="11">
-        <v>8310485</v>
+        <v>4330558</v>
       </c>
       <c r="AF35" s="11">
-        <v>13119764</v>
+        <v>10265761</v>
       </c>
       <c r="AG35" s="11">
-        <v>4330558</v>
+        <v>15788895</v>
       </c>
       <c r="AH35" s="11">
-        <v>10265761</v>
+        <v>13862169</v>
       </c>
       <c r="AI35" s="11">
-        <v>15788895</v>
+        <v>16134297</v>
       </c>
       <c r="AJ35" s="11">
-        <v>13862169</v>
+        <v>17228757</v>
       </c>
       <c r="AK35" s="11">
-        <v>16134297</v>
+        <v>12894538</v>
       </c>
       <c r="AL35" s="11">
-        <v>17228757</v>
+        <v>17081837</v>
       </c>
       <c r="AM35" s="11">
-        <v>12894538</v>
+        <v>16907088</v>
       </c>
       <c r="AN35" s="11">
-        <v>17081837</v>
+        <v>16033426</v>
       </c>
       <c r="AO35" s="11">
-        <v>16907088</v>
+        <v>14401500</v>
       </c>
       <c r="AP35" s="11">
-        <v>16033426</v>
+        <v>14131929</v>
       </c>
       <c r="AQ35" s="11">
-        <v>14401500</v>
+        <v>4963001</v>
       </c>
       <c r="AR35" s="11">
-        <v>14131929</v>
+        <v>10795341</v>
       </c>
       <c r="AS35" s="11">
-        <v>4963001</v>
+        <v>16493893</v>
       </c>
       <c r="AT35" s="11">
-        <v>10795341</v>
+        <v>13118429</v>
       </c>
       <c r="AU35" s="11">
-        <v>16493893</v>
+        <v>12501207</v>
       </c>
       <c r="AV35" s="11">
-        <v>13118429</v>
+        <v>12936194</v>
       </c>
       <c r="AW35" s="11">
-        <v>12501207</v>
+        <v>10889677</v>
       </c>
       <c r="AX35" s="11">
-        <v>12936194</v>
+        <v>19307595</v>
       </c>
       <c r="AY35" s="11">
-        <v>10889677</v>
+        <v>16309048</v>
       </c>
       <c r="AZ35" s="11">
-        <v>19307595</v>
+        <v>11770603</v>
       </c>
       <c r="BA35" s="11">
-        <v>16309048</v>
+        <v>11692261</v>
       </c>
       <c r="BB35" s="11">
-        <v>11770603</v>
+        <v>10243962</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>61</v>
       </c>
@@ -4744,104 +4744,104 @@
       <c r="V36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="13" t="s">
-        <v>58</v>
+      <c r="W36" s="13">
+        <v>6119450</v>
+      </c>
+      <c r="X36" s="13">
+        <v>6443997</v>
       </c>
       <c r="Y36" s="13">
-        <v>6119450</v>
+        <v>4209628</v>
       </c>
       <c r="Z36" s="13">
-        <v>6443997</v>
+        <v>6603074</v>
       </c>
       <c r="AA36" s="13">
-        <v>4209628</v>
+        <v>8443051</v>
       </c>
       <c r="AB36" s="13">
-        <v>6603074</v>
+        <v>6414569</v>
       </c>
       <c r="AC36" s="13">
-        <v>8443051</v>
+        <v>4831049</v>
       </c>
       <c r="AD36" s="13">
-        <v>6414569</v>
+        <v>7484059</v>
       </c>
       <c r="AE36" s="13">
-        <v>4831049</v>
+        <v>1499708</v>
       </c>
       <c r="AF36" s="13">
-        <v>7484059</v>
+        <v>3318248</v>
       </c>
       <c r="AG36" s="13">
-        <v>1499708</v>
+        <v>3982564</v>
       </c>
       <c r="AH36" s="13">
-        <v>3318248</v>
+        <v>2961312</v>
       </c>
       <c r="AI36" s="13">
-        <v>3982564</v>
+        <v>3728896</v>
       </c>
       <c r="AJ36" s="13">
-        <v>2961312</v>
+        <v>3962121</v>
       </c>
       <c r="AK36" s="13">
-        <v>3728896</v>
+        <v>7661587</v>
       </c>
       <c r="AL36" s="13">
-        <v>3962121</v>
+        <v>9436434</v>
       </c>
       <c r="AM36" s="13">
-        <v>7661587</v>
+        <v>10585006</v>
       </c>
       <c r="AN36" s="13">
-        <v>9436434</v>
+        <v>4739715</v>
       </c>
       <c r="AO36" s="13">
-        <v>10585006</v>
+        <v>7013284</v>
       </c>
       <c r="AP36" s="13">
-        <v>4739715</v>
+        <v>8289014</v>
       </c>
       <c r="AQ36" s="13">
-        <v>7013284</v>
+        <v>2901251</v>
       </c>
       <c r="AR36" s="13">
-        <v>8289014</v>
+        <v>5238658</v>
       </c>
       <c r="AS36" s="13">
-        <v>2901251</v>
+        <v>7117386</v>
       </c>
       <c r="AT36" s="13">
-        <v>5238658</v>
+        <v>10468801</v>
       </c>
       <c r="AU36" s="13">
-        <v>7117386</v>
+        <v>7804130</v>
       </c>
       <c r="AV36" s="13">
-        <v>10468801</v>
+        <v>3954361</v>
       </c>
       <c r="AW36" s="13">
-        <v>7804130</v>
+        <v>7369879</v>
       </c>
       <c r="AX36" s="13">
-        <v>3954361</v>
+        <v>7609561</v>
       </c>
       <c r="AY36" s="13">
-        <v>7369879</v>
+        <v>4461017</v>
       </c>
       <c r="AZ36" s="13">
-        <v>7609561</v>
+        <v>5333724</v>
       </c>
       <c r="BA36" s="13">
-        <v>4461017</v>
+        <v>4863587</v>
       </c>
       <c r="BB36" s="13">
-        <v>5333724</v>
+        <v>4363328</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>72</v>
       </c>
@@ -4902,103 +4902,103 @@
         <v>0</v>
       </c>
       <c r="W37" s="15">
-        <v>0</v>
+        <v>125239550</v>
       </c>
       <c r="X37" s="15">
-        <v>0</v>
+        <v>129942187</v>
       </c>
       <c r="Y37" s="15">
-        <v>125239550</v>
+        <v>102202720</v>
       </c>
       <c r="Z37" s="15">
-        <v>129942187</v>
+        <v>106981188</v>
       </c>
       <c r="AA37" s="15">
-        <v>102202720</v>
+        <v>113403752</v>
       </c>
       <c r="AB37" s="15">
-        <v>106981188</v>
+        <v>90662330</v>
       </c>
       <c r="AC37" s="15">
-        <v>113403752</v>
+        <v>83570239</v>
       </c>
       <c r="AD37" s="15">
-        <v>90662330</v>
+        <v>90673255</v>
       </c>
       <c r="AE37" s="15">
-        <v>83570239</v>
+        <v>21778440</v>
       </c>
       <c r="AF37" s="15">
-        <v>90673255</v>
+        <v>89127586</v>
       </c>
       <c r="AG37" s="15">
-        <v>21778440</v>
+        <v>87565998</v>
       </c>
       <c r="AH37" s="15">
-        <v>89127586</v>
+        <v>64960813</v>
       </c>
       <c r="AI37" s="15">
-        <v>87565998</v>
+        <v>86342191</v>
       </c>
       <c r="AJ37" s="15">
-        <v>64960813</v>
+        <v>101471139</v>
       </c>
       <c r="AK37" s="15">
-        <v>86342191</v>
+        <v>113417101</v>
       </c>
       <c r="AL37" s="15">
-        <v>101471139</v>
+        <v>143130986</v>
       </c>
       <c r="AM37" s="15">
-        <v>113417101</v>
+        <v>130710234</v>
       </c>
       <c r="AN37" s="15">
-        <v>143130986</v>
+        <v>154611762</v>
       </c>
       <c r="AO37" s="15">
-        <v>130710234</v>
+        <v>113348774</v>
       </c>
       <c r="AP37" s="15">
-        <v>154611762</v>
+        <v>73060077</v>
       </c>
       <c r="AQ37" s="15">
-        <v>113348774</v>
+        <v>23654648</v>
       </c>
       <c r="AR37" s="15">
-        <v>73060077</v>
+        <v>95009660</v>
       </c>
       <c r="AS37" s="15">
-        <v>23654648</v>
+        <v>131265159</v>
       </c>
       <c r="AT37" s="15">
-        <v>95009660</v>
+        <v>100385951</v>
       </c>
       <c r="AU37" s="15">
-        <v>131265159</v>
+        <v>114130804</v>
       </c>
       <c r="AV37" s="15">
-        <v>100385951</v>
+        <v>84044901</v>
       </c>
       <c r="AW37" s="15">
-        <v>114130804</v>
+        <v>104286850</v>
       </c>
       <c r="AX37" s="15">
-        <v>84044901</v>
+        <v>104400380</v>
       </c>
       <c r="AY37" s="15">
-        <v>104286850</v>
+        <v>120312565</v>
       </c>
       <c r="AZ37" s="15">
-        <v>104400380</v>
+        <v>105685324</v>
       </c>
       <c r="BA37" s="15">
-        <v>120312565</v>
+        <v>91668080</v>
       </c>
       <c r="BB37" s="15">
-        <v>105685324</v>
+        <v>83378935</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>73</v>
       </c>
@@ -5055,7 +5055,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>56</v>
       </c>
@@ -5117,23 +5117,23 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>0</v>
+      </c>
+      <c r="X39" s="11">
+        <v>0</v>
       </c>
       <c r="Y39" s="11">
-        <v>0</v>
+        <v>64264</v>
       </c>
       <c r="Z39" s="11">
-        <v>0</v>
+        <v>43932</v>
       </c>
       <c r="AA39" s="11">
-        <v>64264</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="11">
-        <v>43932</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="11">
         <v>0</v>
@@ -5142,79 +5142,79 @@
         <v>0</v>
       </c>
       <c r="AE39" s="11">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AF39" s="11">
         <v>0</v>
       </c>
-      <c r="AG39" s="11">
+      <c r="AG39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>45000</v>
+      </c>
+      <c r="AP39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="11">
         <v>10000</v>
       </c>
-      <c r="AH39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>45000</v>
-      </c>
-      <c r="AR39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="11">
-        <v>0</v>
-      </c>
       <c r="AZ39" s="11">
-        <v>0</v>
+        <v>87000</v>
       </c>
       <c r="BA39" s="11">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BB39" s="11">
-        <v>87000</v>
+        <v>20000</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
@@ -5276,74 +5276,74 @@
       <c r="V40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>58</v>
+      <c r="W40" s="13">
+        <v>0</v>
+      </c>
+      <c r="X40" s="13">
+        <v>542000</v>
       </c>
       <c r="Y40" s="13">
-        <v>0</v>
+        <v>1474000</v>
       </c>
       <c r="Z40" s="13">
-        <v>542000</v>
+        <v>5100000</v>
       </c>
       <c r="AA40" s="13">
-        <v>1474000</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="13">
-        <v>5100000</v>
+        <v>699970</v>
       </c>
       <c r="AC40" s="13">
-        <v>0</v>
+        <v>65324</v>
       </c>
       <c r="AD40" s="13">
-        <v>699970</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="13">
-        <v>65324</v>
+        <v>9792</v>
       </c>
       <c r="AF40" s="13">
         <v>0</v>
       </c>
       <c r="AG40" s="13">
-        <v>9792</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>0</v>
+        <v>280000</v>
+      </c>
+      <c r="AH40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI40" s="13">
+        <v>349440</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>4898200</v>
+      </c>
+      <c r="AN40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO40" s="13">
         <v>280000</v>
       </c>
-      <c r="AJ40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>349440</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>4898200</v>
-      </c>
       <c r="AP40" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AQ40" s="13">
-        <v>280000</v>
-      </c>
-      <c r="AR40" s="13" t="s">
-        <v>58</v>
+        <v>1020000</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>0</v>
       </c>
       <c r="AS40" s="13">
-        <v>1020000</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="13">
         <v>0</v>
@@ -5361,19 +5361,19 @@
         <v>0</v>
       </c>
       <c r="AY40" s="13">
-        <v>0</v>
+        <v>536000</v>
       </c>
       <c r="AZ40" s="13">
-        <v>0</v>
+        <v>1856760</v>
       </c>
       <c r="BA40" s="13">
-        <v>536000</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="13">
-        <v>1856760</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>60</v>
       </c>
@@ -5435,47 +5435,47 @@
       <c r="V41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>58</v>
+      <c r="W41" s="11">
+        <v>75954</v>
+      </c>
+      <c r="X41" s="11">
+        <v>619260</v>
       </c>
       <c r="Y41" s="11">
-        <v>75954</v>
+        <v>472763</v>
       </c>
       <c r="Z41" s="11">
-        <v>619260</v>
+        <v>550560</v>
       </c>
       <c r="AA41" s="11">
-        <v>472763</v>
+        <v>109225</v>
       </c>
       <c r="AB41" s="11">
-        <v>550560</v>
+        <v>68324</v>
       </c>
       <c r="AC41" s="11">
-        <v>109225</v>
+        <v>118960</v>
       </c>
       <c r="AD41" s="11">
-        <v>68324</v>
+        <v>98340</v>
       </c>
       <c r="AE41" s="11">
-        <v>118960</v>
+        <v>577830</v>
       </c>
       <c r="AF41" s="11">
-        <v>98340</v>
+        <v>18740</v>
       </c>
       <c r="AG41" s="11">
-        <v>577830</v>
+        <v>130960</v>
       </c>
       <c r="AH41" s="11">
-        <v>18740</v>
+        <v>103000</v>
       </c>
       <c r="AI41" s="11">
-        <v>130960</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="11">
-        <v>103000</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="11">
         <v>0</v>
@@ -5484,55 +5484,55 @@
         <v>0</v>
       </c>
       <c r="AM41" s="11">
-        <v>0</v>
+        <v>360381</v>
       </c>
       <c r="AN41" s="11">
-        <v>0</v>
+        <v>61404</v>
       </c>
       <c r="AO41" s="11">
-        <v>360381</v>
+        <v>23740</v>
       </c>
       <c r="AP41" s="11">
-        <v>61404</v>
+        <v>150000</v>
       </c>
       <c r="AQ41" s="11">
-        <v>23740</v>
+        <v>48450</v>
       </c>
       <c r="AR41" s="11">
+        <v>90000</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>72015</v>
+      </c>
+      <c r="AT41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="11">
+        <v>11300</v>
+      </c>
+      <c r="AW41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="11">
+        <v>299780</v>
+      </c>
+      <c r="AZ41" s="11">
         <v>150000</v>
       </c>
-      <c r="AS41" s="11">
-        <v>48450</v>
-      </c>
-      <c r="AT41" s="11">
-        <v>90000</v>
-      </c>
-      <c r="AU41" s="11">
-        <v>72015</v>
-      </c>
-      <c r="AV41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="11">
-        <v>11300</v>
-      </c>
-      <c r="AY41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="11">
-        <v>0</v>
-      </c>
       <c r="BA41" s="11">
-        <v>299780</v>
+        <v>382629</v>
       </c>
       <c r="BB41" s="11">
-        <v>150000</v>
+        <v>349270</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>61</v>
       </c>
@@ -5594,104 +5594,104 @@
       <c r="V42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>58</v>
+      <c r="W42" s="13">
+        <v>2004</v>
+      </c>
+      <c r="X42" s="13">
+        <v>1121340</v>
       </c>
       <c r="Y42" s="13">
-        <v>2004</v>
+        <v>2775871</v>
       </c>
       <c r="Z42" s="13">
-        <v>1121340</v>
+        <v>997600</v>
       </c>
       <c r="AA42" s="13">
-        <v>2775871</v>
+        <v>109867</v>
       </c>
       <c r="AB42" s="13">
-        <v>997600</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="13">
-        <v>109867</v>
+        <v>1002432</v>
       </c>
       <c r="AD42" s="13">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AE42" s="13">
-        <v>1002432</v>
+        <v>555096</v>
       </c>
       <c r="AF42" s="13">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="13">
-        <v>555096</v>
+        <v>90000</v>
       </c>
       <c r="AH42" s="13">
-        <v>0</v>
+        <v>1048932</v>
       </c>
       <c r="AI42" s="13">
-        <v>90000</v>
+        <v>2256444</v>
       </c>
       <c r="AJ42" s="13">
-        <v>1048932</v>
+        <v>10920</v>
       </c>
       <c r="AK42" s="13">
-        <v>2256444</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="13">
-        <v>10920</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="13">
-        <v>0</v>
+        <v>35604</v>
       </c>
       <c r="AN42" s="13">
-        <v>0</v>
+        <v>130000</v>
       </c>
       <c r="AO42" s="13">
-        <v>35604</v>
+        <v>25000</v>
       </c>
       <c r="AP42" s="13">
-        <v>130000</v>
+        <v>434988</v>
       </c>
       <c r="AQ42" s="13">
-        <v>25000</v>
+        <v>477896</v>
       </c>
       <c r="AR42" s="13">
-        <v>434988</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="13">
-        <v>477896</v>
+        <v>396540</v>
       </c>
       <c r="AT42" s="13">
         <v>0</v>
       </c>
       <c r="AU42" s="13">
-        <v>396540</v>
+        <v>11980</v>
       </c>
       <c r="AV42" s="13">
         <v>0</v>
       </c>
       <c r="AW42" s="13">
-        <v>11980</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="13">
         <v>0</v>
       </c>
       <c r="AY42" s="13">
-        <v>0</v>
+        <v>533855</v>
       </c>
       <c r="AZ42" s="13">
-        <v>0</v>
+        <v>349488</v>
       </c>
       <c r="BA42" s="13">
-        <v>533855</v>
+        <v>356000</v>
       </c>
       <c r="BB42" s="13">
-        <v>349488</v>
+        <v>379956</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>74</v>
       </c>
@@ -5752,103 +5752,103 @@
         <v>0</v>
       </c>
       <c r="W43" s="15">
-        <v>0</v>
+        <v>77958</v>
       </c>
       <c r="X43" s="15">
-        <v>0</v>
+        <v>2282600</v>
       </c>
       <c r="Y43" s="15">
-        <v>77958</v>
+        <v>4786898</v>
       </c>
       <c r="Z43" s="15">
-        <v>2282600</v>
+        <v>6692092</v>
       </c>
       <c r="AA43" s="15">
-        <v>4786898</v>
+        <v>219092</v>
       </c>
       <c r="AB43" s="15">
-        <v>6692092</v>
+        <v>768294</v>
       </c>
       <c r="AC43" s="15">
-        <v>219092</v>
+        <v>1186716</v>
       </c>
       <c r="AD43" s="15">
-        <v>768294</v>
+        <v>148340</v>
       </c>
       <c r="AE43" s="15">
-        <v>1186716</v>
+        <v>1152718</v>
       </c>
       <c r="AF43" s="15">
-        <v>148340</v>
+        <v>18740</v>
       </c>
       <c r="AG43" s="15">
-        <v>1152718</v>
+        <v>500960</v>
       </c>
       <c r="AH43" s="15">
-        <v>18740</v>
+        <v>1151932</v>
       </c>
       <c r="AI43" s="15">
-        <v>500960</v>
+        <v>2605884</v>
       </c>
       <c r="AJ43" s="15">
-        <v>1151932</v>
+        <v>10920</v>
       </c>
       <c r="AK43" s="15">
-        <v>2605884</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="15">
-        <v>10920</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="15">
-        <v>0</v>
+        <v>5294185</v>
       </c>
       <c r="AN43" s="15">
-        <v>0</v>
+        <v>191404</v>
       </c>
       <c r="AO43" s="15">
-        <v>5294185</v>
+        <v>373740</v>
       </c>
       <c r="AP43" s="15">
-        <v>191404</v>
+        <v>584988</v>
       </c>
       <c r="AQ43" s="15">
-        <v>373740</v>
+        <v>1546346</v>
       </c>
       <c r="AR43" s="15">
-        <v>584988</v>
+        <v>90000</v>
       </c>
       <c r="AS43" s="15">
-        <v>1546346</v>
+        <v>468555</v>
       </c>
       <c r="AT43" s="15">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="15">
-        <v>468555</v>
+        <v>11980</v>
       </c>
       <c r="AV43" s="15">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="AW43" s="15">
-        <v>11980</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="15">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="15">
-        <v>0</v>
+        <v>1379635</v>
       </c>
       <c r="AZ43" s="15">
-        <v>0</v>
+        <v>2443248</v>
       </c>
       <c r="BA43" s="15">
-        <v>1379635</v>
+        <v>753629</v>
       </c>
       <c r="BB43" s="15">
-        <v>2443248</v>
+        <v>749226</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>65</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>66</v>
       </c>
@@ -5967,39 +5967,39 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>1679201</v>
+      </c>
+      <c r="X45" s="11">
+        <v>315431</v>
       </c>
       <c r="Y45" s="11">
-        <v>1679201</v>
+        <v>986143</v>
       </c>
       <c r="Z45" s="11">
-        <v>315431</v>
+        <v>368723</v>
       </c>
       <c r="AA45" s="11">
-        <v>986143</v>
+        <v>514656</v>
       </c>
       <c r="AB45" s="11">
-        <v>368723</v>
+        <v>619470</v>
       </c>
       <c r="AC45" s="11">
-        <v>514656</v>
+        <v>822088</v>
       </c>
       <c r="AD45" s="11">
-        <v>619470</v>
+        <v>234739</v>
       </c>
       <c r="AE45" s="11">
-        <v>822088</v>
-      </c>
-      <c r="AF45" s="11">
-        <v>234739</v>
-      </c>
-      <c r="AG45" s="11">
         <v>584756</v>
       </c>
+      <c r="AF45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG45" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH45" s="11" t="s">
         <v>58</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>67</v>
       </c>
@@ -6153,77 +6153,77 @@
       <c r="AE46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG46" s="13" t="s">
-        <v>58</v>
+      <c r="AF46" s="13">
+        <v>374101</v>
+      </c>
+      <c r="AG46" s="13">
+        <v>584737</v>
       </c>
       <c r="AH46" s="13">
-        <v>374101</v>
+        <v>644586</v>
       </c>
       <c r="AI46" s="13">
-        <v>584737</v>
+        <v>568972</v>
       </c>
       <c r="AJ46" s="13">
-        <v>644586</v>
+        <v>1405274</v>
       </c>
       <c r="AK46" s="13">
-        <v>568972</v>
+        <v>728740</v>
       </c>
       <c r="AL46" s="13">
-        <v>1405274</v>
+        <v>1242397</v>
       </c>
       <c r="AM46" s="13">
-        <v>728740</v>
+        <v>569647</v>
       </c>
       <c r="AN46" s="13">
-        <v>1242397</v>
+        <v>519360</v>
       </c>
       <c r="AO46" s="13">
-        <v>569647</v>
+        <v>2462251</v>
       </c>
       <c r="AP46" s="13">
-        <v>519360</v>
+        <v>2608103</v>
       </c>
       <c r="AQ46" s="13">
-        <v>2462251</v>
+        <v>98684</v>
       </c>
       <c r="AR46" s="13">
-        <v>2608103</v>
+        <v>148058</v>
       </c>
       <c r="AS46" s="13">
-        <v>98684</v>
+        <v>1929941</v>
       </c>
       <c r="AT46" s="13">
-        <v>148058</v>
+        <v>1199060</v>
       </c>
       <c r="AU46" s="13">
-        <v>1929941</v>
+        <v>509673</v>
       </c>
       <c r="AV46" s="13">
-        <v>1199060</v>
+        <v>626548</v>
       </c>
       <c r="AW46" s="13">
-        <v>509673</v>
+        <v>2191321</v>
       </c>
       <c r="AX46" s="13">
-        <v>626548</v>
+        <v>2124537</v>
       </c>
       <c r="AY46" s="13">
-        <v>2191321</v>
+        <v>433844</v>
       </c>
       <c r="AZ46" s="13">
-        <v>2124537</v>
+        <v>2275483</v>
       </c>
       <c r="BA46" s="13">
-        <v>433844</v>
+        <v>246925</v>
       </c>
       <c r="BB46" s="13">
-        <v>2275483</v>
+        <v>1922726</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>68</v>
       </c>
@@ -6283,104 +6283,104 @@
       <c r="V47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="15" t="s">
-        <v>58</v>
+      <c r="W47" s="15">
+        <v>1679201</v>
+      </c>
+      <c r="X47" s="15">
+        <v>315431</v>
       </c>
       <c r="Y47" s="15">
-        <v>1679201</v>
+        <v>986143</v>
       </c>
       <c r="Z47" s="15">
-        <v>315431</v>
+        <v>368723</v>
       </c>
       <c r="AA47" s="15">
-        <v>986143</v>
+        <v>514656</v>
       </c>
       <c r="AB47" s="15">
-        <v>368723</v>
+        <v>619470</v>
       </c>
       <c r="AC47" s="15">
-        <v>514656</v>
+        <v>822088</v>
       </c>
       <c r="AD47" s="15">
-        <v>619470</v>
+        <v>234739</v>
       </c>
       <c r="AE47" s="15">
-        <v>822088</v>
+        <v>584756</v>
       </c>
       <c r="AF47" s="15">
-        <v>234739</v>
+        <v>374101</v>
       </c>
       <c r="AG47" s="15">
-        <v>584756</v>
+        <v>584737</v>
       </c>
       <c r="AH47" s="15">
-        <v>374101</v>
+        <v>644586</v>
       </c>
       <c r="AI47" s="15">
-        <v>584737</v>
+        <v>568972</v>
       </c>
       <c r="AJ47" s="15">
-        <v>644586</v>
+        <v>1405274</v>
       </c>
       <c r="AK47" s="15">
-        <v>568972</v>
+        <v>728740</v>
       </c>
       <c r="AL47" s="15">
-        <v>1405274</v>
+        <v>1242397</v>
       </c>
       <c r="AM47" s="15">
-        <v>728740</v>
+        <v>569647</v>
       </c>
       <c r="AN47" s="15">
-        <v>1242397</v>
+        <v>519360</v>
       </c>
       <c r="AO47" s="15">
-        <v>569647</v>
+        <v>2462251</v>
       </c>
       <c r="AP47" s="15">
-        <v>519360</v>
+        <v>2608103</v>
       </c>
       <c r="AQ47" s="15">
-        <v>2462251</v>
+        <v>98684</v>
       </c>
       <c r="AR47" s="15">
-        <v>2608103</v>
+        <v>148058</v>
       </c>
       <c r="AS47" s="15">
-        <v>98684</v>
+        <v>1929941</v>
       </c>
       <c r="AT47" s="15">
-        <v>148058</v>
+        <v>1199060</v>
       </c>
       <c r="AU47" s="15">
-        <v>1929941</v>
+        <v>509673</v>
       </c>
       <c r="AV47" s="15">
-        <v>1199060</v>
+        <v>626548</v>
       </c>
       <c r="AW47" s="15">
-        <v>509673</v>
+        <v>2191321</v>
       </c>
       <c r="AX47" s="15">
-        <v>626548</v>
+        <v>2124537</v>
       </c>
       <c r="AY47" s="15">
-        <v>2191321</v>
+        <v>433844</v>
       </c>
       <c r="AZ47" s="15">
-        <v>2124537</v>
+        <v>2275483</v>
       </c>
       <c r="BA47" s="15">
-        <v>433844</v>
+        <v>246925</v>
       </c>
       <c r="BB47" s="15">
-        <v>2275483</v>
+        <v>1922726</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>75</v>
       </c>
@@ -6437,7 +6437,7 @@
       <c r="BA48" s="19"/>
       <c r="BB48" s="19"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>76</v>
       </c>
@@ -6497,11 +6497,11 @@
       <c r="V49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X49" s="15" t="s">
-        <v>58</v>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+      <c r="X49" s="15">
+        <v>0</v>
       </c>
       <c r="Y49" s="15">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>69</v>
       </c>
@@ -6655,103 +6655,103 @@
         <v>0</v>
       </c>
       <c r="W50" s="17">
-        <v>0</v>
+        <v>126996709</v>
       </c>
       <c r="X50" s="17">
-        <v>0</v>
+        <v>132540218</v>
       </c>
       <c r="Y50" s="17">
-        <v>126996709</v>
+        <v>107975761</v>
       </c>
       <c r="Z50" s="17">
-        <v>132540218</v>
+        <v>114042003</v>
       </c>
       <c r="AA50" s="17">
-        <v>107975761</v>
+        <v>114137500</v>
       </c>
       <c r="AB50" s="17">
-        <v>114042003</v>
+        <v>92050094</v>
       </c>
       <c r="AC50" s="17">
-        <v>114137500</v>
+        <v>85579043</v>
       </c>
       <c r="AD50" s="17">
-        <v>92050094</v>
+        <v>91056334</v>
       </c>
       <c r="AE50" s="17">
-        <v>85579043</v>
+        <v>23515914</v>
       </c>
       <c r="AF50" s="17">
-        <v>91056334</v>
+        <v>89520427</v>
       </c>
       <c r="AG50" s="17">
-        <v>23515914</v>
+        <v>88651695</v>
       </c>
       <c r="AH50" s="17">
-        <v>89520427</v>
+        <v>66757331</v>
       </c>
       <c r="AI50" s="17">
-        <v>88651695</v>
+        <v>89517047</v>
       </c>
       <c r="AJ50" s="17">
-        <v>66757331</v>
+        <v>102887333</v>
       </c>
       <c r="AK50" s="17">
-        <v>89517047</v>
+        <v>114145841</v>
       </c>
       <c r="AL50" s="17">
-        <v>102887333</v>
+        <v>144373383</v>
       </c>
       <c r="AM50" s="17">
-        <v>114145841</v>
+        <v>136574066</v>
       </c>
       <c r="AN50" s="17">
-        <v>144373383</v>
+        <v>155322526</v>
       </c>
       <c r="AO50" s="17">
-        <v>136574066</v>
+        <v>116184765</v>
       </c>
       <c r="AP50" s="17">
-        <v>155322526</v>
+        <v>76253168</v>
       </c>
       <c r="AQ50" s="17">
-        <v>116184765</v>
+        <v>25299678</v>
       </c>
       <c r="AR50" s="17">
-        <v>76253168</v>
+        <v>95247718</v>
       </c>
       <c r="AS50" s="17">
-        <v>25299678</v>
+        <v>133663655</v>
       </c>
       <c r="AT50" s="17">
-        <v>95247718</v>
+        <v>101585011</v>
       </c>
       <c r="AU50" s="17">
-        <v>133663655</v>
+        <v>114652457</v>
       </c>
       <c r="AV50" s="17">
-        <v>101585011</v>
+        <v>84682749</v>
       </c>
       <c r="AW50" s="17">
-        <v>114652457</v>
+        <v>106478171</v>
       </c>
       <c r="AX50" s="17">
-        <v>84682749</v>
+        <v>106524917</v>
       </c>
       <c r="AY50" s="17">
-        <v>106478171</v>
+        <v>122126044</v>
       </c>
       <c r="AZ50" s="17">
-        <v>106524917</v>
+        <v>110404055</v>
       </c>
       <c r="BA50" s="17">
-        <v>122126044</v>
+        <v>92668634</v>
       </c>
       <c r="BB50" s="17">
-        <v>110404055</v>
+        <v>86050887</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6806,7 +6806,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6861,7 +6861,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6916,7 +6916,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>77</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7128,7 +7128,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>78</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
@@ -7247,104 +7247,104 @@
       <c r="V57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="11" t="s">
-        <v>58</v>
+      <c r="W57" s="11">
+        <v>89417</v>
+      </c>
+      <c r="X57" s="11">
+        <v>77603</v>
       </c>
       <c r="Y57" s="11">
-        <v>89417</v>
+        <v>108368</v>
       </c>
       <c r="Z57" s="11">
-        <v>77603</v>
+        <v>137918</v>
       </c>
       <c r="AA57" s="11">
-        <v>108368</v>
+        <v>160116</v>
       </c>
       <c r="AB57" s="11">
-        <v>137918</v>
+        <v>113437</v>
       </c>
       <c r="AC57" s="11">
-        <v>160116</v>
+        <v>148716</v>
       </c>
       <c r="AD57" s="11">
-        <v>113437</v>
+        <v>73461</v>
       </c>
       <c r="AE57" s="11">
-        <v>148716</v>
+        <v>507</v>
       </c>
       <c r="AF57" s="11">
-        <v>73461</v>
+        <v>91554</v>
       </c>
       <c r="AG57" s="11">
-        <v>507</v>
+        <v>113105</v>
       </c>
       <c r="AH57" s="11">
-        <v>91554</v>
+        <v>125879</v>
       </c>
       <c r="AI57" s="11">
-        <v>113105</v>
+        <v>129749</v>
       </c>
       <c r="AJ57" s="11">
-        <v>125879</v>
+        <v>110606</v>
       </c>
       <c r="AK57" s="11">
-        <v>129749</v>
+        <v>208562</v>
       </c>
       <c r="AL57" s="11">
-        <v>110606</v>
+        <v>120356</v>
       </c>
       <c r="AM57" s="11">
-        <v>208562</v>
+        <v>169647</v>
       </c>
       <c r="AN57" s="11">
-        <v>120356</v>
+        <v>187696</v>
       </c>
       <c r="AO57" s="11">
-        <v>169647</v>
+        <v>157097</v>
       </c>
       <c r="AP57" s="11">
-        <v>187696</v>
+        <v>168046</v>
       </c>
       <c r="AQ57" s="11">
-        <v>157097</v>
+        <v>80720</v>
       </c>
       <c r="AR57" s="11">
-        <v>168046</v>
+        <v>196582</v>
       </c>
       <c r="AS57" s="11">
-        <v>80720</v>
+        <v>330206</v>
       </c>
       <c r="AT57" s="11">
-        <v>196582</v>
+        <v>235238</v>
       </c>
       <c r="AU57" s="11">
-        <v>330206</v>
+        <v>227255</v>
       </c>
       <c r="AV57" s="11">
-        <v>235238</v>
+        <v>200261</v>
       </c>
       <c r="AW57" s="11">
-        <v>394822</v>
+        <v>153220</v>
       </c>
       <c r="AX57" s="11">
-        <v>200261</v>
+        <v>107415</v>
       </c>
       <c r="AY57" s="11">
-        <v>153220</v>
+        <v>208345</v>
       </c>
       <c r="AZ57" s="11">
-        <v>107415</v>
+        <v>186453</v>
       </c>
       <c r="BA57" s="11">
-        <v>208345</v>
+        <v>291238</v>
       </c>
       <c r="BB57" s="11">
-        <v>186453</v>
+        <v>213330</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>59</v>
       </c>
@@ -7406,104 +7406,104 @@
       <c r="V58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X58" s="13" t="s">
-        <v>58</v>
+      <c r="W58" s="13">
+        <v>190023</v>
+      </c>
+      <c r="X58" s="13">
+        <v>175068</v>
       </c>
       <c r="Y58" s="13">
-        <v>190023</v>
+        <v>183770</v>
       </c>
       <c r="Z58" s="13">
-        <v>175068</v>
+        <v>229341</v>
       </c>
       <c r="AA58" s="13">
-        <v>183770</v>
+        <v>240334</v>
       </c>
       <c r="AB58" s="13">
-        <v>229341</v>
+        <v>227885</v>
       </c>
       <c r="AC58" s="13">
-        <v>240334</v>
+        <v>206377</v>
       </c>
       <c r="AD58" s="13">
-        <v>227885</v>
+        <v>214765</v>
       </c>
       <c r="AE58" s="13">
-        <v>206377</v>
+        <v>11901</v>
       </c>
       <c r="AF58" s="13">
-        <v>214765</v>
+        <v>216354</v>
       </c>
       <c r="AG58" s="13">
-        <v>11901</v>
+        <v>204182</v>
       </c>
       <c r="AH58" s="13">
-        <v>216354</v>
+        <v>160548</v>
       </c>
       <c r="AI58" s="13">
-        <v>204182</v>
+        <v>190392</v>
       </c>
       <c r="AJ58" s="13">
-        <v>160548</v>
+        <v>263204</v>
       </c>
       <c r="AK58" s="13">
-        <v>190392</v>
+        <v>261459</v>
       </c>
       <c r="AL58" s="13">
-        <v>263204</v>
+        <v>425732</v>
       </c>
       <c r="AM58" s="13">
-        <v>261459</v>
+        <v>329263</v>
       </c>
       <c r="AN58" s="13">
-        <v>425732</v>
+        <v>512385</v>
       </c>
       <c r="AO58" s="13">
-        <v>329263</v>
+        <v>313166</v>
       </c>
       <c r="AP58" s="13">
-        <v>512385</v>
+        <v>178973</v>
       </c>
       <c r="AQ58" s="13">
-        <v>313166</v>
+        <v>-30475</v>
       </c>
       <c r="AR58" s="13">
-        <v>178973</v>
+        <v>337881</v>
       </c>
       <c r="AS58" s="13">
-        <v>-30475</v>
+        <v>378831</v>
       </c>
       <c r="AT58" s="13">
-        <v>337881</v>
+        <v>261115</v>
       </c>
       <c r="AU58" s="13">
-        <v>378831</v>
+        <v>329432</v>
       </c>
       <c r="AV58" s="13">
-        <v>261115</v>
+        <v>494380</v>
       </c>
       <c r="AW58" s="13">
-        <v>707344</v>
+        <v>550101</v>
       </c>
       <c r="AX58" s="13">
-        <v>494380</v>
+        <v>496347</v>
       </c>
       <c r="AY58" s="13">
-        <v>550101</v>
+        <v>602074</v>
       </c>
       <c r="AZ58" s="13">
-        <v>496347</v>
+        <v>653872</v>
       </c>
       <c r="BA58" s="13">
-        <v>602074</v>
+        <v>463971</v>
       </c>
       <c r="BB58" s="13">
-        <v>653872</v>
+        <v>533698</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>60</v>
       </c>
@@ -7565,104 +7565,104 @@
       <c r="V59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>58</v>
+      <c r="W59" s="11">
+        <v>417612</v>
+      </c>
+      <c r="X59" s="11">
+        <v>428609</v>
       </c>
       <c r="Y59" s="11">
-        <v>417612</v>
+        <v>309174</v>
       </c>
       <c r="Z59" s="11">
-        <v>428609</v>
+        <v>391611</v>
       </c>
       <c r="AA59" s="11">
-        <v>309174</v>
+        <v>400730</v>
       </c>
       <c r="AB59" s="11">
-        <v>391611</v>
+        <v>471348</v>
       </c>
       <c r="AC59" s="11">
-        <v>400730</v>
+        <v>366349</v>
       </c>
       <c r="AD59" s="11">
-        <v>471348</v>
+        <v>491350</v>
       </c>
       <c r="AE59" s="11">
-        <v>366349</v>
+        <v>276210</v>
       </c>
       <c r="AF59" s="11">
-        <v>491350</v>
+        <v>514818</v>
       </c>
       <c r="AG59" s="11">
-        <v>276210</v>
+        <v>541495</v>
       </c>
       <c r="AH59" s="11">
-        <v>514818</v>
+        <v>621429</v>
       </c>
       <c r="AI59" s="11">
-        <v>541495</v>
+        <v>1495359</v>
       </c>
       <c r="AJ59" s="11">
-        <v>621429</v>
+        <v>2800037</v>
       </c>
       <c r="AK59" s="11">
-        <v>1495359</v>
+        <v>2088288</v>
       </c>
       <c r="AL59" s="11">
-        <v>2800037</v>
+        <v>1344582</v>
       </c>
       <c r="AM59" s="11">
-        <v>2088288</v>
+        <v>1296773</v>
       </c>
       <c r="AN59" s="11">
-        <v>1344582</v>
+        <v>787090</v>
       </c>
       <c r="AO59" s="11">
-        <v>1296773</v>
+        <v>732586</v>
       </c>
       <c r="AP59" s="11">
-        <v>787090</v>
+        <v>671029</v>
       </c>
       <c r="AQ59" s="11">
-        <v>732586</v>
+        <v>297917</v>
       </c>
       <c r="AR59" s="11">
-        <v>671029</v>
+        <v>824742</v>
       </c>
       <c r="AS59" s="11">
-        <v>297917</v>
+        <v>1029297</v>
       </c>
       <c r="AT59" s="11">
-        <v>824742</v>
+        <v>988425</v>
       </c>
       <c r="AU59" s="11">
-        <v>1029297</v>
+        <v>753497</v>
       </c>
       <c r="AV59" s="11">
-        <v>988425</v>
+        <v>1342637</v>
       </c>
       <c r="AW59" s="11">
-        <v>801431</v>
+        <v>1161887</v>
       </c>
       <c r="AX59" s="11">
-        <v>1342637</v>
+        <v>1208729</v>
       </c>
       <c r="AY59" s="11">
-        <v>1161887</v>
+        <v>1252831</v>
       </c>
       <c r="AZ59" s="11">
-        <v>1208729</v>
+        <v>1161536</v>
       </c>
       <c r="BA59" s="11">
-        <v>1252831</v>
+        <v>1148180</v>
       </c>
       <c r="BB59" s="11">
-        <v>1161536</v>
+        <v>1283513</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>61</v>
       </c>
@@ -7724,104 +7724,104 @@
       <c r="V60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X60" s="13" t="s">
-        <v>58</v>
+      <c r="W60" s="13">
+        <v>118395</v>
+      </c>
+      <c r="X60" s="13">
+        <v>141741</v>
       </c>
       <c r="Y60" s="13">
-        <v>118395</v>
+        <v>62845</v>
       </c>
       <c r="Z60" s="13">
-        <v>141741</v>
+        <v>106569</v>
       </c>
       <c r="AA60" s="13">
-        <v>62845</v>
+        <v>162794</v>
       </c>
       <c r="AB60" s="13">
-        <v>106569</v>
+        <v>123440</v>
       </c>
       <c r="AC60" s="13">
-        <v>162794</v>
+        <v>95954</v>
       </c>
       <c r="AD60" s="13">
-        <v>123440</v>
+        <v>163691</v>
       </c>
       <c r="AE60" s="13">
-        <v>95954</v>
+        <v>50488</v>
       </c>
       <c r="AF60" s="13">
-        <v>163691</v>
+        <v>105777</v>
       </c>
       <c r="AG60" s="13">
-        <v>50488</v>
+        <v>128816</v>
       </c>
       <c r="AH60" s="13">
-        <v>105777</v>
+        <v>103981</v>
       </c>
       <c r="AI60" s="13">
-        <v>128816</v>
+        <v>111897</v>
       </c>
       <c r="AJ60" s="13">
-        <v>103981</v>
+        <v>185135</v>
       </c>
       <c r="AK60" s="13">
-        <v>111897</v>
+        <v>217358</v>
       </c>
       <c r="AL60" s="13">
-        <v>185135</v>
+        <v>338686</v>
       </c>
       <c r="AM60" s="13">
-        <v>217358</v>
+        <v>234590</v>
       </c>
       <c r="AN60" s="13">
-        <v>338686</v>
+        <v>157146</v>
       </c>
       <c r="AO60" s="13">
-        <v>234590</v>
+        <v>188828</v>
       </c>
       <c r="AP60" s="13">
-        <v>157146</v>
+        <v>273287</v>
       </c>
       <c r="AQ60" s="13">
-        <v>188828</v>
+        <v>65663</v>
       </c>
       <c r="AR60" s="13">
-        <v>273287</v>
+        <v>161820</v>
       </c>
       <c r="AS60" s="13">
-        <v>65663</v>
+        <v>263104</v>
       </c>
       <c r="AT60" s="13">
-        <v>161820</v>
+        <v>466111</v>
       </c>
       <c r="AU60" s="13">
-        <v>263104</v>
+        <v>372876</v>
       </c>
       <c r="AV60" s="13">
-        <v>466111</v>
+        <v>390981</v>
       </c>
       <c r="AW60" s="13">
-        <v>372876</v>
+        <v>387480</v>
       </c>
       <c r="AX60" s="13">
-        <v>390981</v>
+        <v>409426</v>
       </c>
       <c r="AY60" s="13">
-        <v>387480</v>
+        <v>364330</v>
       </c>
       <c r="AZ60" s="13">
-        <v>409426</v>
+        <v>383285</v>
       </c>
       <c r="BA60" s="13">
-        <v>364330</v>
+        <v>551893</v>
       </c>
       <c r="BB60" s="13">
-        <v>383285</v>
+        <v>432378</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>72</v>
       </c>
@@ -7882,103 +7882,103 @@
         <v>0</v>
       </c>
       <c r="W61" s="15">
-        <v>0</v>
+        <v>815447</v>
       </c>
       <c r="X61" s="15">
-        <v>0</v>
+        <v>823021</v>
       </c>
       <c r="Y61" s="15">
-        <v>815447</v>
+        <v>664157</v>
       </c>
       <c r="Z61" s="15">
-        <v>823021</v>
+        <v>865439</v>
       </c>
       <c r="AA61" s="15">
-        <v>664157</v>
+        <v>963974</v>
       </c>
       <c r="AB61" s="15">
-        <v>865439</v>
+        <v>936110</v>
       </c>
       <c r="AC61" s="15">
-        <v>963974</v>
+        <v>817396</v>
       </c>
       <c r="AD61" s="15">
-        <v>936110</v>
+        <v>943267</v>
       </c>
       <c r="AE61" s="15">
-        <v>817396</v>
+        <v>339106</v>
       </c>
       <c r="AF61" s="15">
-        <v>943267</v>
+        <v>928503</v>
       </c>
       <c r="AG61" s="15">
-        <v>339106</v>
+        <v>987598</v>
       </c>
       <c r="AH61" s="15">
-        <v>928503</v>
+        <v>1011837</v>
       </c>
       <c r="AI61" s="15">
-        <v>987598</v>
+        <v>1927397</v>
       </c>
       <c r="AJ61" s="15">
-        <v>1011837</v>
+        <v>3358982</v>
       </c>
       <c r="AK61" s="15">
-        <v>1927397</v>
+        <v>2775667</v>
       </c>
       <c r="AL61" s="15">
-        <v>3358982</v>
+        <v>2229356</v>
       </c>
       <c r="AM61" s="15">
-        <v>2775667</v>
+        <v>2030273</v>
       </c>
       <c r="AN61" s="15">
-        <v>2229356</v>
+        <v>1644317</v>
       </c>
       <c r="AO61" s="15">
-        <v>2030273</v>
+        <v>1391677</v>
       </c>
       <c r="AP61" s="15">
-        <v>1644317</v>
+        <v>1291335</v>
       </c>
       <c r="AQ61" s="15">
-        <v>1391677</v>
+        <v>413825</v>
       </c>
       <c r="AR61" s="15">
-        <v>1291335</v>
+        <v>1521025</v>
       </c>
       <c r="AS61" s="15">
-        <v>413825</v>
+        <v>2001438</v>
       </c>
       <c r="AT61" s="15">
-        <v>1521025</v>
+        <v>1950889</v>
       </c>
       <c r="AU61" s="15">
-        <v>2001438</v>
+        <v>1683060</v>
       </c>
       <c r="AV61" s="15">
-        <v>1950889</v>
+        <v>2428259</v>
       </c>
       <c r="AW61" s="15">
-        <v>2276473</v>
+        <v>2252688</v>
       </c>
       <c r="AX61" s="15">
-        <v>2428259</v>
+        <v>2221917</v>
       </c>
       <c r="AY61" s="15">
-        <v>2252688</v>
+        <v>2427580</v>
       </c>
       <c r="AZ61" s="15">
-        <v>2221917</v>
+        <v>2385146</v>
       </c>
       <c r="BA61" s="15">
-        <v>2427580</v>
+        <v>2455282</v>
       </c>
       <c r="BB61" s="15">
-        <v>2385146</v>
+        <v>2462919</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>80</v>
       </c>
@@ -8035,7 +8035,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>56</v>
       </c>
@@ -8097,23 +8097,23 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>0</v>
+      </c>
+      <c r="X63" s="11">
+        <v>0</v>
       </c>
       <c r="Y63" s="11">
-        <v>0</v>
+        <v>5812</v>
       </c>
       <c r="Z63" s="11">
-        <v>0</v>
+        <v>3931</v>
       </c>
       <c r="AA63" s="11">
-        <v>5812</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="11">
-        <v>3931</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="11">
         <v>0</v>
@@ -8122,13 +8122,13 @@
         <v>0</v>
       </c>
       <c r="AE63" s="11">
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="AF63" s="11">
         <v>0</v>
       </c>
       <c r="AG63" s="11">
-        <v>1012</v>
+        <v>0</v>
       </c>
       <c r="AH63" s="11">
         <v>0</v>
@@ -8152,13 +8152,13 @@
         <v>0</v>
       </c>
       <c r="AO63" s="11">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="AP63" s="11">
         <v>0</v>
       </c>
       <c r="AQ63" s="11">
-        <v>4686</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="11">
         <v>0</v>
@@ -8182,19 +8182,19 @@
         <v>0</v>
       </c>
       <c r="AY63" s="11">
-        <v>0</v>
+        <v>1445</v>
       </c>
       <c r="AZ63" s="11">
-        <v>0</v>
+        <v>11569</v>
       </c>
       <c r="BA63" s="11">
-        <v>1445</v>
+        <v>1611</v>
       </c>
       <c r="BB63" s="11">
-        <v>11569</v>
+        <v>2149</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>59</v>
       </c>
@@ -8256,74 +8256,74 @@
       <c r="V64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X64" s="13" t="s">
-        <v>58</v>
+      <c r="W64" s="13">
+        <v>0</v>
+      </c>
+      <c r="X64" s="13">
+        <v>1922</v>
       </c>
       <c r="Y64" s="13">
-        <v>0</v>
+        <v>10138</v>
       </c>
       <c r="Z64" s="13">
-        <v>1922</v>
+        <v>9084</v>
       </c>
       <c r="AA64" s="13">
-        <v>10138</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="13">
-        <v>9084</v>
+        <v>4525</v>
       </c>
       <c r="AC64" s="13">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="AD64" s="13">
-        <v>4525</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="13">
-        <v>274</v>
+        <v>1180</v>
       </c>
       <c r="AF64" s="13">
         <v>0</v>
       </c>
       <c r="AG64" s="13">
-        <v>1180</v>
+        <v>2682</v>
       </c>
       <c r="AH64" s="13">
         <v>0</v>
       </c>
       <c r="AI64" s="13">
-        <v>2682</v>
+        <v>1003</v>
       </c>
       <c r="AJ64" s="13">
         <v>0</v>
       </c>
       <c r="AK64" s="13">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="13">
         <v>0</v>
       </c>
       <c r="AM64" s="13">
-        <v>0</v>
+        <v>19253</v>
       </c>
       <c r="AN64" s="13">
         <v>0</v>
       </c>
       <c r="AO64" s="13">
-        <v>19253</v>
+        <v>1562</v>
       </c>
       <c r="AP64" s="13">
         <v>0</v>
       </c>
       <c r="AQ64" s="13">
-        <v>1562</v>
+        <v>5627</v>
       </c>
       <c r="AR64" s="13">
         <v>0</v>
       </c>
       <c r="AS64" s="13">
-        <v>5627</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="13">
         <v>0</v>
@@ -8341,19 +8341,19 @@
         <v>0</v>
       </c>
       <c r="AY64" s="13">
-        <v>0</v>
+        <v>3469</v>
       </c>
       <c r="AZ64" s="13">
-        <v>0</v>
+        <v>9593</v>
       </c>
       <c r="BA64" s="13">
-        <v>3469</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="13">
-        <v>9593</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>60</v>
       </c>
@@ -8415,47 +8415,47 @@
       <c r="V65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>58</v>
+      <c r="W65" s="11">
+        <v>10026</v>
+      </c>
+      <c r="X65" s="11">
+        <v>21659</v>
       </c>
       <c r="Y65" s="11">
-        <v>10026</v>
+        <v>41544</v>
       </c>
       <c r="Z65" s="11">
-        <v>21659</v>
+        <v>23187</v>
       </c>
       <c r="AA65" s="11">
-        <v>41544</v>
+        <v>12737</v>
       </c>
       <c r="AB65" s="11">
-        <v>23187</v>
+        <v>5098</v>
       </c>
       <c r="AC65" s="11">
-        <v>12737</v>
+        <v>3348</v>
       </c>
       <c r="AD65" s="11">
-        <v>5098</v>
+        <v>4731</v>
       </c>
       <c r="AE65" s="11">
-        <v>3348</v>
+        <v>17401</v>
       </c>
       <c r="AF65" s="11">
-        <v>4731</v>
+        <v>18485</v>
       </c>
       <c r="AG65" s="11">
-        <v>17401</v>
+        <v>5510</v>
       </c>
       <c r="AH65" s="11">
-        <v>18485</v>
+        <v>3088</v>
       </c>
       <c r="AI65" s="11">
-        <v>5510</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="11">
-        <v>3088</v>
+        <v>0</v>
       </c>
       <c r="AK65" s="11">
         <v>0</v>
@@ -8464,55 +8464,55 @@
         <v>0</v>
       </c>
       <c r="AM65" s="11">
-        <v>0</v>
+        <v>129569</v>
       </c>
       <c r="AN65" s="11">
-        <v>0</v>
+        <v>11845</v>
       </c>
       <c r="AO65" s="11">
-        <v>129569</v>
+        <v>3381</v>
       </c>
       <c r="AP65" s="11">
-        <v>11845</v>
+        <v>18409</v>
       </c>
       <c r="AQ65" s="11">
-        <v>3381</v>
+        <v>12238</v>
       </c>
       <c r="AR65" s="11">
-        <v>18409</v>
+        <v>3217</v>
       </c>
       <c r="AS65" s="11">
-        <v>12238</v>
+        <v>34288</v>
       </c>
       <c r="AT65" s="11">
-        <v>3217</v>
+        <v>0</v>
       </c>
       <c r="AU65" s="11">
-        <v>34288</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="11">
-        <v>0</v>
+        <v>6224</v>
       </c>
       <c r="AW65" s="11">
         <v>0</v>
       </c>
       <c r="AX65" s="11">
-        <v>6224</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="11">
-        <v>0</v>
+        <v>6240</v>
       </c>
       <c r="AZ65" s="11">
-        <v>0</v>
+        <v>6003</v>
       </c>
       <c r="BA65" s="11">
-        <v>6240</v>
+        <v>30726</v>
       </c>
       <c r="BB65" s="11">
-        <v>6003</v>
+        <v>10878</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>61</v>
       </c>
@@ -8574,104 +8574,104 @@
       <c r="V66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="13" t="s">
-        <v>58</v>
+      <c r="W66" s="13">
+        <v>448</v>
+      </c>
+      <c r="X66" s="13">
+        <v>106736</v>
       </c>
       <c r="Y66" s="13">
-        <v>448</v>
+        <v>174725</v>
       </c>
       <c r="Z66" s="13">
-        <v>106736</v>
+        <v>4588</v>
       </c>
       <c r="AA66" s="13">
-        <v>174725</v>
+        <v>12343</v>
       </c>
       <c r="AB66" s="13">
-        <v>4588</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="13">
-        <v>12343</v>
+        <v>93938</v>
       </c>
       <c r="AD66" s="13">
-        <v>0</v>
+        <v>4772</v>
       </c>
       <c r="AE66" s="13">
-        <v>93938</v>
+        <v>53846</v>
       </c>
       <c r="AF66" s="13">
-        <v>4772</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="13">
-        <v>53846</v>
+        <v>8893</v>
       </c>
       <c r="AH66" s="13">
-        <v>0</v>
+        <v>162342</v>
       </c>
       <c r="AI66" s="13">
-        <v>8893</v>
+        <v>285375</v>
       </c>
       <c r="AJ66" s="13">
-        <v>162342</v>
+        <v>2484</v>
       </c>
       <c r="AK66" s="13">
-        <v>285375</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="13">
-        <v>2484</v>
+        <v>0</v>
       </c>
       <c r="AM66" s="13">
-        <v>0</v>
+        <v>12129</v>
       </c>
       <c r="AN66" s="13">
-        <v>0</v>
+        <v>22072</v>
       </c>
       <c r="AO66" s="13">
-        <v>12129</v>
+        <v>21269</v>
       </c>
       <c r="AP66" s="13">
-        <v>22072</v>
+        <v>65795</v>
       </c>
       <c r="AQ66" s="13">
-        <v>21269</v>
+        <v>47997</v>
       </c>
       <c r="AR66" s="13">
-        <v>65795</v>
+        <v>0</v>
       </c>
       <c r="AS66" s="13">
-        <v>47997</v>
+        <v>35200</v>
       </c>
       <c r="AT66" s="13">
         <v>0</v>
       </c>
       <c r="AU66" s="13">
-        <v>35200</v>
+        <v>3669</v>
       </c>
       <c r="AV66" s="13">
         <v>0</v>
       </c>
       <c r="AW66" s="13">
-        <v>3669</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="13">
         <v>0</v>
       </c>
       <c r="AY66" s="13">
-        <v>0</v>
+        <v>42532</v>
       </c>
       <c r="AZ66" s="13">
-        <v>0</v>
+        <v>38703</v>
       </c>
       <c r="BA66" s="13">
-        <v>42532</v>
+        <v>30822</v>
       </c>
       <c r="BB66" s="13">
-        <v>38703</v>
+        <v>41584</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>74</v>
       </c>
@@ -8732,103 +8732,103 @@
         <v>0</v>
       </c>
       <c r="W67" s="15">
-        <v>0</v>
+        <v>10474</v>
       </c>
       <c r="X67" s="15">
-        <v>0</v>
+        <v>130317</v>
       </c>
       <c r="Y67" s="15">
-        <v>10474</v>
+        <v>232219</v>
       </c>
       <c r="Z67" s="15">
-        <v>130317</v>
+        <v>40790</v>
       </c>
       <c r="AA67" s="15">
-        <v>232219</v>
+        <v>25080</v>
       </c>
       <c r="AB67" s="15">
-        <v>40790</v>
+        <v>9623</v>
       </c>
       <c r="AC67" s="15">
-        <v>25080</v>
+        <v>97560</v>
       </c>
       <c r="AD67" s="15">
-        <v>9623</v>
+        <v>9503</v>
       </c>
       <c r="AE67" s="15">
-        <v>97560</v>
+        <v>73439</v>
       </c>
       <c r="AF67" s="15">
-        <v>9503</v>
+        <v>18485</v>
       </c>
       <c r="AG67" s="15">
-        <v>73439</v>
+        <v>17085</v>
       </c>
       <c r="AH67" s="15">
-        <v>18485</v>
+        <v>165430</v>
       </c>
       <c r="AI67" s="15">
-        <v>17085</v>
+        <v>286378</v>
       </c>
       <c r="AJ67" s="15">
-        <v>165430</v>
+        <v>2484</v>
       </c>
       <c r="AK67" s="15">
-        <v>286378</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="15">
-        <v>2484</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="15">
-        <v>0</v>
+        <v>160951</v>
       </c>
       <c r="AN67" s="15">
-        <v>0</v>
+        <v>33917</v>
       </c>
       <c r="AO67" s="15">
-        <v>160951</v>
+        <v>30898</v>
       </c>
       <c r="AP67" s="15">
-        <v>33917</v>
+        <v>84204</v>
       </c>
       <c r="AQ67" s="15">
-        <v>30898</v>
+        <v>65862</v>
       </c>
       <c r="AR67" s="15">
-        <v>84204</v>
+        <v>3217</v>
       </c>
       <c r="AS67" s="15">
-        <v>65862</v>
+        <v>69488</v>
       </c>
       <c r="AT67" s="15">
-        <v>3217</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="15">
-        <v>69488</v>
+        <v>3669</v>
       </c>
       <c r="AV67" s="15">
-        <v>0</v>
+        <v>6224</v>
       </c>
       <c r="AW67" s="15">
-        <v>3669</v>
+        <v>0</v>
       </c>
       <c r="AX67" s="15">
-        <v>6224</v>
+        <v>0</v>
       </c>
       <c r="AY67" s="15">
-        <v>0</v>
+        <v>53686</v>
       </c>
       <c r="AZ67" s="15">
-        <v>0</v>
+        <v>65868</v>
       </c>
       <c r="BA67" s="15">
-        <v>53686</v>
+        <v>63159</v>
       </c>
       <c r="BB67" s="15">
-        <v>65868</v>
+        <v>54611</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>81</v>
       </c>
@@ -8885,7 +8885,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>66</v>
       </c>
@@ -8947,39 +8947,39 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>37563</v>
+      </c>
+      <c r="X69" s="11">
+        <v>15636</v>
       </c>
       <c r="Y69" s="11">
-        <v>37563</v>
+        <v>36184</v>
       </c>
       <c r="Z69" s="11">
-        <v>15636</v>
+        <v>14349</v>
       </c>
       <c r="AA69" s="11">
-        <v>36184</v>
+        <v>20172</v>
       </c>
       <c r="AB69" s="11">
-        <v>14349</v>
+        <v>27892</v>
       </c>
       <c r="AC69" s="11">
-        <v>20172</v>
+        <v>35487</v>
       </c>
       <c r="AD69" s="11">
-        <v>27892</v>
+        <v>13113</v>
       </c>
       <c r="AE69" s="11">
-        <v>35487</v>
-      </c>
-      <c r="AF69" s="11">
-        <v>13113</v>
-      </c>
-      <c r="AG69" s="11">
         <v>26133</v>
       </c>
+      <c r="AF69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG69" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH69" s="11" t="s">
         <v>58</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>67</v>
       </c>
@@ -9133,77 +9133,77 @@
       <c r="AE70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG70" s="13" t="s">
-        <v>58</v>
+      <c r="AF70" s="13">
+        <v>16835</v>
+      </c>
+      <c r="AG70" s="13">
+        <v>25555</v>
       </c>
       <c r="AH70" s="13">
-        <v>16835</v>
+        <v>23118</v>
       </c>
       <c r="AI70" s="13">
-        <v>25555</v>
+        <v>27026</v>
       </c>
       <c r="AJ70" s="13">
-        <v>23118</v>
+        <v>42487</v>
       </c>
       <c r="AK70" s="13">
-        <v>27026</v>
+        <v>34406</v>
       </c>
       <c r="AL70" s="13">
-        <v>42487</v>
+        <v>20814</v>
       </c>
       <c r="AM70" s="13">
-        <v>34406</v>
+        <v>30599</v>
       </c>
       <c r="AN70" s="13">
-        <v>20814</v>
+        <v>22294</v>
       </c>
       <c r="AO70" s="13">
-        <v>30599</v>
+        <v>31228</v>
       </c>
       <c r="AP70" s="13">
-        <v>22294</v>
+        <v>26866</v>
       </c>
       <c r="AQ70" s="13">
-        <v>31228</v>
+        <v>14049</v>
       </c>
       <c r="AR70" s="13">
-        <v>26866</v>
+        <v>6434</v>
       </c>
       <c r="AS70" s="13">
-        <v>14049</v>
+        <v>27838</v>
       </c>
       <c r="AT70" s="13">
-        <v>6434</v>
+        <v>49216</v>
       </c>
       <c r="AU70" s="13">
-        <v>27838</v>
+        <v>29314</v>
       </c>
       <c r="AV70" s="13">
-        <v>49216</v>
+        <v>30759</v>
       </c>
       <c r="AW70" s="13">
-        <v>29314</v>
+        <v>20870</v>
       </c>
       <c r="AX70" s="13">
-        <v>30759</v>
+        <v>30697</v>
       </c>
       <c r="AY70" s="13">
-        <v>20870</v>
+        <v>31248</v>
       </c>
       <c r="AZ70" s="13">
-        <v>30697</v>
+        <v>37941</v>
       </c>
       <c r="BA70" s="13">
-        <v>31248</v>
+        <v>19923</v>
       </c>
       <c r="BB70" s="13">
-        <v>37941</v>
+        <v>41113</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
         <v>68</v>
       </c>
@@ -9265,104 +9265,104 @@
       <c r="V71" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" s="15" t="s">
-        <v>58</v>
+      <c r="W71" s="15">
+        <v>37563</v>
+      </c>
+      <c r="X71" s="15">
+        <v>15636</v>
       </c>
       <c r="Y71" s="15">
-        <v>37563</v>
+        <v>36184</v>
       </c>
       <c r="Z71" s="15">
-        <v>15636</v>
+        <v>14349</v>
       </c>
       <c r="AA71" s="15">
-        <v>36184</v>
+        <v>20172</v>
       </c>
       <c r="AB71" s="15">
-        <v>14349</v>
+        <v>27892</v>
       </c>
       <c r="AC71" s="15">
-        <v>20172</v>
+        <v>35487</v>
       </c>
       <c r="AD71" s="15">
-        <v>27892</v>
+        <v>13113</v>
       </c>
       <c r="AE71" s="15">
-        <v>35487</v>
+        <v>26133</v>
       </c>
       <c r="AF71" s="15">
-        <v>13113</v>
+        <v>16835</v>
       </c>
       <c r="AG71" s="15">
-        <v>26133</v>
+        <v>25555</v>
       </c>
       <c r="AH71" s="15">
-        <v>16835</v>
+        <v>23118</v>
       </c>
       <c r="AI71" s="15">
-        <v>25555</v>
+        <v>27026</v>
       </c>
       <c r="AJ71" s="15">
-        <v>23118</v>
+        <v>42487</v>
       </c>
       <c r="AK71" s="15">
-        <v>27026</v>
+        <v>34406</v>
       </c>
       <c r="AL71" s="15">
-        <v>42487</v>
+        <v>20814</v>
       </c>
       <c r="AM71" s="15">
-        <v>34406</v>
+        <v>30599</v>
       </c>
       <c r="AN71" s="15">
-        <v>20814</v>
+        <v>22294</v>
       </c>
       <c r="AO71" s="15">
-        <v>30599</v>
+        <v>31228</v>
       </c>
       <c r="AP71" s="15">
-        <v>22294</v>
+        <v>26866</v>
       </c>
       <c r="AQ71" s="15">
-        <v>31228</v>
+        <v>14049</v>
       </c>
       <c r="AR71" s="15">
-        <v>26866</v>
+        <v>6434</v>
       </c>
       <c r="AS71" s="15">
-        <v>14049</v>
+        <v>27838</v>
       </c>
       <c r="AT71" s="15">
-        <v>6434</v>
+        <v>49216</v>
       </c>
       <c r="AU71" s="15">
-        <v>27838</v>
+        <v>29314</v>
       </c>
       <c r="AV71" s="15">
-        <v>49216</v>
+        <v>30759</v>
       </c>
       <c r="AW71" s="15">
-        <v>29314</v>
+        <v>20870</v>
       </c>
       <c r="AX71" s="15">
-        <v>30759</v>
+        <v>30697</v>
       </c>
       <c r="AY71" s="15">
-        <v>20870</v>
+        <v>31248</v>
       </c>
       <c r="AZ71" s="15">
-        <v>30697</v>
+        <v>37941</v>
       </c>
       <c r="BA71" s="15">
-        <v>31248</v>
+        <v>19923</v>
       </c>
       <c r="BB71" s="15">
-        <v>37941</v>
+        <v>41113</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="18" t="s">
         <v>82</v>
       </c>
@@ -9419,7 +9419,7 @@
       <c r="BA72" s="19"/>
       <c r="BB72" s="19"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>76</v>
       </c>
@@ -9481,11 +9481,11 @@
       <c r="V73" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W73" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X73" s="15" t="s">
-        <v>58</v>
+      <c r="W73" s="15">
+        <v>0</v>
+      </c>
+      <c r="X73" s="15">
+        <v>0</v>
       </c>
       <c r="Y73" s="15">
         <v>0</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>83</v>
       </c>
@@ -9635,7 +9635,7 @@
       <c r="BA74" s="9"/>
       <c r="BB74" s="9"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>84</v>
       </c>
@@ -9697,11 +9697,11 @@
       <c r="V75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X75" s="11" t="s">
-        <v>58</v>
+      <c r="W75" s="11">
+        <v>0</v>
+      </c>
+      <c r="X75" s="11">
+        <v>0</v>
       </c>
       <c r="Y75" s="11">
         <v>0</v>
@@ -9773,28 +9773,28 @@
         <v>0</v>
       </c>
       <c r="AV75" s="11">
-        <v>0</v>
+        <v>-127418</v>
       </c>
       <c r="AW75" s="11">
-        <v>-593413</v>
+        <v>-103821</v>
       </c>
       <c r="AX75" s="11">
-        <v>-127418</v>
+        <v>-65604</v>
       </c>
       <c r="AY75" s="11">
-        <v>-103821</v>
+        <v>-79645</v>
       </c>
       <c r="AZ75" s="11">
-        <v>-65604</v>
+        <v>-81593</v>
       </c>
       <c r="BA75" s="11">
-        <v>-79645</v>
+        <v>-105102</v>
       </c>
       <c r="BB75" s="11">
-        <v>-81593</v>
+        <v>-47133</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
         <v>69</v>
       </c>
@@ -9855,103 +9855,103 @@
         <v>0</v>
       </c>
       <c r="W76" s="17">
-        <v>0</v>
+        <v>863484</v>
       </c>
       <c r="X76" s="17">
-        <v>0</v>
+        <v>968974</v>
       </c>
       <c r="Y76" s="17">
-        <v>863484</v>
+        <v>932560</v>
       </c>
       <c r="Z76" s="17">
-        <v>968974</v>
+        <v>920578</v>
       </c>
       <c r="AA76" s="17">
-        <v>932560</v>
+        <v>1009226</v>
       </c>
       <c r="AB76" s="17">
-        <v>920578</v>
+        <v>973625</v>
       </c>
       <c r="AC76" s="17">
-        <v>1009226</v>
+        <v>950443</v>
       </c>
       <c r="AD76" s="17">
-        <v>973625</v>
+        <v>965883</v>
       </c>
       <c r="AE76" s="17">
-        <v>950443</v>
+        <v>438678</v>
       </c>
       <c r="AF76" s="17">
-        <v>965883</v>
+        <v>963823</v>
       </c>
       <c r="AG76" s="17">
-        <v>438678</v>
+        <v>1030238</v>
       </c>
       <c r="AH76" s="17">
-        <v>963823</v>
+        <v>1200385</v>
       </c>
       <c r="AI76" s="17">
-        <v>1030238</v>
+        <v>2240801</v>
       </c>
       <c r="AJ76" s="17">
-        <v>1200385</v>
+        <v>3403953</v>
       </c>
       <c r="AK76" s="17">
-        <v>2240801</v>
+        <v>2810073</v>
       </c>
       <c r="AL76" s="17">
-        <v>3403953</v>
+        <v>2250170</v>
       </c>
       <c r="AM76" s="17">
-        <v>2810073</v>
+        <v>2221823</v>
       </c>
       <c r="AN76" s="17">
-        <v>2250170</v>
+        <v>1700528</v>
       </c>
       <c r="AO76" s="17">
-        <v>2221823</v>
+        <v>1453803</v>
       </c>
       <c r="AP76" s="17">
-        <v>1700528</v>
+        <v>1402405</v>
       </c>
       <c r="AQ76" s="17">
-        <v>1453803</v>
+        <v>493736</v>
       </c>
       <c r="AR76" s="17">
-        <v>1402405</v>
+        <v>1530676</v>
       </c>
       <c r="AS76" s="17">
-        <v>493736</v>
+        <v>2098764</v>
       </c>
       <c r="AT76" s="17">
-        <v>1530676</v>
+        <v>2000105</v>
       </c>
       <c r="AU76" s="17">
-        <v>2098764</v>
+        <v>1716043</v>
       </c>
       <c r="AV76" s="17">
-        <v>2000105</v>
+        <v>2337824</v>
       </c>
       <c r="AW76" s="17">
-        <v>1716043</v>
+        <v>2169737</v>
       </c>
       <c r="AX76" s="17">
-        <v>2337824</v>
+        <v>2187010</v>
       </c>
       <c r="AY76" s="17">
-        <v>2169737</v>
+        <v>2432869</v>
       </c>
       <c r="AZ76" s="17">
-        <v>2187010</v>
+        <v>2407362</v>
       </c>
       <c r="BA76" s="17">
-        <v>2432869</v>
+        <v>2433262</v>
       </c>
       <c r="BB76" s="17">
-        <v>2407362</v>
+        <v>2511510</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -10006,7 +10006,7 @@
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -10061,7 +10061,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -10116,7 +10116,7 @@
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
     </row>
-    <row r="80" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>85</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -10328,7 +10328,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>86</v>
       </c>
@@ -10385,7 +10385,7 @@
       <c r="BA82" s="9"/>
       <c r="BB82" s="9"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>56</v>
       </c>
@@ -10447,104 +10447,104 @@
       <c r="V83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="11" t="s">
-        <v>58</v>
+      <c r="W83" s="11">
+        <v>77764</v>
+      </c>
+      <c r="X83" s="11">
+        <v>77933</v>
       </c>
       <c r="Y83" s="11">
-        <v>77764</v>
+        <v>78237</v>
       </c>
       <c r="Z83" s="11">
-        <v>77933</v>
+        <v>91742</v>
       </c>
       <c r="AA83" s="11">
-        <v>78237</v>
+        <v>93402</v>
       </c>
       <c r="AB83" s="11">
-        <v>91742</v>
+        <v>107151</v>
       </c>
       <c r="AC83" s="11">
-        <v>93402</v>
+        <v>170456</v>
       </c>
       <c r="AD83" s="11">
-        <v>107151</v>
+        <v>134030</v>
       </c>
       <c r="AE83" s="11">
-        <v>170456</v>
+        <v>1628</v>
       </c>
       <c r="AF83" s="11">
-        <v>134030</v>
+        <v>109888</v>
       </c>
       <c r="AG83" s="11">
-        <v>1628</v>
+        <v>99615</v>
       </c>
       <c r="AH83" s="11">
-        <v>109888</v>
+        <v>136295</v>
       </c>
       <c r="AI83" s="11">
-        <v>99615</v>
+        <v>118729</v>
       </c>
       <c r="AJ83" s="11">
-        <v>136295</v>
+        <v>114352</v>
       </c>
       <c r="AK83" s="11">
-        <v>118729</v>
+        <v>120793</v>
       </c>
       <c r="AL83" s="11">
-        <v>114352</v>
+        <v>96822</v>
       </c>
       <c r="AM83" s="11">
-        <v>120793</v>
+        <v>93823</v>
       </c>
       <c r="AN83" s="11">
-        <v>96822</v>
+        <v>94256</v>
       </c>
       <c r="AO83" s="11">
-        <v>93823</v>
+        <v>103628</v>
       </c>
       <c r="AP83" s="11">
-        <v>94256</v>
+        <v>89190</v>
       </c>
       <c r="AQ83" s="11">
-        <v>103628</v>
+        <v>153725</v>
       </c>
       <c r="AR83" s="11">
-        <v>89190</v>
+        <v>97238</v>
       </c>
       <c r="AS83" s="11">
-        <v>153725</v>
+        <v>112329</v>
       </c>
       <c r="AT83" s="11">
-        <v>97238</v>
+        <v>105700</v>
       </c>
       <c r="AU83" s="11">
-        <v>112329</v>
+        <v>121701</v>
       </c>
       <c r="AV83" s="11">
-        <v>105700</v>
+        <v>168415</v>
       </c>
       <c r="AW83" s="11">
-        <v>140208</v>
+        <v>179182</v>
       </c>
       <c r="AX83" s="11">
-        <v>168415</v>
+        <v>192139</v>
       </c>
       <c r="AY83" s="11">
-        <v>179182</v>
+        <v>207845</v>
       </c>
       <c r="AZ83" s="11">
-        <v>192139</v>
+        <v>189089</v>
       </c>
       <c r="BA83" s="11">
-        <v>207845</v>
+        <v>229428</v>
       </c>
       <c r="BB83" s="11">
-        <v>189089</v>
+        <v>228601</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>59</v>
       </c>
@@ -10606,104 +10606,104 @@
       <c r="V84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X84" s="13" t="s">
-        <v>58</v>
+      <c r="W84" s="13">
+        <v>1798</v>
+      </c>
+      <c r="X84" s="13">
+        <v>1599</v>
       </c>
       <c r="Y84" s="13">
-        <v>1798</v>
+        <v>2085</v>
       </c>
       <c r="Z84" s="13">
-        <v>1599</v>
+        <v>2662</v>
       </c>
       <c r="AA84" s="13">
-        <v>2085</v>
+        <v>2638</v>
       </c>
       <c r="AB84" s="13">
-        <v>2662</v>
+        <v>3177</v>
       </c>
       <c r="AC84" s="13">
-        <v>2638</v>
+        <v>2967</v>
       </c>
       <c r="AD84" s="13">
-        <v>3177</v>
+        <v>3089</v>
       </c>
       <c r="AE84" s="13">
-        <v>2967</v>
+        <v>761</v>
       </c>
       <c r="AF84" s="13">
-        <v>3089</v>
+        <v>2896</v>
       </c>
       <c r="AG84" s="13">
-        <v>761</v>
+        <v>3063</v>
       </c>
       <c r="AH84" s="13">
-        <v>2896</v>
+        <v>3400</v>
       </c>
       <c r="AI84" s="13">
-        <v>3063</v>
+        <v>2912</v>
       </c>
       <c r="AJ84" s="13">
-        <v>3400</v>
+        <v>3319</v>
       </c>
       <c r="AK84" s="13">
-        <v>2912</v>
+        <v>2869</v>
       </c>
       <c r="AL84" s="13">
-        <v>3319</v>
+        <v>3690</v>
       </c>
       <c r="AM84" s="13">
-        <v>2869</v>
+        <v>3247</v>
       </c>
       <c r="AN84" s="13">
-        <v>3690</v>
+        <v>3886</v>
       </c>
       <c r="AO84" s="13">
-        <v>3247</v>
+        <v>3464</v>
       </c>
       <c r="AP84" s="13">
-        <v>3886</v>
+        <v>3671</v>
       </c>
       <c r="AQ84" s="13">
-        <v>3464</v>
+        <v>-1996</v>
       </c>
       <c r="AR84" s="13">
-        <v>3671</v>
+        <v>4391</v>
       </c>
       <c r="AS84" s="13">
-        <v>-1996</v>
+        <v>3618</v>
       </c>
       <c r="AT84" s="13">
-        <v>4391</v>
+        <v>3501</v>
       </c>
       <c r="AU84" s="13">
-        <v>3618</v>
+        <v>3582</v>
       </c>
       <c r="AV84" s="13">
-        <v>3501</v>
+        <v>7495</v>
       </c>
       <c r="AW84" s="13">
-        <v>4668</v>
+        <v>6459</v>
       </c>
       <c r="AX84" s="13">
-        <v>7495</v>
+        <v>6452</v>
       </c>
       <c r="AY84" s="13">
-        <v>6459</v>
+        <v>6110</v>
       </c>
       <c r="AZ84" s="13">
-        <v>6452</v>
+        <v>7465</v>
       </c>
       <c r="BA84" s="13">
-        <v>6110</v>
+        <v>6283</v>
       </c>
       <c r="BB84" s="13">
-        <v>7465</v>
+        <v>7867</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>60</v>
       </c>
@@ -10765,104 +10765,104 @@
       <c r="V85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="11" t="s">
-        <v>58</v>
+      <c r="W85" s="11">
+        <v>34041</v>
+      </c>
+      <c r="X85" s="11">
+        <v>32914</v>
       </c>
       <c r="Y85" s="11">
-        <v>34041</v>
+        <v>36589</v>
       </c>
       <c r="Z85" s="11">
-        <v>32914</v>
+        <v>30789</v>
       </c>
       <c r="AA85" s="11">
-        <v>36589</v>
+        <v>33009</v>
       </c>
       <c r="AB85" s="11">
-        <v>30789</v>
+        <v>41148</v>
       </c>
       <c r="AC85" s="11">
-        <v>33009</v>
+        <v>44083</v>
       </c>
       <c r="AD85" s="11">
-        <v>41148</v>
+        <v>37451</v>
       </c>
       <c r="AE85" s="11">
-        <v>44083</v>
+        <v>63782</v>
       </c>
       <c r="AF85" s="11">
-        <v>37451</v>
+        <v>50149</v>
       </c>
       <c r="AG85" s="11">
-        <v>63782</v>
+        <v>34296</v>
       </c>
       <c r="AH85" s="11">
-        <v>50149</v>
+        <v>44829</v>
       </c>
       <c r="AI85" s="11">
-        <v>34296</v>
+        <v>92682</v>
       </c>
       <c r="AJ85" s="11">
-        <v>44829</v>
+        <v>162521</v>
       </c>
       <c r="AK85" s="11">
-        <v>92682</v>
+        <v>161951</v>
       </c>
       <c r="AL85" s="11">
-        <v>162521</v>
+        <v>78714</v>
       </c>
       <c r="AM85" s="11">
-        <v>161951</v>
+        <v>76700</v>
       </c>
       <c r="AN85" s="11">
-        <v>78714</v>
+        <v>49091</v>
       </c>
       <c r="AO85" s="11">
-        <v>76700</v>
+        <v>50869</v>
       </c>
       <c r="AP85" s="11">
-        <v>49091</v>
+        <v>47483</v>
       </c>
       <c r="AQ85" s="11">
-        <v>50869</v>
+        <v>60028</v>
       </c>
       <c r="AR85" s="11">
-        <v>47483</v>
+        <v>76398</v>
       </c>
       <c r="AS85" s="11">
-        <v>60028</v>
+        <v>62405</v>
       </c>
       <c r="AT85" s="11">
-        <v>76398</v>
+        <v>75346</v>
       </c>
       <c r="AU85" s="11">
-        <v>62405</v>
+        <v>60274</v>
       </c>
       <c r="AV85" s="11">
-        <v>75346</v>
+        <v>103789</v>
       </c>
       <c r="AW85" s="11">
-        <v>61180</v>
+        <v>106696</v>
       </c>
       <c r="AX85" s="11">
-        <v>103789</v>
+        <v>62604</v>
       </c>
       <c r="AY85" s="11">
-        <v>106696</v>
+        <v>76818</v>
       </c>
       <c r="AZ85" s="11">
-        <v>62604</v>
+        <v>98681</v>
       </c>
       <c r="BA85" s="11">
-        <v>76818</v>
+        <v>98200</v>
       </c>
       <c r="BB85" s="11">
-        <v>98681</v>
+        <v>125295</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>61</v>
       </c>
@@ -10924,104 +10924,104 @@
       <c r="V86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X86" s="13" t="s">
-        <v>58</v>
+      <c r="W86" s="13">
+        <v>19347</v>
+      </c>
+      <c r="X86" s="13">
+        <v>21996</v>
       </c>
       <c r="Y86" s="13">
-        <v>19347</v>
+        <v>14929</v>
       </c>
       <c r="Z86" s="13">
-        <v>21996</v>
+        <v>16139</v>
       </c>
       <c r="AA86" s="13">
-        <v>14929</v>
+        <v>19281</v>
       </c>
       <c r="AB86" s="13">
-        <v>16139</v>
+        <v>19244</v>
       </c>
       <c r="AC86" s="13">
-        <v>19281</v>
+        <v>19862</v>
       </c>
       <c r="AD86" s="13">
-        <v>19244</v>
+        <v>21872</v>
       </c>
       <c r="AE86" s="13">
-        <v>19862</v>
+        <v>33665</v>
       </c>
       <c r="AF86" s="13">
-        <v>21872</v>
+        <v>31877</v>
       </c>
       <c r="AG86" s="13">
-        <v>33665</v>
+        <v>32345</v>
       </c>
       <c r="AH86" s="13">
-        <v>31877</v>
+        <v>35113</v>
       </c>
       <c r="AI86" s="13">
-        <v>32345</v>
+        <v>30008</v>
       </c>
       <c r="AJ86" s="13">
-        <v>35113</v>
+        <v>46726</v>
       </c>
       <c r="AK86" s="13">
-        <v>30008</v>
+        <v>28370</v>
       </c>
       <c r="AL86" s="13">
-        <v>46726</v>
+        <v>35891</v>
       </c>
       <c r="AM86" s="13">
-        <v>28370</v>
+        <v>22162</v>
       </c>
       <c r="AN86" s="13">
-        <v>35891</v>
+        <v>33155</v>
       </c>
       <c r="AO86" s="13">
-        <v>22162</v>
+        <v>26924</v>
       </c>
       <c r="AP86" s="13">
-        <v>33155</v>
+        <v>32970</v>
       </c>
       <c r="AQ86" s="13">
-        <v>26924</v>
+        <v>22633</v>
       </c>
       <c r="AR86" s="13">
-        <v>32970</v>
+        <v>30890</v>
       </c>
       <c r="AS86" s="13">
-        <v>22633</v>
+        <v>36966</v>
       </c>
       <c r="AT86" s="13">
-        <v>30890</v>
+        <v>44524</v>
       </c>
       <c r="AU86" s="13">
-        <v>36966</v>
+        <v>47779</v>
       </c>
       <c r="AV86" s="13">
-        <v>44524</v>
+        <v>98873</v>
       </c>
       <c r="AW86" s="13">
-        <v>47779</v>
+        <v>52576</v>
       </c>
       <c r="AX86" s="13">
-        <v>98873</v>
+        <v>53804</v>
       </c>
       <c r="AY86" s="13">
-        <v>52576</v>
+        <v>81670</v>
       </c>
       <c r="AZ86" s="13">
-        <v>53804</v>
+        <v>71861</v>
       </c>
       <c r="BA86" s="13">
-        <v>81670</v>
+        <v>113474</v>
       </c>
       <c r="BB86" s="13">
-        <v>71861</v>
+        <v>99094</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>88</v>
       </c>
@@ -11078,7 +11078,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>56</v>
       </c>
@@ -11146,32 +11146,32 @@
       <c r="X88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA88" s="11">
+      <c r="Y88" s="11">
         <v>90439</v>
       </c>
-      <c r="AB88" s="11">
+      <c r="Z88" s="11">
         <v>89479</v>
       </c>
+      <c r="AA88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB88" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AC88" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AD88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE88" s="11" t="s">
-        <v>58</v>
+      <c r="AE88" s="11">
+        <v>101200</v>
       </c>
       <c r="AF88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG88" s="11">
-        <v>101200</v>
+      <c r="AG88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH88" s="11" t="s">
         <v>58</v>
@@ -11194,14 +11194,14 @@
       <c r="AN88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO88" s="11" t="s">
-        <v>58</v>
+      <c r="AO88" s="11">
+        <v>104133</v>
       </c>
       <c r="AP88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ88" s="11">
-        <v>104133</v>
+      <c r="AQ88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR88" s="11" t="s">
         <v>58</v>
@@ -11224,20 +11224,20 @@
       <c r="AX88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ88" s="11" t="s">
-        <v>58</v>
+      <c r="AY88" s="11">
+        <v>144500</v>
+      </c>
+      <c r="AZ88" s="11">
+        <v>132977</v>
       </c>
       <c r="BA88" s="11">
-        <v>144500</v>
+        <v>107400</v>
       </c>
       <c r="BB88" s="11">
-        <v>132977</v>
+        <v>107450</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>59</v>
       </c>
@@ -11302,71 +11302,71 @@
       <c r="W89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y89" s="13" t="s">
-        <v>58</v>
+      <c r="X89" s="13">
+        <v>3546</v>
+      </c>
+      <c r="Y89" s="13">
+        <v>6878</v>
       </c>
       <c r="Z89" s="13">
-        <v>3546</v>
-      </c>
-      <c r="AA89" s="13">
-        <v>6878</v>
+        <v>1781</v>
+      </c>
+      <c r="AA89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB89" s="13">
-        <v>1781</v>
-      </c>
-      <c r="AC89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD89" s="13">
         <v>6465</v>
       </c>
+      <c r="AC89" s="13">
+        <v>4194</v>
+      </c>
+      <c r="AD89" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE89" s="13">
-        <v>4194</v>
+        <v>120507</v>
       </c>
       <c r="AF89" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AG89" s="13">
-        <v>120507</v>
+        <v>9579</v>
       </c>
       <c r="AH89" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AI89" s="13">
-        <v>9579</v>
+        <v>2870</v>
       </c>
       <c r="AJ89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK89" s="13">
-        <v>2870</v>
+      <c r="AK89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM89" s="13" t="s">
-        <v>58</v>
+      <c r="AM89" s="13">
+        <v>3931</v>
       </c>
       <c r="AN89" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AO89" s="13">
-        <v>3931</v>
+        <v>5579</v>
       </c>
       <c r="AP89" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AQ89" s="13">
-        <v>5579</v>
+        <v>5517</v>
       </c>
       <c r="AR89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS89" s="13">
-        <v>5517</v>
+      <c r="AS89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT89" s="13" t="s">
         <v>58</v>
@@ -11383,20 +11383,20 @@
       <c r="AX89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA89" s="13">
+      <c r="AY89" s="13">
         <v>6472</v>
       </c>
-      <c r="BB89" s="13">
+      <c r="AZ89" s="13">
         <v>5167</v>
       </c>
+      <c r="BA89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB89" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>60</v>
       </c>
@@ -11458,104 +11458,104 @@
       <c r="V90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X90" s="11" t="s">
-        <v>58</v>
+      <c r="W90" s="11">
+        <v>132001</v>
+      </c>
+      <c r="X90" s="11">
+        <v>34976</v>
       </c>
       <c r="Y90" s="11">
-        <v>132001</v>
+        <v>87875</v>
       </c>
       <c r="Z90" s="11">
-        <v>34976</v>
+        <v>42115</v>
       </c>
       <c r="AA90" s="11">
-        <v>87875</v>
+        <v>116613</v>
       </c>
       <c r="AB90" s="11">
-        <v>42115</v>
+        <v>74615</v>
       </c>
       <c r="AC90" s="11">
-        <v>116613</v>
+        <v>28144</v>
       </c>
       <c r="AD90" s="11">
-        <v>74615</v>
+        <v>48109</v>
       </c>
       <c r="AE90" s="11">
-        <v>28144</v>
+        <v>30114</v>
       </c>
       <c r="AF90" s="11">
-        <v>48109</v>
+        <v>986393</v>
       </c>
       <c r="AG90" s="11">
-        <v>30114</v>
+        <v>42074</v>
       </c>
       <c r="AH90" s="11">
-        <v>986393</v>
-      </c>
-      <c r="AI90" s="11">
-        <v>42074</v>
-      </c>
-      <c r="AJ90" s="11">
         <v>29981</v>
       </c>
+      <c r="AI90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AK90" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AL90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN90" s="11" t="s">
-        <v>58</v>
+      <c r="AM90" s="11">
+        <v>359533</v>
+      </c>
+      <c r="AN90" s="11">
+        <v>192903</v>
       </c>
       <c r="AO90" s="11">
-        <v>359533</v>
+        <v>142418</v>
       </c>
       <c r="AP90" s="11">
-        <v>192903</v>
+        <v>122727</v>
       </c>
       <c r="AQ90" s="11">
-        <v>142418</v>
+        <v>252590</v>
       </c>
       <c r="AR90" s="11">
-        <v>122727</v>
+        <v>35744</v>
       </c>
       <c r="AS90" s="11">
-        <v>252590</v>
-      </c>
-      <c r="AT90" s="11">
-        <v>35744</v>
-      </c>
-      <c r="AU90" s="11">
         <v>476123</v>
       </c>
-      <c r="AV90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW90" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX90" s="11">
+      <c r="AT90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV90" s="11">
         <v>550796</v>
       </c>
-      <c r="AY90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ90" s="11" t="s">
-        <v>58</v>
+      <c r="AW90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY90" s="11">
+        <v>20815</v>
+      </c>
+      <c r="AZ90" s="11">
+        <v>40020</v>
       </c>
       <c r="BA90" s="11">
-        <v>20815</v>
+        <v>80302</v>
       </c>
       <c r="BB90" s="11">
-        <v>40020</v>
+        <v>31145</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>61</v>
       </c>
@@ -11617,104 +11617,104 @@
       <c r="V91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X91" s="13" t="s">
-        <v>58</v>
+      <c r="W91" s="13">
+        <v>223553</v>
+      </c>
+      <c r="X91" s="13">
+        <v>95186</v>
       </c>
       <c r="Y91" s="13">
-        <v>223553</v>
+        <v>62944</v>
       </c>
       <c r="Z91" s="13">
-        <v>95186</v>
+        <v>4599</v>
       </c>
       <c r="AA91" s="13">
-        <v>62944</v>
-      </c>
-      <c r="AB91" s="13">
-        <v>4599</v>
+        <v>112345</v>
+      </c>
+      <c r="AB91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC91" s="13">
-        <v>112345</v>
-      </c>
-      <c r="AD91" s="13" t="s">
-        <v>58</v>
+        <v>93710</v>
+      </c>
+      <c r="AD91" s="13">
+        <v>95440</v>
       </c>
       <c r="AE91" s="13">
-        <v>93710</v>
-      </c>
-      <c r="AF91" s="13">
-        <v>95440</v>
+        <v>97003</v>
+      </c>
+      <c r="AF91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG91" s="13">
-        <v>97003</v>
-      </c>
-      <c r="AH91" s="13" t="s">
-        <v>58</v>
+        <v>98811</v>
+      </c>
+      <c r="AH91" s="13">
+        <v>154769</v>
       </c>
       <c r="AI91" s="13">
-        <v>98811</v>
+        <v>126471</v>
       </c>
       <c r="AJ91" s="13">
-        <v>154769</v>
-      </c>
-      <c r="AK91" s="13">
-        <v>126471</v>
-      </c>
-      <c r="AL91" s="13">
         <v>227473</v>
       </c>
-      <c r="AM91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN91" s="13" t="s">
-        <v>58</v>
+      <c r="AK91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM91" s="13">
+        <v>340664</v>
+      </c>
+      <c r="AN91" s="13">
+        <v>169785</v>
       </c>
       <c r="AO91" s="13">
-        <v>340664</v>
+        <v>850760</v>
       </c>
       <c r="AP91" s="13">
-        <v>169785</v>
+        <v>151257</v>
       </c>
       <c r="AQ91" s="13">
-        <v>850760</v>
-      </c>
-      <c r="AR91" s="13">
-        <v>151257</v>
+        <v>100434</v>
+      </c>
+      <c r="AR91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS91" s="13">
-        <v>100434</v>
+        <v>88768</v>
       </c>
       <c r="AT91" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AU91" s="13">
-        <v>88768</v>
+        <v>306260</v>
       </c>
       <c r="AV91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW91" s="13">
-        <v>306260</v>
+      <c r="AW91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ91" s="13" t="s">
-        <v>58</v>
+      <c r="AY91" s="13">
+        <v>79670</v>
+      </c>
+      <c r="AZ91" s="13">
+        <v>110742</v>
       </c>
       <c r="BA91" s="13">
-        <v>79670</v>
+        <v>86579</v>
       </c>
       <c r="BB91" s="13">
-        <v>110742</v>
+        <v>109444</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>89</v>
       </c>
@@ -11771,7 +11771,7 @@
       <c r="BA92" s="9"/>
       <c r="BB92" s="9"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>66</v>
       </c>
@@ -11833,39 +11833,39 @@
       <c r="V93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W93" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X93" s="11" t="s">
-        <v>58</v>
+      <c r="W93" s="11">
+        <v>22370</v>
+      </c>
+      <c r="X93" s="11">
+        <v>49570</v>
       </c>
       <c r="Y93" s="11">
-        <v>22370</v>
+        <v>36692</v>
       </c>
       <c r="Z93" s="11">
-        <v>49570</v>
+        <v>38915</v>
       </c>
       <c r="AA93" s="11">
-        <v>36692</v>
+        <v>39195</v>
       </c>
       <c r="AB93" s="11">
-        <v>38915</v>
+        <v>45026</v>
       </c>
       <c r="AC93" s="11">
-        <v>39195</v>
+        <v>43167</v>
       </c>
       <c r="AD93" s="11">
-        <v>45026</v>
+        <v>55862</v>
       </c>
       <c r="AE93" s="11">
-        <v>43167</v>
-      </c>
-      <c r="AF93" s="11">
-        <v>55862</v>
-      </c>
-      <c r="AG93" s="11">
         <v>44690</v>
       </c>
+      <c r="AF93" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG93" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH93" s="11" t="s">
         <v>58</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>67</v>
       </c>
@@ -12019,74 +12019,74 @@
       <c r="AE94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF94" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG94" s="13" t="s">
-        <v>58</v>
+      <c r="AF94" s="13">
+        <v>45001</v>
+      </c>
+      <c r="AG94" s="13">
+        <v>43703</v>
       </c>
       <c r="AH94" s="13">
-        <v>45001</v>
+        <v>35865</v>
       </c>
       <c r="AI94" s="13">
-        <v>43703</v>
+        <v>47500</v>
       </c>
       <c r="AJ94" s="13">
-        <v>35865</v>
+        <v>30234</v>
       </c>
       <c r="AK94" s="13">
-        <v>47500</v>
+        <v>47213</v>
       </c>
       <c r="AL94" s="13">
-        <v>30234</v>
+        <v>16753</v>
       </c>
       <c r="AM94" s="13">
-        <v>47213</v>
+        <v>53716</v>
       </c>
       <c r="AN94" s="13">
-        <v>16753</v>
+        <v>42926</v>
       </c>
       <c r="AO94" s="13">
-        <v>53716</v>
+        <v>12683</v>
       </c>
       <c r="AP94" s="13">
-        <v>42926</v>
+        <v>10301</v>
       </c>
       <c r="AQ94" s="13">
-        <v>12683</v>
+        <v>142364</v>
       </c>
       <c r="AR94" s="13">
-        <v>10301</v>
+        <v>43456</v>
       </c>
       <c r="AS94" s="13">
-        <v>142364</v>
+        <v>14424</v>
       </c>
       <c r="AT94" s="13">
-        <v>43456</v>
+        <v>41045</v>
       </c>
       <c r="AU94" s="13">
-        <v>14424</v>
+        <v>57515</v>
       </c>
       <c r="AV94" s="13">
-        <v>41045</v>
+        <v>49093</v>
       </c>
       <c r="AW94" s="13">
-        <v>57515</v>
+        <v>9524</v>
       </c>
       <c r="AX94" s="13">
-        <v>49093</v>
+        <v>14449</v>
       </c>
       <c r="AY94" s="13">
-        <v>9524</v>
+        <v>72026</v>
       </c>
       <c r="AZ94" s="13">
-        <v>14449</v>
+        <v>16674</v>
       </c>
       <c r="BA94" s="13">
-        <v>72026</v>
+        <v>80684</v>
       </c>
       <c r="BB94" s="13">
-        <v>16674</v>
+        <v>21383</v>
       </c>
     </row>
   </sheetData>
